--- a/data/outputs/vienne/vienne.xlsx
+++ b/data/outputs/vienne/vienne.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Germain</t>
+          <t>Saint-Germain</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rivière-des-Prairies (Qc)</t>
+          <t>Rivière-des-Prairies</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,11 +661,7 @@
           <t>ANDRÉ, Louise. Fille du Roy. Née vers 1629. Fille d’Étienne André et d’Adrienne Talon. Mariée à Nicolas Lebossu dit Leprince, à Trois-Rivières (Qc), le 18-01-1672. Inhumée à Boucherville (Qc), le 08-12-1687. (FG)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Boucherville (Qc)</t>
@@ -695,7 +691,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Notre-Dame</t>
+          <t>Paroisse de Notre-Dame</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -779,7 +775,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Hilaire</t>
+          <t>paroisse Saint-Hilaire</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -844,7 +840,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -901,11 +897,7 @@
           <t>BAILLON, Élisabeth. Fille de François Baillon et d’Anne Cardon. Mariée à Pierre Consolin, à Louisbourg (Nouvelle-Écosse), le 10-02-1722. (FG)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Louisbourg, Nouvelle-Écosse</t>
@@ -1060,7 +1052,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>L’Ange-Gardien (Qc)</t>
+          <t>L'Ange-Gardien (Qc)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1115,12 +1107,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Didier</t>
+          <t>Saint-Didier</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Entre le 07-03-1695 et le 10-11-1698</t>
+          <t>Inconnu entre le 07-03-1695 et le 10-11-1698</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1147,12 +1139,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N'est pas spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1177,16 +1169,8 @@
           <t>BELLINIER dit La Ruine, Étienne. Domestique. Né vers 1645. Fils de Pierre Bellinier et de Catherine Nourisson. Marié à Jeanne Lambert, à l’Île-d’Orléans (Qc), le 04-10-1669. Décédé après 1673. Confirmé à Québec, en 1664. (ILMPC)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Lieu non spécifié</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Lieu non spécifié</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>LUSIGNAN (86600)</t>
@@ -1211,12 +1195,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Inconnue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Inconnue</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1241,11 +1225,7 @@
           <t>BERGER, François. Fils de Mathurin Berger et de Françoise Servant. Marié à Agnès Ratier, à Québec, le 02-07-1733. (FG)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -1307,7 +1287,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nom de la paroisse Notre-Dame</t>
+          <t>Notre-Dame</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1579,12 +1559,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Notre-Dame</t>
+          <t>Paroisse Notre-Dame</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sainte-Foy (Qc)</t>
+          <t>Vide</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1635,7 +1615,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Clément et Saint-Jean</t>
+          <t>Saint-Clément et Saint-Jean</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1667,7 +1647,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Saint-jean-de-Montierneuf</t>
+          <t>Paroisse Saint-jean-de-Montierneuf</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1883,7 +1863,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Saint-Cybard</t>
+          <t>église Saint-Cybard</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1913,16 +1893,8 @@
           <t>BOUDROT, Marie. Fille de Pierre Boudrot et de Cécile Véco. Mariée à Christophe Delaune, à Archigny (Fr.), le 30-06-1774. Partie vers la Louisiane, avec sa famille, sur le navire « La Caroline » de Nantes, le 15-10-1785 (ILMPC)</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>ARCHIGNY (86210)</t>
@@ -1979,7 +1951,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Pierre-aux-Liens</t>
+          <t>Saint-Pierre-aux-Liens</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2009,11 +1981,7 @@
           <t>BOUART*, Marie. Fille du Roy. Baptisée le 22-02-1649, paroisse Saint-Savin. Fille de François Bouard et de Jacquette Billaud. Mariée à 1) Jacques Antrade, à Québec, le 16-08-1668. 2) François Dessureaux, en 1672. 3) Jean Boismené dit Laplante, le 07-02-1689. Décédée à Batiscan (Qc), le 15-09-1712. Arrivée, en Nouvelle-France, en 1668. (ILMPC)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>Batiscan (Qc)</t>
@@ -2041,7 +2009,11 @@
           <t>BOURBEAU, Adrienne. Née vers 1678. Fille de Simon Bourbeau et de Françoise Letard. Mariée à Jacques Jobin, à Charlesbourg (Qc), le 23-11-1694. Dix enfants. Inhumée à Charlesbourg (Qc), le 15-12-1746. (FG)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Charlesbourg (Qc)</t>
@@ -2176,7 +2148,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Saint-Jean, Île-d’Orléans (Qc)</t>
+          <t>Saint-Jean, Île-d’Orléans</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2311,12 +2283,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Saint-Jean-Baptiste</t>
+          <t>Paroisse Saint-Jean-Baptiste</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>La Rochelle</t>
+          <t>La Rochelle (Fr.)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2343,12 +2315,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>paroisse Saint-Jean-Baptiste</t>
+          <t>Paroisse Saint-Jean-Baptiste</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>non spécifié</t>
+          <t>Vide</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2375,7 +2347,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Antoine</t>
+          <t>Saint-Antoine</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2463,12 +2435,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Saint-André</t>
+          <t>Église Saint-André</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Saint-Augustin</t>
+          <t>Saint-Augustin (Qc)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2583,7 +2555,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Paroisse Notre-Dame la Petite</t>
+          <t>Notre-Dame la Petite</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2615,12 +2587,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Porchaire</t>
+          <t>Saint-Porchaire</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hôtel-Dieu de Québec</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2673,16 +2645,8 @@
           <t>CHARAUX dit Laliberté, André. Né vers 1731. Fils de François Charaux et de Catherine Maugot. Marié à Marie Catherine Amiot dite Lincour, à Québec, le 15-05-1752. Deux enfants. (FG)</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -2707,7 +2671,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Jean-Baptiste</t>
+          <t>Saint-Jean-Baptiste</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2769,7 +2733,11 @@
           <t>CHARDON, Jean-Baptiste. Né en 1671. Prêtre, jésuite, missionnaire. Décédé à Québec en 1743. Novice à Bordeaux (Fr.), il complète ses études à Poitiers (Fr.), de 1695 à 1699, après être passé par la Rochelle (Fr.). Il embarque en 1699 pour la Nouvelle-France, il étudie les langues indiennes des régions des Grands Lacs. Envoyé au Saguenay, en 1700 et 1701, vers le poste de Michillimakinac et la baie des Puants, il y reste 32 années. (ILMPC)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -2859,7 +2827,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Jean-de-Montierneuf</t>
+          <t>Saint-Jean-de-Montierneuf</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2896,7 +2864,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>région de Pittsburgh (Pennsylvanie)</t>
+          <t>Pittsburgh (Pennsylvanie)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2923,7 +2891,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Jean-de-Montierneuf</t>
+          <t>Saint-Jean-de-Montierneuf</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2955,7 +2923,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Savin</t>
+          <t>Saint-Savin</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2987,7 +2955,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3115,12 +3083,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Germain</t>
+          <t>paroisse Saint-Germain</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Valeur non spécifiée</t>
+          <t>Valeur inconnue</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3211,12 +3179,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Saint-Denis</t>
+          <t>Paroisse Saint-Denis</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Varennes</t>
+          <t>Varennes (Qc)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3297,16 +3265,8 @@
           <t>DANSACQ, Jean. Fils de Denis Dansacq et de Renée Léger. Marié à Marie Pothier, fille du Roy, à Québec, en 1669. (FG)</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
           <t>MAGNÉ (86160)</t>
@@ -3447,7 +3407,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Saint-Denis</t>
+          <t>Paroisse Saint-Denis</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3557,16 +3517,8 @@
           <t>DESERY, Charles. Militaire. Né vers 1669. Fils de François Desery et d’Antoinette Lisabois. Marié à Françoise Lorrain, à Montréal (Qc), le 25-10-1705. Soldat des troupes de la Marine, compagnie de Chassaigne. (ILMPC)</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
           <t>BEAUMONT (86490)</t>
@@ -3623,7 +3575,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Saint Hilaire</t>
+          <t>Église Saint Hilaire</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3655,12 +3607,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Valeur non spécifiée</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Valeur non spécifiée</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3685,11 +3637,7 @@
           <t>DESROCHERS ou ROCHER, dit Lafrenière, Pierre. Né vers 1663. Fils de Pierre Desrochers et de Françoise Boucher. Marié à Marie-Suzanne Rabouin, à Batiscan (Qc), le 01-05-1696. Décédé à Baie du Febvre (Qc), le 07-11-1743. Première mention, en Nouvelle-France, en 1694. (FO)</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>Baie du Febvre (Qc)</t>
@@ -3948,7 +3896,7 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Montréal (Qc)</t>
+          <t>Montréal, Qc</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4023,7 +3971,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Eglise Saint-Vincent</t>
+          <t>Saint-Vincent</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4233,8 +4181,16 @@
           <t>FAUVEAU, Jeanne. Fille du Roy. Née vers 1646. Fille de Pierre Fauveau et de Jeanne Douillet. Mariée à 1) Jacques Leprévost, à Québec, le 25-11-1669. 2) Jean Petit, au Québec, en 1708. (FG)</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -4264,7 +4220,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Hôtel-Dieu de Québec</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4296,7 +4252,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inconnu (avant 1703)</t>
+          <t>Non spécifié (avant 1703)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4355,7 +4311,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>non spécifié</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4511,12 +4467,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Jean-Baptiste</t>
+          <t>Saint-Jean-Baptiste</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4541,8 +4497,16 @@
           <t>GAUTHIER dit Larose, René. Marié à Renée Labastille, à Sainte-Famille, Île-d’Orleans (Qc), le 11-04-1669. Deux enfants. (FG)</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sainte-Famille, Île-d’Orleans (Qc)</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>COUSSAY (86110)</t>
@@ -4624,7 +4588,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Champlain (Qc)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4707,7 +4671,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Église Saint-Pierre et Saint-Paul</t>
+          <t>Saint-Pierre et Saint-Paul</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4761,14 +4725,10 @@
           <t>GIROUARD, Dominique. Fils de Pierre Girouard et de Marguerite Gaudet. Marié à Agnès Broussard, à Archigny (Fr.), le 14-02-1775. Cinq enfants. Décédé à Chantenay (Qc), en 1778. (ILMPC)</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Chantenay, Qc</t>
+          <t>Chantenay (Qc)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4860,7 +4820,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sainte-Geneviève-de-Pierrefonds</t>
+          <t>Sainte-Geneviève-de-Pierrefonds (Qc)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4885,7 +4845,11 @@
           <t>GONNAR* (de) ou GOUNOR, Nicolas. Jésuite. Baptisé le 19-11-1691. Première mention au pays en 1718. Décédé à Québec, le 16-12-1759. (FO)</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -4947,7 +4911,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rossay</t>
+          <t>Saint-Étienne de Rossay</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4979,12 +4943,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5011,12 +4975,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vide</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Vide</t>
+          <t>Neuville, QC</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5131,7 +5095,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Didier</t>
+          <t>Saint-Didier</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -5159,7 +5123,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5298,7 +5262,11 @@
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>LUSIGNAN (86600)</t>
@@ -5351,10 +5319,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Bordeaux (France)</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>Bordeaux, France</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -5379,7 +5351,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>04-05-1627, paroisse Saint-Jean-Baptiste</t>
+          <t>Saint-Jean-Baptiste</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5472,7 +5444,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Saint-Hyacinthe</t>
+          <t>Saint-Hyacinthe (Qc)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5504,7 +5476,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5605,8 +5577,16 @@
           <t>LACETIÈRE (de), Florent. Fils de Jean de Lacetière et d’Anne Debies. Marié à Jeanne Pluchon, au Québec, en 1687. (FG)</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>MOULISMES (86500)</t>
@@ -5636,7 +5616,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5663,12 +5643,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>La Mothe-Saint-Héray (France)</t>
+          <t>La Mothe-Saint-Héray (Fr)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Charlesbourg (Québec)</t>
+          <t>Charlesbourg (Qc)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5695,12 +5675,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>paroisse Saint-jean-de-Montierneuf</t>
+          <t>Saint-jean-de-Montierneuf</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Valeur non spécifiée ou introuvable</t>
+          <t>Valeur introuvable</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -5732,7 +5712,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Valeur manquante</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5796,7 +5776,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5823,7 +5803,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Eglise Saint-Nicolas</t>
+          <t>Saint-Nicolas</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5855,10 +5835,14 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Saint-Jacques</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>CHÂTELLERAULT (86100)</t>
@@ -5907,7 +5891,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Poisay le Jolly, commune des Ormes</t>
+          <t>Poisay le Jolly, communes des Ormes</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6002,7 +5986,11 @@
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Nouvelle-Orléans (Louisiane)</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>CHÂTELLERAULT (86100)</t>
@@ -6151,12 +6139,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Paroisse Notre-Dame</t>
+          <t>Notre-Dame</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>La Durantaye (Qc)</t>
+          <t>La Durantaye</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6181,11 +6169,7 @@
           <t>LEGENDRE, Marguerite. Fille de François Legendre et de Antoinette Ponsicaux. Marié à François Mouchard, à Louisbourg (NouvelleÉcosse), le 09-02-1750. (FG)</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>Louisbourg, Nouvelle-Écosse</t>
@@ -6273,8 +6257,16 @@
           <t>LAGNEAU, Étienne. Fils de François Lagneau et de Mathurine Boileau. Marié à Marguerite Lhéros, à Québec, le 20-05-1726. (FG)</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -6415,7 +6407,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>église Saint-Pierre et Saint-Paul</t>
+          <t>Saint-Pierre et Saint-Paul</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6493,11 +6485,7 @@
           <t>MALERAY DE LA MOLLERIE, Jacques. Militaire. Né vers 1657. Fils d’Isaac Maleray de la Mollerie et de Marie Tessier. Marié à Françoise Picoté de Belestre, à Montréal (Qc), le 07-01-1687. Enseigne, lieutenant, puis gardemarine en 1694 et enfin commandant du fort Lachine (Qc), en 1690 et 1701. Avant de venir au Canada, lieutenant au régiment de Noailles, il tue en duel le sieur Guillot de la Forest, à Poitiers, en 1677. Jugé par contumace, il sera condamné à avoir la tête tranchée. En 1693, Louis XIV lui accorde le droit de revenir en France, pour demander des lettres de pardon, sa peine ne sera pas appliquée. En 1701 ou 1702, il s’embarque, avec sa femme et ses deux enfants, sur le navire « La Seine », afin de rentrer en France. Le navire est capturé par les Anglais. Il décède en mer, lors de cette attaque, le 26-07-1704. (ILMPC-FO)</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
           <t>Mer</t>
@@ -6674,11 +6662,7 @@
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
+      <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
           <t>BONNES (86300)</t>
@@ -6706,11 +6690,7 @@
           <t>Sainte-Radegonde</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
           <t>VOUILLÉ (86190)</t>
@@ -6765,11 +6745,7 @@
           <t>MECHIN ou MESCHIN, Hélène. Née vers 1658. Fille de Pierre Meschin et d’Isabelle Bobin. Mariée à Joseph Prieur, à Mirebeau (Fr.), le 10-04-1677. Décédée à Québec, le 17-07-1728. Mentionnée en Nouvelle-France, avec son mari, en 1687. (ILMPC)</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -6831,7 +6807,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Château de Charnisay</t>
+          <t>Charnisay</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6983,7 +6959,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7245,16 +7221,8 @@
           <t>MORILLON, Mathurin. Né vers 1680. Fils de Mathurin Morillon et de Jeanne Ferret. Marié à Marguerite Morin, à Rivière-Ouelle (Qc), en 1710. Contrat de mariage le 27-07-1710 (greffe Étienne Jeanneau). Quatre enfants. (FG)</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
           <t>CHARRAIS (86170)</t>
@@ -7539,12 +7507,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Michel</t>
+          <t>Saint-Michel</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Décédé avant 1682 (pas de lieu spécifié)</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -7569,7 +7537,11 @@
           <t>PAGNOUX, Perrine. Née vers 1640. Fille de Louis Pagnoux et de Catherine Faugeret. Mariée à Jean Minet à Poitiers (Fr.), le 27-09-1664. Elle part avec son mari et ses deux filles, vers la Nouvelle-France, en 1670. Décédée à Québec, le 17-08-1720. (FO)</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -7632,7 +7604,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Charlesbourg (Qc)</t>
+          <t>Charlesbourg</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -7659,7 +7631,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Saint-Paul</t>
+          <t>Paroisse Saint-Paul</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -7687,7 +7659,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Saint-Hilaire de la Celle</t>
+          <t>Saint-Hilaire-de-la-Celle</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7812,7 +7784,7 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Ticonderoga, New York</t>
+          <t>Ticonderoga (New York)</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -7838,7 +7810,11 @@
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>AVANTON (86170)</t>
@@ -7927,7 +7903,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Saint-Paul</t>
+          <t>Paroisse Saint-Paul</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7959,12 +7935,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Paul</t>
+          <t>Saint-Paul</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -7994,7 +7970,11 @@
           <t>Paris, Hôtel de Cluny</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F255" t="inlineStr">
         <is>
           <t>MONTHOIRON (86210)</t>
@@ -8019,7 +7999,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Saint-Porchaire</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -8104,7 +8084,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>La Nouvelle-Orléans (Louisiane)</t>
+          <t>La Nouvelle-Orléans, Louisiane</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8155,7 +8135,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Paroisse SaintÉtienne</t>
+          <t>SaintÉtienne</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8276,7 +8256,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inconnu (avant 1697)</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8362,11 +8342,7 @@
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Louisbourg (Nouvelle-Écosse)</t>
-        </is>
-      </c>
+      <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
           <t>COUHÉ (86700)</t>
@@ -8490,7 +8466,11 @@
           <t>Québec</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>DISSAY (86130)</t>
@@ -8516,7 +8496,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Chambly (Qc)</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -8603,12 +8583,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Saint-Jean-Baptiste</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Neuville</t>
+          <t>Neuville (Qc)</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8780,7 +8760,7 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Port-Royal (Nouvelle-Écosse)</t>
+          <t>Port-Royal, Nouvelle-Écosse</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9034,7 +9014,11 @@
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -9062,7 +9046,11 @@
           <t>Saint-Jean-de-Montierneuf</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -9147,12 +9135,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Saint-Hilaire</t>
+          <t>Paroisse Saint-Hilaire</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Montréal (Qc)</t>
+          <t>Hôtel-Dieu de Montréal</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -9201,8 +9189,16 @@
           <t>SALOMON, Louis. Né vers 1681. Fils de François Salomon et de Marie Maire. Marié à Louisbourg (NouvelleÉcosse), le 05-02-1727. Un enfant. (FG)</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>POITIERS (86000)</t>
@@ -9225,10 +9221,14 @@
           <t>TARDIF ou TARDY, Louis. Né vers 1645. Fils de Jean Tardy et de Michelle Villain. Marié à Marie Allence, à Trois-Rivières (Qc), le 13-11-1669. Décédé après le 24-04-1673. Première mention, en Nouvelle France, en 1669. (FO).</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Nom du lieu inconnu après le 24-04-1673</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -9255,12 +9255,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Vide</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Vide</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Saint-Eustache</t>
+          <t>Saint-Eustache (Qc)</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Saint-Georges</t>
+          <t>paroisse Saint-Georges</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -9521,10 +9521,14 @@
           <t>VEZIN, Louis. Né vers 1734. Fils de Louis Vezin et de Marie Lemères. Marié à Marie-Anne Senes, à Montréal (Qc), le 30-09-1754. (FG)</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Montréal (Qc)</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -9581,7 +9585,11 @@
           <t>VIGNAULT dit Laverdure, Paul. Né vers 1641. Fils de Jean Vignault et de Renée. Marié à Françoise Bourgeois, à Sainte-Famille, Île-d’Orléans (Qc), le 03-11-1669. Deux enfants. Décédé avant 1703. (FG)</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E310" t="inlineStr">
         <is>
           <t>Inconnu</t>
@@ -9641,10 +9649,14 @@
           <t>VOYER D’ARGENSON* DE PAULMY, Pierre-Marc. Né le 16-08-1696. Chevalier comte de Veuil d’Argenson, baron des Ormes Sain-Martin, avocat au roi au Châtelet (Fr.), puis conseiller au parlement de Paris, maître des requêtes en 1718, lieutenant général de police en 1720, intendant de Tours (Fr.), en 1721, conseiller d’Etat en 1724, secrétaire d’état au département de la guerre de 1743 à 1757. Il vient trouver refuge dans son château des Ormes après avoir été exilé de la Cour du Roi. Dans ses mémoires on retrouve trace de décisions prises au sujet de la Nouvelle-France. Décédé en 1764. (ILMPC)</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>N'est pas spécifié</t>
+        </is>
+      </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Le château des Ormes</t>
+          <t>N'est pas spécifié</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -9676,7 +9688,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Saint-François-du-Lac</t>
+          <t>Saint-François-du-Lac (Qc)</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">

--- a/data/outputs/vienne/vienne.xlsx
+++ b/data/outputs/vienne/vienne.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>family_name</t>
+          <t>lastname</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>firstname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>mainplace</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birthplace</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deathplace</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>bio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>place_of_birth</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>place_of_death</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>principal_place</t>
         </is>
       </c>
     </row>
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire-de-la-Celle</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>ALARIE* ou, ALLARY, René. Baptisé le 08-06-1635, paroisse Saint-Hilaire-de-la-Celle. Fils d’Élisée Allary et d’Anne Dubois. Marié à Marie Royer, à Neuville (Qc), le 14-04-1681. Quatorze enfants. Inhumé à Montréal (Qc), 21-08-1709. Engagé du séminaire de Québec, arrivé en Nouvelle-France, en 1675. (FO)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire-de-la-Celle</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALARIE dit Grandalarie, René. Né vers 1646. Fils d’Antoine Alarie et d’Anne Chebret. Marié à Louise Thibault, à Neuville (Qc), le 17-02-1681. Décédé à Neuville (Qc), le 16-12-1700. Engagé du Séminaire de Québec, arrivé en Nouvelle-France, en 1674. (FO)</t>
+          <t>NEUVILLE-DE-POITOU (86177)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NEUVILLE-DE-POITOU (86177)</t>
+          <t>ALARIE dit Grandalarie, René. Né vers 1646. Fils d’Antoine Alarie et d’Anne Chebret. Marié à Louise Thibault, à Neuville (Qc), le 17-02-1681. Décédé à Neuville (Qc), le 16-12-1700. Engagé du Séminaire de Québec, arrivé en Nouvelle-France, en 1674. (FO)</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALBERT, Marie-Madeleine. Baptisée en 1776, église de Cenan. Fille de Nicolas Albert et de Marie-Marthe Benoist. Ils habitent la ferme n° 22, sur la Ligne Acadienne, en 1774. Elle meurt avant l’embarquement de ses parents sur le navire « La Caroline » de Nantes (Fr.), vers la Louisiane, en 1785. (ILMPC)</t>
+          <t>LA PUYE (86260)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,7 +549,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LA PUYE (86260)</t>
+          <t>ALBERT, Marie-Madeleine. Baptisée en 1776, église de Cenan. Fille de Nicolas Albert et de Marie-Marthe Benoist. Ils habitent la ferme n° 22, sur la Ligne Acadienne, en 1774. Elle meurt avant l’embarquement de ses parents sur le navire « La Caroline » de Nantes (Fr.), vers la Louisiane, en 1785. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rivière-des-Prairies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>ALLARD*, Simon. Scieur de long. Baptisé le 09-11-1664, paroisse Saint-Germain. Fils d’Émery Allard et de Julienne Baillou. Marié à Catherine Lacombe, à Pointe-aux-Trembles, (Qc), le 12-01-1705. Huit enfants. Inhumé à Rivière-des-Prairies (Qc), le 26-09-1739. Première mention, en Nouvelle-France, en 1683. (FO)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Saint-Germain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rivière-des-Prairies</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -598,22 +598,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>INGRANDES (86220)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Île de Sable (Qc)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>ALOIGNY*, Charles-Henri. Militaire. Baptisé le 25-10-1664. Fils de Louis Aloigny et de Charlotte Chasteigner. Marié à Marie Macart, à Québec, le 05-11-1703. Embarqué pour le Canada, en 1683, comme lieutenant des troupes de la Marine. Il est major des troupes, commandant, capitaine de vaisseau. Il prend le nom du marquis de la Groye, après la mort de son père. En 1695, il part pour le Fort Frontenac, dont il est nommé commandant, en 1700. Il est fait chevalier de l’ordre de Saint-Louis en 1705. Il rentre en France en 1708 pour des raisons de santé, mais revient, en Nouvelle-France, l’année suivante. Décédé lors du naufrage du « Saint-Jérôme », à l’île de Sable (Qc), en 1714. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Île de Sable (Qc)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>INGRANDES (86220)</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AMAURY, Jean. Né vers 1646. Fils de Pierre Amaury et de Suzanne Pressac. Marié à Marie Vigny ou Vignier, à Québec, le 25-09-1673. Onze enfants. Inhumé à Saint-François, Île-d’Orléans (Qc), le 19-08-1724. (FG)</t>
+          <t>SAINT-MACOUX (86400)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SAINT-MACOUX (86400)</t>
+          <t>AMAURY, Jean. Né vers 1646. Fils de Pierre Amaury et de Suzanne Pressac. Marié à Marie Vigny ou Vignier, à Québec, le 25-09-1673. Onze enfants. Inhumé à Saint-François, Île-d’Orléans (Qc), le 19-08-1724. (FG)</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANDRÉ, Louise. Fille du Roy. Née vers 1629. Fille d’Étienne André et d’Adrienne Talon. Mariée à Nicolas Lebossu dit Leprince, à Trois-Rivières (Qc), le 18-01-1672. Inhumée à Boucherville (Qc), le 08-12-1687. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>ANDRÉ, Louise. Fille du Roy. Née vers 1629. Fille d’Étienne André et d’Adrienne Talon. Mariée à Nicolas Lebossu dit Leprince, à Trois-Rivières (Qc), le 18-01-1672. Inhumée à Boucherville (Qc), le 08-12-1687. (FG)</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARNOU, Vincent. Domestique. Né vers 1673, paroisse de Notre-Dame. Engagé par le Père Jean, pour le sieur Aubert de la Chesnaye. Première mention en Nouvelle-France, dans les registres de l’Hôtel-Dieu de Québec, en 1696. (ILMPC)</t>
+          <t>MIREBEAU (86110)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,7 +697,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIREBEAU (86110)</t>
+          <t>ARNOU, Vincent. Domestique. Né vers 1673, paroisse de Notre-Dame. Engagé par le Père Jean, pour le sieur Aubert de la Chesnaye. Première mention en Nouvelle-France, dans les registres de l’Hôtel-Dieu de Québec, en 1696. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUBERT*, François. Baptisé le 13-11-1678, paroisse Notre-Dame. Fils de Joseph Aubert et de Jeanne Prieur. Marié à Louise Boucher dite Vin d’Espagne, à Québec, avant le 23-11-1699. (ILMPC)</t>
+          <t>MIREBEAU (86110)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIREBEAU (86110)</t>
+          <t>AUBERT*, François. Baptisé le 13-11-1678, paroisse Notre-Dame. Fils de Joseph Aubert et de Jeanne Prieur. Marié à Louise Boucher dite Vin d’Espagne, à Québec, avant le 23-11-1699. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUCHER* ou AUCHOIR dit Sanspitié, Antoine. Militaire. Baptisé le 22-06-1690, prieuré Saint-Georges. Fils de Louis Auchoir et d’Honorée Moricheau. Marié à Angélique Dumont, à Québec, le 11-10-1751. Trois enfants. Décédé après le 11-10-1751. Soldat des troupes de la Marine et garçon de cuisine du Général. Première mention, en Nouvelle-France, en 1719. (ILMPC-FO)</t>
+          <t>LE VIGEANT (86150)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -753,7 +753,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LE VIGEANT (86150)</t>
+          <t>AUCHER* ou AUCHOIR dit Sanspitié, Antoine. Militaire. Baptisé le 22-06-1690, prieuré Saint-Georges. Fils de Louis Auchoir et d’Honorée Moricheau. Marié à Angélique Dumont, à Québec, le 11-10-1751. Trois enfants. Décédé après le 11-10-1751. Soldat des troupes de la Marine et garçon de cuisine du Général. Première mention, en Nouvelle-France, en 1719. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUDOUART* ou AUDOUIN, François. Baptisé 02-01-1724, paroisse Saint-Hilaire. Fils de Jean Audouart et de Françoise Robichon. Marié à Jeanne Jalodin, à Québec, le 04-05-1750. (FO)</t>
+          <t>ASNOIS (86250)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -781,7 +781,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ASNOIS (86250)</t>
+          <t>AUDOUART* ou AUDOUIN, François. Baptisé 02-01-1724, paroisse Saint-Hilaire. Fils de Jean Audouart et de Françoise Robichon. Marié à Jeanne Jalodin, à Québec, le 04-05-1750. (FO)</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>SAINT-BENOÎT (86280)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>non spécifié</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>AURIAULT* ou ORIO, Louis. Baptisé le 08-11-1645, paroisse Saint-André. Fils de Charles Orio et de Marie Bordier. Marié à Marie-Madeleine Selle, à Québec, le 21-09-1673. Cinq enfants. Décédé en 1681. (FO)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>paroisse Saint-André</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>non spécifié</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SAINT-BENOÎT (86280)</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Saint-Didier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>BABIN* dit Lacroix, Pierre. Cuisinier du Gouverneur Frontenac. Baptisé le 12-11-1663, église Saint-Didier. Fils d’André Babin et de Geneviève Boudot. Marié à Madeleine Richaume, à Montréal (Qc), le 21-08-1691. Décédé en France, après 1700. Première mention, en Nouvelle-France, en 1689. (FO)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Saint-Didier</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>BLANZAY (86400)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Villaret</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>BAILLAIRGÉ*, Jean. Menuisier. Baptisé le 31-10-1726, à Villaret. Fils de Jean Baillairgé et de Jeanne Bourdois. Marié à Marie-Louise Parent, à Québec, le 01-06-1750. Cinq enfants. Décédé à Québec, le 06-09-1805. Arrivé en Nouvelle-France en 1741. Il participe à la Bataille des Plaines d’Abraham en 1759. Il entreprend, avec son fils François, le décor intérieur de la cathédrale de Québec. (ILMPC-VOIR CHAP. 1)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Villaret</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>BLANZAY (86400)</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BAILLON, Élisabeth. Fille de François Baillon et d’Anne Cardon. Mariée à Pierre Consolin, à Louisbourg (Nouvelle-Écosse), le 10-02-1722. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BAILLON, Élisabeth. Fille de François Baillon et d’Anne Cardon. Mariée à Pierre Consolin, à Louisbourg (Nouvelle-Écosse), le 10-02-1722. (FG)</t>
         </is>
       </c>
     </row>
@@ -922,22 +922,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>BARTHON*, Marthe-Françoise. Fille du Roy. Baptisée le 10-01-1651, paroisse de Saint-Jean-de-Montierneuf. Fille de Jacques Berton et de Renée Pestre. Mariée à Joseph Chevalier, à Montréal (Qc), le 07-10-1670. Inhumée à Montréal (Qc), le 13-08-1699. (FO)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>LUSIGNAN (86600)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pranzay</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Deschambault (Qc)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>BARONET*, Philippe. Baptisé le 26-02-1732 à Pranzay. Fils de Jacques Baronet et de Jeanne Barot. Marié à Marie Louise Gauthier, à Deschambault (Qc), le 02-11-1760. Décédé à Deschambault (Qc), le 20-11-1814. Première mention, en Nouvelle-France, en 1760. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Pranzay</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Deschambault (Qc)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>BONNES (86300)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fort de Chartres, sur les rives du Mississippi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>BARROUX, Catherine. Baptisée dans la paroisse Saint-André en 1697. Décédée au fort de Chartres, sur les rives du Mississippi, en 1760. Elle part, vers la Louisiane, en 1720, à bord du navire « La Gironde ». (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-André</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Fort de Chartres, sur les rives du Mississippi</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>BONNES (86300)</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARBEAU, François. Né vers 1649. Fils de Jacques Barbeau et de Jeanne Cornuelle. Marié à Marguerite Hédouin, fille du Roy, à Québec, le 24-08-1671. Onze enfants. Inhumé à Charlesbourg (Qc), le 16-06-1711. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BARBEAU, François. Né vers 1649. Fils de Jacques Barbeau et de Jeanne Cornuelle. Marié à Marguerite Hédouin, fille du Roy, à Québec, le 24-08-1671. Onze enfants. Inhumé à Charlesbourg (Qc), le 16-06-1711. (FG)</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BARBEAU, Jacques. Né vers 1623. Fils de Jacques Barbeau et de Marie Trouvez. Marié à Jeanne Grenier, à L’Ange-Gardien (Qc), le 09-02-1681. Inhumé à L’Ange-Gardien (Qc), le 18-11-1687. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BARBEAU, Jacques. Né vers 1623. Fils de Jacques Barbeau et de Marie Trouvez. Marié à Jeanne Grenier, à L’Ange-Gardien (Qc), le 09-02-1681. Inhumé à L’Ange-Gardien (Qc), le 18-11-1687. (FG)</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BAUDET, Jean. Fils de Sébastien Baudet et de Marie Baudonier. Marié à Marie Blandin, à Québec, le 23-09-1670. Dix enfants. Décédé à Québec, le 13-07-1714. (FG)</t>
+          <t>BLANZAY (86400)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BLANZAY (86400)</t>
+          <t>BAUDET, Jean. Fils de Sébastien Baudet et de Marie Baudonier. Marié à Marie Blandin, à Québec, le 23-09-1670. Dix enfants. Décédé à Québec, le 13-07-1714. (FG)</t>
         </is>
       </c>
     </row>
@@ -1102,22 +1102,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Saint-Didier</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Inconnu entre le 07-03-1695 et le 10-11-1698</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>BATREAU* ou BATTERAU dit Saint-Amand, Jacques-Clément. Cordonnier. Baptisé le 01-11-1669, paroisse Saint-Didier. Fils de Michel Batreau et de Marguerite Rat. Marié à Charlotte Voisin, à Repentigny ou Québec, vers 1686. Décédé entre le 07-03-1695 et le 10-11-1698. Première mention, en Nouvelle-France, en 1689. (FO)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Saint-Didier</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Inconnu entre le 07-03-1695 et le 10-11-1698</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -1134,22 +1134,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>BAUDOUIN, Michel. Né en 1691. Prêtre, jésuite, missionnaire. Décédé en 1768. Entre au noviciat des jésuites à Bordeaux (Fr.), en 1713, puis enseigne à Angoulême, Pau, la Rochelle, Fontenay-le-Comte (Fr.). Ordonné prêtre en 1725, il part pour Marennes (Fr.), en 1726, et enseigne à Luçon (Fr.). En 1728, on le retrouve en Louisiane, où il prononce ses voeux de coadjuteur spirituel. Il enseigne aux Chactas. Grande source de renseignements au sujet de cette nation, il était présent à chaque remise de présents à Mobile. Mais il est en situation délicate, à cause des affrontements entre Français et Chactas. Nommé supérieur de toutes les missions de la Louisiane, en 1751, il a l’autorisation de rester en Nouvelle-France, après 1763, malgré le devenir anglais de la colonie, car il n’a aucune famille en France. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -1166,14 +1166,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BELLINIER dit La Ruine, Étienne. Domestique. Né vers 1645. Fils de Pierre Bellinier et de Catherine Nourisson. Marié à Jeanne Lambert, à l’Île-d’Orléans (Qc), le 04-10-1669. Décédé après 1673. Confirmé à Québec, en 1664. (ILMPC)</t>
+          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LUSIGNAN (86600)</t>
+          <t>BELLINIER dit La Ruine, Étienne. Domestique. Né vers 1645. Fils de Pierre Bellinier et de Catherine Nourisson. Marié à Jeanne Lambert, à l’Île-d’Orléans (Qc), le 04-10-1669. Décédé après 1673. Confirmé à Québec, en 1664. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>CHÂTELLERAULT (86100)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Inconnue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Inconnue</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>BENOIST, Marguerite. Fille de Claude Benoist et d’Elisabeth Terriot. Mariée à Joseph Précieux, à Châtellerault (Fr.), le 07-02-1775. Veuve à 32 ans, elle part de Nantes, pour la Louisiane, sur le navire « L’Amitié », le 12-08-1785. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Inconnue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Inconnue</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BERGER, François. Fils de Mathurin Berger et de Françoise Servant. Marié à Agnès Ratier, à Québec, le 02-07-1733. (FG)</t>
+          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
+          <t>BERGER, François. Fils de Mathurin Berger et de Françoise Servant. Marié à Agnès Ratier, à Québec, le 02-07-1733. (FG)</t>
         </is>
       </c>
     </row>
@@ -1250,22 +1250,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>CIVRAY (86400)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Saint-Nicolas</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>BERGERON*, François. Militaire. Baptisé le 20-03-1709, église Saint-Nicolas. Fils de Jean Bergeron et de Catherine Roux. Marié à Marie-Josèphe Collet, à Montréal (Qc), le 04-03-1737. Décède à Montréal (Qc), le 05-11-1744. Caporal des troupes de la Marine, compagnie Duvivier. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Saint-Nicolas</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>CIVRAY (86400)</t>
         </is>
       </c>
     </row>
@@ -1282,22 +1282,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>LUSIGNAN (86600)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>BERNARD, Jean. Né en 1710, paroisse Notre-Dame. Fils de jacques Bernard et de Marie Braud. Marié à 1) Jeanne Bibeau, en France, avant 1739. 2) Angélique Chauret, à Québec le 12-01-1739. 3) Geneviève Maranda, à Québec, le 30-10-1742. Décédé à Québec, en 1744. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BERNARD* dit Leveillé, Claude. Militaire. Baptisé le 22-03-1671, église Notre-Dame. Fils de Jacques Bernard et de Renée Grelin. Marié à Angélique Coulombe, à Québec, le 07-08-1713. Soldat des troupes de la Marine, compagnie de Rouville, première mention, en Nouvelle-France, en 1713. (ILMPC)</t>
+          <t>MONTAMISÉ (86360)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1325,7 +1325,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MONTAMISÉ (86360)</t>
+          <t>BERNARD* dit Leveillé, Claude. Militaire. Baptisé le 22-03-1671, église Notre-Dame. Fils de Jacques Bernard et de Renée Grelin. Marié à Angélique Coulombe, à Québec, le 07-08-1713. Soldat des troupes de la Marine, compagnie de Rouville, première mention, en Nouvelle-France, en 1713. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BERTAULT, René. Fils de Pierre Bertault et de Charlotte Breschou. Marié à Marie-Agnès Bertiaume, à Sainte-Foy (Qc), en 1712. Contrat de mariage le 31-03-1712 (greffe JeanÉtienne Dubreuil). (FG)</t>
+          <t>SAINT-MAURICE-LA-CLOUÈRE (86160)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SAINT-MAURICE-LA-CLOUÈRE (86160)</t>
+          <t>BERTAULT, René. Fils de Pierre Bertault et de Charlotte Breschou. Marié à Marie-Agnès Bertiaume, à Sainte-Foy (Qc), en 1712. Contrat de mariage le 31-03-1712 (greffe JeanÉtienne Dubreuil). (FG)</t>
         </is>
       </c>
     </row>
@@ -1366,22 +1366,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>LA FERRIÈRE-AIROUX (86160)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>BERTRAND, Gabriel. Né vers 1665, église Saint-Hilaire. Fils de Simon Bertrand et de Françoise Aymé. Marié à Marie-Anne Guillot, à Montréal (Qc), le 22-09-1690. Décédé, entre le 05-09-1699 et le 03-03-1700. Mentionné pour la première fois, en Nouvelle-France, en 1689. (FO)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>LA FERRIÈRE-AIROUX (86160)</t>
         </is>
       </c>
     </row>
@@ -1398,22 +1398,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>LA FERRIÈRE-AIROUX (86160)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>BERTRAND, Jean. Né vers 1667, église Saint-Hilaire. Fils de Simon Bertrand et de Françoise Aymé. Marié à Marie-Charlotte Bérard dite La Reverdra, à Montréal (Qc), le 23-09-1697. Décédé à Montréal (Qc), le 28-10-1718. Mentionné pour la première fois, en Nouvelle-France, en 1690. (FO)</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>LA FERRIÈRE-AIROUX (86160)</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Jean</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>BEAUMONT, Vincente. Né en 1614. Baptisé dans la paroisse Saint-Jean. Mariée à Emery Pasquier à Poitiers (Fr.), en 1638. Trois enfants. Décédée à Charlesbourg (Qc), en 1680. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Jean</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -1462,22 +1462,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>LA CHAUSSÉE (86330)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Beauport (Qc)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>BINET*, René. Baptisé le 09-04-1638. Fils de Mathurin Binet et de Marie Bonnet. Marié à Catherine Bourgeois, à Québec, le 19-10-1667. Décédé à Beauport (Qc), le 15-05-1699. Engagé à La Rochelle, chez le notaire Teuleron, le 23-03-1665. Première mention, en Nouvelle-France, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Beauport (Qc)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>LA CHAUSSÉE (86330)</t>
         </is>
       </c>
     </row>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>MARIGNY-BRIZAY (86380)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>BISSON* dit Lépine, René. Baptisé le 16-04-1635, paroisse Saint-Étienne. Marié à 1) Louise Valet, fille du Roy, à Québec, le 16-09-1670. 2) Anne Lainé, fille du Roy, à Charlesbourg (Qc), le 05-11-1685. Deux enfants. Décédé à Québec, le 21-03-1728. (ILMPC-FG)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Saint-Étienne</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MARIGNY-BRIZAY (86380)</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BISSONNETTE, Jacques. Né vers 1639 ou 1645. Fils de Jean Bissonnette et de Marie Goupillots. Marié à Marguerite Collet, fille du Roy, à Boucherville (Qc), en 1670. Contrat de mariage le 10-11-1670 (greffe Thomas Frérot). Neuf enfants. Inhumé à Varennes (Qc) le 28-12-1723. (FG)</t>
+          <t>LA CHAPELLE-BÂTON (86250)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LA CHAPELLE-BÂTON (86250)</t>
+          <t>BISSONNETTE, Jacques. Né vers 1639 ou 1645. Fils de Jean Bissonnette et de Marie Goupillots. Marié à Marguerite Collet, fille du Roy, à Boucherville (Qc), en 1670. Contrat de mariage le 10-11-1670 (greffe Thomas Frérot). Neuf enfants. Inhumé à Varennes (Qc) le 28-12-1723. (FG)</t>
         </is>
       </c>
     </row>
@@ -1554,22 +1554,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Paroisse Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Vide</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>BIZARD* dit Lagiroflée, Charles. Militaire. Baptisé le 20-10-1702, paroisse Notre-Dame. Fils de Charles Bizard et de Marie Charbonnier. Marié à Angélique Grégoire, à Sainte-Foy (Qc), le 10-11-1737. Canonnier des troupes de la Marine. Première mention, en Nouvelle-France, en 1731. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Paroisse Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Vide</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -1586,14 +1586,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BILLY dit Léveillé, Étienne. Fils de Claude Billy et d’Anne Proulx. Marié à 1) Marie-Anne Girard, à Québec, le 21-11-1712. 2) Marie-Anne Dechaume, à Québec, le 02-08-1717. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BILLY dit Léveillé, Étienne. Fils de Claude Billy et d’Anne Proulx. Marié à 1) Marie-Anne Girard, à Québec, le 21-11-1712. 2) Marie-Anne Dechaume, à Québec, le 02-08-1717. (FG)</t>
         </is>
       </c>
     </row>
@@ -1610,22 +1610,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SAINT-JEAN-DE-SAUVES (86330)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Saint-Clément et Saint-Jean</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>BLANCHARD*, François. Militaire. Baptisé le 28-02-1731, paroisse Saint-Clément et Saint-Jean. Fils de René Blanchard et de Marie-Françoise Brault. Marié à Marie-Josèphe Robin, à Montréal (Qc), le 30-08-1762. Inhumé à Montréal (Qc), le 15-04-1790. Soldat au régiment de La Sarre, arrivé, en Nouvelle-France, en 1756. (FO)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Saint-Clément et Saint-Jean</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>SAINT-JEAN-DE-SAUVES (86330)</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hôpital Général de Québec</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>BIZET*, Jean. Domestique des sulpiciens. Baptisé le 11-02-1663, paroisse Saint-jean-de-Montierneuf. Fils de Jacques Bizet et de Françoise Coualier. Marié à Catherine Quenneville, à Montréal (Qc), le 18-02-1697. Décédé à l’Hôpital Général de Québec, le 21-08-1734. Première mention, en Nouvelle-France, en 1685. (FO)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Hôpital Général de Québec</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -1674,14 +1674,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BLANCHARD dit Turenne, Pierre. Fils de Pierre Blanchard et d’Andrée Geoffroy. Marié à Gertrude Dupuis, à Trois-Rivières (Qc), le 01-06-1733. Six enfants. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BLANCHARD dit Turenne, Pierre. Fils de Pierre Blanchard et d’Andrée Geoffroy. Marié à Gertrude Dupuis, à Trois-Rivières (Qc), le 01-06-1733. Six enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOILEAU, Pierre. Né vers 1676. Fils de Vincent Boileau et de Geneviève Girard. Marié à 1) Marguerite Lampron dite Lacharité, au Québec, en 1698. 2) Madeleine ou Marguerite Ménard, à Boucherville (Qc), le 05-07-1706. Six enfants. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BOILEAU, Pierre. Né vers 1676. Fils de Vincent Boileau et de Geneviève Girard. Marié à 1) Marguerite Lampron dite Lacharité, au Québec, en 1698. 2) Madeleine ou Marguerite Ménard, à Boucherville (Qc), le 05-07-1706. Six enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -1722,14 +1722,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOISSIER dit Tranchemontagne, Jacques. Fils de Pierre Boissier et de Jeanne-Catherine Laporte. Marié à Catherine Tramblay, à Québec, le 24-04-1758. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BOISSIER dit Tranchemontagne, Jacques. Fils de Pierre Boissier et de Jeanne-Catherine Laporte. Marié à Catherine Tramblay, à Québec, le 24-04-1758. (FG)</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BOISMÉ, Jean. Né vers 1640. Fils de Pierre Boismé et d’Andrée Bounet. Marié à Marie Hué, à Québec, le 07-01-1668. Six enfants. Inhumé à Charlesbourg (Qc), le 13-07-1703. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BOISMÉ, Jean. Né vers 1640. Fils de Pierre Boismé et d’Andrée Bounet. Marié à Marie Hué, à Québec, le 07-01-1668. Six enfants. Inhumé à Charlesbourg (Qc), le 13-07-1703. (FG)</t>
         </is>
       </c>
     </row>
@@ -1774,14 +1774,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BONODEAU, dit Châtellerault, Louis. Fils de René Bonodeau et de Catherine Arnaud. Marié à Anne-Claude de Laval, fille du Roy, à Québec, en 1671. Contrat de mariage le 13-10-1671 (greffe Romain Becquet). Cinq enfants. (FG)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>BONODEAU, dit Châtellerault, Louis. Fils de René Bonodeau et de Catherine Arnaud. Marié à Anne-Claude de Laval, fille du Roy, à Québec, en 1671. Contrat de mariage le 13-10-1671 (greffe Romain Becquet). Cinq enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOSSÉ, Louis. Né vers 1644 ou 1650. Fils de Jean Bossé et d’Anne Guillon. Marié à Angélique Bouchard, à Cap-Saint-Ignace (Qc), en 1692. Contrat de mariage le 16-10-1692 (greffe Louis Chambalon). Sept enfants. Inhumé à Cap-Saint-Ignace, le 12-09-1736. (FG)</t>
+          <t>CHABOURNAY (86380)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CHABOURNAY (86380)</t>
+          <t>BOSSÉ, Louis. Né vers 1644 ou 1650. Fils de Jean Bossé et d’Anne Guillon. Marié à Angélique Bouchard, à Cap-Saint-Ignace (Qc), en 1692. Contrat de mariage le 16-10-1692 (greffe Louis Chambalon). Sept enfants. Inhumé à Cap-Saint-Ignace, le 12-09-1736. (FG)</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1826,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Rivière-Ouelle (Qc)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>BOIS*, BOY ou BOHET, Jacques. Militaire. Baptisé le 24-06-1671, paroisse Saint-Jean-Baptiste. Fils de René Bohet et de Renée Boyer. Marié à Anne Soucy, à Rivière-Ouelle (Qc), le 24-11-1704. Décédé à Rivière-Ouelle (Qc), le 12-11-1741. Soldat des troupes de la Marine, compagnie de Longueuil, arrivé en Nouvelle-France, en 1699. (FO)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Rivière-Ouelle (Qc)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -1858,22 +1858,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>LATILLÉ (86190)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>église Saint-Cybard</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Saint-Laurent, Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>BOUCHET* dit Saint-Amour, Jacques. Artisan maçon, tailleur de pierres. Baptisé le 20-07-1664, église Saint-Cybard. Fils de Pierre Bouchet et de Renée Groleau. Marié à Marie-Renée Laverti, à Montréal (Qc), le 16-06-1709. Décédé à Saint-Laurent, Montréal (Qc), le 30-08-1739. Mentionné pour la première fois, en Nouvelle-France, en 1700. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>église Saint-Cybard</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Saint-Laurent, Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>LATILLÉ (86190)</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOUDROT, Marie. Fille de Pierre Boudrot et de Cécile Véco. Mariée à Christophe Delaune, à Archigny (Fr.), le 30-06-1774. Partie vers la Louisiane, avec sa famille, sur le navire « La Caroline » de Nantes, le 15-10-1785 (ILMPC)</t>
+          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARCHIGNY (86210)</t>
+          <t>BOUDROT, Marie. Fille de Pierre Boudrot et de Cécile Véco. Mariée à Christophe Delaune, à Archigny (Fr.), le 30-06-1774. Partie vers la Louisiane, avec sa famille, sur le navire « La Caroline » de Nantes, le 15-10-1785 (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>ITEUIL (86240)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Saint-Saturnin</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>BOUNILOT*, Michel. Domestique. Baptisé le 10-07-1653, église Saint-Saturnin. Fils de Denis Bounilot et de Françoise Cadin. Marié à Marie-Madeleine Fiset, à l’Ange-Gardien (Qc), le 27-11-1688. Décédé entre 1688 et 1689. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Saint-Saturnin</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ITEUIL (86240)</t>
         </is>
       </c>
     </row>
@@ -1946,22 +1946,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>CISSÉ (86170)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-aux-Liens</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>BOURBEAU, Simon ou Jean. Né vers 1620, paroisse Saint-Pierre-aux-Liens. Fils de Sébastien Bourbeau et de Marie Gobin. Marié à Françoise Letard, à Poitiers (Fr.), le 01-12-1657. Cinq enfants. Décédé à Charlesbourg (Qc), le 12-03-1692. Première mention en 1663. (FO)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Saint-Pierre-aux-Liens</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CISSÉ (86170)</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOUART*, Marie. Fille du Roy. Baptisée le 22-02-1649, paroisse Saint-Savin. Fille de François Bouard et de Jacquette Billaud. Mariée à 1) Jacques Antrade, à Québec, le 16-08-1668. 2) François Dessureaux, en 1672. 3) Jean Boismené dit Laplante, le 07-02-1689. Décédée à Batiscan (Qc), le 15-09-1712. Arrivée, en Nouvelle-France, en 1668. (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>BOUART*, Marie. Fille du Roy. Baptisée le 22-02-1649, paroisse Saint-Savin. Fille de François Bouard et de Jacquette Billaud. Mariée à 1) Jacques Antrade, à Québec, le 16-08-1668. 2) François Dessureaux, en 1672. 3) Jean Boismené dit Laplante, le 07-02-1689. Décédée à Batiscan (Qc), le 15-09-1712. Arrivée, en Nouvelle-France, en 1668. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>BOURBEAU, Adrienne. Née vers 1678. Fille de Simon Bourbeau et de Françoise Letard. Mariée à Jacques Jobin, à Charlesbourg (Qc), le 23-11-1694. Dix enfants. Inhumée à Charlesbourg (Qc), le 15-12-1746. (FG)</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2038,14 +2038,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BOURLOTON, Pierre. Né vers 1665. Fils de Pierre Bourloton et de Jeanne Boulard. Marié à Anne Renaud, à Charlesbourg (Qc), en 1689. Contrat de mariage le 21-11-1688 (greffe François Genaple de Bellefonds). (FG)</t>
+          <t>SAINT-MACOUX (86400)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SAINT-MACOUX (86400)</t>
+          <t>BOURLOTON, Pierre. Né vers 1665. Fils de Pierre Bourloton et de Jeanne Boulard. Marié à Anne Renaud, à Charlesbourg (Qc), en 1689. Contrat de mariage le 21-11-1688 (greffe François Genaple de Bellefonds). (FG)</t>
         </is>
       </c>
     </row>
@@ -2062,14 +2062,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOURQUE, Antoine. Né en 1609. Marié à Antoinette Landry à Port-Royal (Nouvelle-Écosse), en 1642. Il serait arrivé en Acadie vers 1640. (ILMPC)</t>
+          <t>MARTAIZÉ (86330)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MARTAIZÉ (86330)</t>
+          <t>BOURQUE, Antoine. Né en 1609. Marié à Antoinette Landry à Port-Royal (Nouvelle-Écosse), en 1642. Il serait arrivé en Acadie vers 1640. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BOUTIN dit Antoine, Antoine. Militaire. Né vers 1642. Fils de Jean Boutin et de Georgette Bonneau. Marié à Geneviève Gandin, à Québec, le 03-11-1665. Cinq enfants. Décédé à Neuville (Qc), avant 1677. Tambour dans l’armée du Roy, première mention, en Nouvelle-France, en 1663. (ILMPC-FO)</t>
+          <t>VERNON (86340)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VERNON (86340)</t>
+          <t>BOUTIN dit Antoine, Antoine. Militaire. Né vers 1642. Fils de Jean Boutin et de Georgette Bonneau. Marié à Geneviève Gandin, à Québec, le 03-11-1665. Cinq enfants. Décédé à Neuville (Qc), avant 1677. Tambour dans l’armée du Roy, première mention, en Nouvelle-France, en 1663. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -2114,14 +2114,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOYLEAU, Marie. Fille du Roy. Née vers 1648. Fille de René Boyleau et de Joachine Ferrant. Mariée à Pierre Chauvin, à l’Île-d’Orléans (Qc), avant 1668. Mentionnée pour la première fois en Nouvelle-France en 1665, où elle est arrivée avec sa soeur. (ILMPC)</t>
+          <t>DERCÉ (86420)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DERCÉ (86420)</t>
+          <t>BOYLEAU, Marie. Fille du Roy. Née vers 1648. Fille de René Boyleau et de Joachine Ferrant. Mariée à Pierre Chauvin, à l’Île-d’Orléans (Qc), avant 1668. Mentionnée pour la première fois en Nouvelle-France en 1665, où elle est arrivée avec sa soeur. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2138,22 +2138,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>ORCHES (86230)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Saint-Jean, Île-d’Orléans</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>BOYLEAU*, Marguerite. Baptisée le 11-08-1638, église Saint-Hilaire. Mariée à Jean Serreau dit Saint-Aubin, à Château-Richer (Qc), vers 1663. Décédée à Saint-Jean, Île-d’Orléans (Qc), après 1692. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Saint-Jean, Île-d’Orléans</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ORCHES (86230)</t>
         </is>
       </c>
     </row>
@@ -2170,22 +2170,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>ARCHIGNY (86210)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>BRAUD, Joseph-Gabriel. Marin. Fils de Joseph Braud et d’Ursulle Bourg. Marié à Marguerite Temple à Archigny (Fr.), le 30-09-1777. Deux enfants. Parti pour la Louisiane, avec sa famille, sur le navire « L’Amitié » de Nantes, le 12-08-1785. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
     </row>
@@ -2202,14 +2202,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BRAULT, Jacques. Fils de Pierre Brault et de Marie Chauvin. Marié à Charlotte de Coppequesne, fille du Roy, à Montréal (Qc), en 1688. Contrat de mariage le 25-02-1688 (greffe Antoine Adhémar). (FG)</t>
+          <t>COUHÉ (86700)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>COUHÉ (86700)</t>
+          <t>BRAULT, Jacques. Fils de Pierre Brault et de Marie Chauvin. Marié à Charlotte de Coppequesne, fille du Roy, à Montréal (Qc), en 1688. Contrat de mariage le 25-02-1688 (greffe Antoine Adhémar). (FG)</t>
         </is>
       </c>
     </row>
@@ -2226,14 +2226,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BROUSSARD, Agnès. Fille de Joseph Broussard et d’Ursule Leblanc. Mariée à 1) Dominique Girouars, à Archigny (Fr.), le 14-02-1775. Cinq enfants. 2) Pierre Poitier, Archigny (Fr.), le 25-11-1783. Partie vers la Louisane, sur le navire « Le Beaumont » de Paimboeuf, le 11-06-1785. (ILMPC)</t>
+          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARCHIGNY (86210)</t>
+          <t>BROUSSARD, Agnès. Fille de Joseph Broussard et d’Ursule Leblanc. Mariée à 1) Dominique Girouars, à Archigny (Fr.), le 14-02-1775. Cinq enfants. 2) Pierre Poitier, Archigny (Fr.), le 25-11-1783. Partie vers la Louisane, sur le navire « Le Beaumont » de Paimboeuf, le 11-06-1785. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BRUN, Vincent. Laboureur. Né vers 1611. Marié à Renée Brault ou Brode, à La Chaussée (Fr.), vers 1644. Cinq enfants. Décédé à Port-Royal (Nouvelle-Écosse). (FG)</t>
+          <t>LA CHAUSSÉE (86330)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LA CHAUSSÉE (86330)</t>
+          <t>BRUN, Vincent. Laboureur. Né vers 1611. Marié à Renée Brault ou Brode, à La Chaussée (Fr.), vers 1644. Cinq enfants. Décédé à Port-Royal (Nouvelle-Écosse). (FG)</t>
         </is>
       </c>
     </row>
@@ -2278,22 +2278,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>La Rochelle (Fr.)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>BOURGINE*, Hilaire. Greffier. Baptisé le 05-01-1650, paroisse Saint-Jean-Baptiste. Fils de Jean Bourgine et de Mathurine Poitier ou Potet. Marié à Marie Bellette, à La Rochelle(Fr.), le 09-06-1687. Décédé à La Rochelle (Fr.), en 1725. Première mention, en Nouvelle-France, en 1669, il est greffier de la juridiction de Montréal (Qc). En 1693 il achète à La Rochelle (Fr.), une maison rue Chaudrier. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>La Rochelle (Fr.)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2310,22 +2310,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Vide</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>BRUNEAU* dit Jolicoeur, René. Tisserand. Baptisé le 09-06-1641, paroisse Saint-Jean-Baptiste. Fils de Georges Bruneau et de Blaisette Martin. Marié à Anne Poitraud, à Québec, le 17-09-1668. Décédé après, le 15-02-1699. Première mention, en Nouvelle-France, en 1666. (FO)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Vide</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>QUINÇAY (86190)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Saint-Antoine</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>CAILLAULT* ou CAILLOT, Jean. Baptisé le 26-05-1715, paroisse Saint-Antoine. Fils de Jean Caillot et d’Anne Girault. Marié à Marie-Anne-Catherine Roy, à Montréal (Qc), le 24-05-1758. Décédé à Montréal (Qc), le 30-11-1782. Première mention en Nouvelle-France, en 1746. (FO)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Saint-Antoine</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>QUINÇAY (86190)</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CARTIER, Marie. Née vers 1676. Mariée à 1) Joseph Gaulin, à Magné (Fr.), vers 1710. 2) Jean-Baptiste Larche dit Grandpré, à Québec, le 24-04-1718. Inhumée à Québec, le 31-12-1756. (FG)</t>
+          <t>MAGNÉ (86160)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MAGNÉ (86160)</t>
+          <t>CARTIER, Marie. Née vers 1676. Mariée à 1) Joseph Gaulin, à Magné (Fr.), vers 1710. 2) Jean-Baptiste Larche dit Grandpré, à Québec, le 24-04-1718. Inhumée à Québec, le 31-12-1756. (FG)</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CARTIER, Paul. Fils de Pierre Cartier et de Marie Pasqueros. Marié à Barbe Boyer, fille du Roy, à Québec, le 23-10-1673. Contrat de mariage le 10-10-1673 (greffe Gilles Rajotte). Six enfants. (FG)</t>
+          <t>MAGNÉ (86160)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MAGNÉ (86160)</t>
+          <t>CARTIER, Paul. Fils de Pierre Cartier et de Marie Pasqueros. Marié à Barbe Boyer, fille du Roy, à Québec, le 23-10-1673. Contrat de mariage le 10-10-1673 (greffe Gilles Rajotte). Six enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Église Saint-André</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Saint-Augustin (Qc)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>CHALOU* ou CHALLEAU dit Château, Jacques. Baptisé le 02-06-1695, église Saint-André. Fils de Jacques Chalou ou Challeau et de Gabrielle Boussin. Marié à Félicité Berthiaume, à La Pérade (Qc), le 12-11-1736. Trois enfants. Décédé à Saint-Augustin (Qc), le 10-12-1746. Première mention, en Nouvelle-France, en 1735. (FO)</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Église Saint-André</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Saint-Augustin (Qc)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHAMAILLARD, Vincent. Militaire. Né vers 1646. Fils de Jean Chamaillard et de Françoise Renard. Marié à Catherine Renusson, à Montréal (Qc), le 23-09-1676. Inhumé à Lachine (Qc), le 15-11-1688. Deux enfants. Soldat au régiment de Carignan-Salières, parti pour la Nouvelle-France, en 1665. (FO)</t>
+          <t>USSEAU (86230)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>USSEAU (86230)</t>
+          <t>CHAMAILLARD, Vincent. Militaire. Né vers 1646. Fils de Jean Chamaillard et de Françoise Renard. Marié à Catherine Renusson, à Montréal (Qc), le 23-09-1676. Inhumé à Lachine (Qc), le 15-11-1688. Deux enfants. Soldat au régiment de Carignan-Salières, parti pour la Nouvelle-France, en 1665. (FO)</t>
         </is>
       </c>
     </row>
@@ -2490,22 +2490,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>CHAMBALLON*, Louis. Marchand, notaire. Baptisé le 12-03-1663, église Notre-Dame. Fils de Louis Chamballon et de Marie Prieur. Marié à 1) Marie-Anne Pinguet, à Québec, le 12-06-1691. 2) Geneviève Roussel, à Québec, le 09-08-1694. Décédé à Québec, le 14-06-1716. Première mention, en Nouvelle-France, en 1688, commis chez le sieur Hazeur, marchand en 1690, puis notaire en 1694. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHAMBRE ou DECHAMBRE, Jean. Meunier. Né vers 1642. Fils d’Étienne Dechambre et de Jacquette Auger. Marié à Catherine Paul, à Québec, le 21-10-1668. Deux enfants. Décédé à Hôtel-Dieu de Québec, le 27-03-1694. Première mention, en Nouvelle-France, en 1666. (FO)</t>
+          <t>VOULÊME (86400)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VOULÊME (86400)</t>
+          <t>CHAMBRE ou DECHAMBRE, Jean. Meunier. Né vers 1642. Fils d’Étienne Dechambre et de Jacquette Auger. Marié à Catherine Paul, à Québec, le 21-10-1668. Deux enfants. Décédé à Hôtel-Dieu de Québec, le 27-03-1694. Première mention, en Nouvelle-France, en 1666. (FO)</t>
         </is>
       </c>
     </row>
@@ -2550,22 +2550,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Notre-Dame la Petite</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Saint-Cuthbert (Qc)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>BRUNEAU* dit Pelletier, Pierre-Guillaume. Marchand. Baptisé le 11-04-1732, paroisse Notre-Damela-Petite. Fils de Jacques Bruneau et de Brigitte Mampeau. Marié à Marie Élisabeth Morin dit Chênevert, à Québec, le 30-01-1758. Décédé à Saint-Cuthbert (Qc), le 29-05-1809. Première mention, en Nouvelle-France, en 1754. (FO)</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Notre-Dame la Petite</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Saint-Cuthbert (Qc)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Saint-Porchaire</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>CHAPELAIN* ou CHAPELLAIN dit le tourneur, Louis. Baptisé le 19-09-1617, paroisse Saint-Porchaire. Fils de Hilaire Chapelain et de Marguerite Pain. Marié à Françoise Laschault, à Poitiers (Fr.) ou Lubersac en Corrèze (Fr.), vers 1642. Décédé à l’Hôtel-Dieu de Québec, le 01-02-1700. Engagé, il part en Nouvelle-France, en 1658. (FO)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Saint-Porchaire</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHAPELIN*, Jacques. Baptisé le 30-03-1643, église Saint-Didier. Fils de Louis Chapelin et de Françoise Laschault. Marié à Louise Giasson, à Québec, le 14-09-1666. Il rentre en France, après s’être officiellement séparé de sa femme, le 19-09-1692. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2625,7 +2625,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>CHAPELIN*, Jacques. Baptisé le 30-03-1643, église Saint-Didier. Fils de Louis Chapelin et de Françoise Laschault. Marié à Louise Giasson, à Québec, le 14-09-1666. Il rentre en France, après s’être officiellement séparé de sa femme, le 19-09-1692. (FO)</t>
         </is>
       </c>
     </row>
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CHARAUX dit Laliberté, André. Né vers 1731. Fils de François Charaux et de Catherine Maugot. Marié à Marie Catherine Amiot dite Lincour, à Québec, le 15-05-1752. Deux enfants. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>CHARAUX dit Laliberté, André. Né vers 1731. Fils de François Charaux et de Catherine Maugot. Marié à Marie Catherine Amiot dite Lincour, à Québec, le 15-05-1752. Deux enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -2666,22 +2666,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Pointe-de-Lévy, Lauzon (Qc)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>CHARET*, Étienne. Baptisé le 15-04-1635, paroisse Saint-Jean-Baptiste. Fils de Pierre Charet et Renée Merle. Marié à Catherine Bissot, à Québec, le 27-11-1670. Décédé à Pointe-de-Lévy, Lauzon (Qc), le 05-05-1699. Première mention, en Nouvelle-France, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Pointe-de-Lévy, Lauzon (Qc)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2698,22 +2698,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Beaumont</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>CHARET*, Jacques. Baptisé le 26-01-1664, église Saint-Jean-Baptiste. Marié à Jeanne Dubois, à Pointe-de-Lévy, Lauzon (Qc), le 15-09-1693. Décédé à Beaumont (Qc), le 05-01-1725. Première mention, en Nouvelle-France, en 1687. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Beaumont</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2730,22 +2730,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>CHARDON, Jean-Baptiste. Né en 1671. Prêtre, jésuite, missionnaire. Décédé à Québec en 1743. Novice à Bordeaux (Fr.), il complète ses études à Poitiers (Fr.), de 1695 à 1699, après être passé par la Rochelle (Fr.). Il embarque en 1699 pour la Nouvelle-France, il étudie les langues indiennes des régions des Grands Lacs. Envoyé au Saguenay, en 1700 et 1701, vers le poste de Michillimakinac et la baie des Puants, il y reste 32 années. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Bordeaux</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2762,22 +2762,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Château-Richer (Qc)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>CHARET* ou CHAREST, Jean. Baptisé le 13-02-1636, église Saint-Jean-Baptiste. Fils de Pierre Charet et de Renée Merle. Marié à Élisabeth Guillot, à Québec, le 03-09-1669. Décédé à Château-Richer (Qc), le 11-04-1706. Première mention, en Nouvelle-France, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Château-Richer (Qc)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CHARPENTIER, Jean. Né vers 1670. Fils de Pierre Charpentier et de Madeleine Boutault. Marié à 1) Madeleine Tisseran, fille du Roy, à Québec, le 27-07-1695. 2) Catherine Laporte dite Saint-Georges, à Varennes (Qc), le 09-10-1706. Décédé à Saint-Sulpice (Qc), le 03-04-1731. Première mention, en Nouvelle-France, en 1695. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>CHARPENTIER, Jean. Né vers 1670. Fils de Pierre Charpentier et de Madeleine Boutault. Marié à 1) Madeleine Tisseran, fille du Roy, à Québec, le 27-07-1695. 2) Catherine Laporte dite Saint-Georges, à Varennes (Qc), le 09-10-1706. Décédé à Saint-Sulpice (Qc), le 03-04-1731. Première mention, en Nouvelle-France, en 1695. (FO)</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Champlain (Qc)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>CHARTIER*, Jeanne-Renée. Baptisée le 09-08-1652, paroisse Saint-Jean-de-Montierneuf. Fille de René Chartier et de Madeleine Ranger. Mariée à 1) Pierre Durand dit Desmarchais, à Québec, le 17-10-1673. 2) René Baudouin, à Champlain (Qc), le 01-09-1710. Décédée à Champlain (Qc), le 03-01-1746. Parti en Nouvelle-France, avec sa famille, en 1667. (FO)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Champlain (Qc)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2854,22 +2854,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Pittsburgh (Pennsylvanie)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>CHARTIER*, Martin. Marchand de fourrures. Baptisé le 01-06-1650, paroisse Saint-Jean-de-Montierneuf. Fils de René Chartier et de Madeleine Ranger. Marié à la soeur du chef des Chawaneese, au Manoir Conestoga (Maryland), en 1693. Décédé dans la région de Pittsburgh (Pennsylvanie), vers 1725. Parti en Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Pittsburgh (Pennsylvanie)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Fort Saint-Louis (Illinois)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>CHARTIER*, Pierre. Marchand de fourrures. Baptisé le 16-09-1646, paroisse Saint-Jean-de-Montierneuf. Fils de René Chartier et de Madeleine Ranger. Décédé au Fort Saint-Louis (Illinois), en avril 1684. Parti en Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Fort Saint-Louis (Illinois)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Saint-Savin</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Lachine (Qc)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>CHARTIER*, René. Meunier. Baptisé le 26-07-1625, paroisse Saint-Savin. Fils de Pierre Chartier et Marie Paillé. Marié à 1) Madeleine Ranger, à Poitiers (Fr.), le 07-08-1645. 2) Marguerite Delorme, à Québec, le 01-10-1669. 3) Louise Neple, en 1679. Décédé à Lachine (Qc), le 05-08-1689. Parti pour la Nouvelle-France, avec sa famille, en 1667. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Saint-Savin</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Lachine (Qc)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -2950,22 +2950,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>LA CHAUSSÉE (86330)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Port-Royal, Nouvelle-Écosse</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>CHEBRAT*, Jeanne. Baptisée le 05-02-1627. Fille d’Antoine Chebrat et de Françoise Chaumoret. Mariée à 1) Jean Poirier, en France, en 1647. 2) Antoine Gougeon, à Port-Royal (NouvelleÉcosse), vers 1655. Un enfant. Décédée à Port-Royal (Nouvelle-Écosse), entre 1678 et 1686. (FG)</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Port-Royal, Nouvelle-Écosse</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>LA CHAUSSÉE (86330)</t>
         </is>
       </c>
     </row>
@@ -2982,22 +2982,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>GENÇAY (86160)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>CHEBROUX* dit Latendresse, Jean. Militaire. Baptisé le 25-06-1734, église Notre-Dame. Fils de Jean Chebrou et de Marie Petit. Marié à 1) Agathe Gagnon, à L’Assomption (Qc), le 19-10-1760. 2) Marie-Madeleine Jarret dite Beauregard, à Verchères (Qc), le 18-02-1765. Quatre enfants. Décédé à Lavaltrie (Qc), le 01-04-1801. Soldat au régiment de Berry, première mention en Nouvelle-France, en 1757. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Lavaltrie</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>GENÇAY (86160)</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>ORCHES (86230)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Vide</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>CHEFDEVERGNE* dit Larose, Louis. Baptisé le 25-12-1660, paroisse Saint-Hilaire. Fils de Marc Chefdevergne et de Nicole Allain. Marié à Marie-Françoise Dupont, à Cap-de-La-Madeleine (Qc), le 31-10-1688. Décédé entre 1720 et 1722. Première mention, en Nouvelle-France, en 1688. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Vide</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ORCHES (86230)</t>
         </is>
       </c>
     </row>
@@ -3046,22 +3046,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Porchaire</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>CHAUCHETIÈRE*, Claude. Jésuite, prêtre, missionnaire. Baptisé le 10-09-1645, paroisse Saint-Porchaire. Fils de Jean Chauchetiere et d’Élisabeth de Lanoue. Décédé à Québec, le 17-04-1709. Novice à Bordeaux (Fr.), il étudie la philosophie à Poitiers (Fr.), puis enseigne à Tulle (Fr.), La Rochelle (Fr.) et Saintes (Fr.). Il arrive au Canada, en 1677, il passe un an à la mission huronne, puis à la mission iroquoise à Sault-Saint-Louis (Qc). Il exécute de petites peintures, représentant des scènes bibliques, en petit format, que les Indiens peuvent ainsi emmener avec eux dans la forêt. Dans ses écrits il raconte ses 19 années passées à Sault-Saint-Louis (Qc). En 1694, sa santé se dégrade, il devait partir avec d’Iberville vers la baie d’Hudson, mais il sera remplacé et nommé professeur à Montréal (Qc), pour enseigner les mathématiques. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Porchaire</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3078,22 +3078,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>LA ROCHE-RIGAULT (86200)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>paroisse Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Valeur inconnue</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>COGNARD* ou CHOCARD, Pierre-Charles. Faux saunier. Baptisé le 16-10-1714, paroisse Saint-Germain. Fils de Pierre Cognard et de Françoise Gerbeault. Marié à Angélique Pineault, à Verchères (Qc), le 04-03-1737. Première mention, en Nouvelle-France, en 1733. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>paroisse Saint-Germain</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Valeur inconnue</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>LA ROCHE-RIGAULT (86200)</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Saint-François-de-Sales (Qc)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>CHOLET* dit Saint-Paul, René. Militaire, cordonnier. Baptisé le 22-02-1669, paroisse Saint-Paul. Fils de Jean Cholet et de Marguerite Reverdy. Marié à 1) Geneviève Mercadier, à Varennes (Qc), le 24-11-1698. 2) Jeanne Gazaille dite Saint-Germain, à Saint-Ours (Qc), en 1704 Décédé à Saint-François-de-Sales (Qc), le 20-12-1708. Soldat des troupes de la Marine, compagnie de Montigny, arrivé en Nouvelle-France, en 1698. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Saint-François-de-Sales (Qc)</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3142,22 +3142,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>COMPAIN* dit Lespérance, Bonaventure. Baptisé le 10-05-1669, paroisse Saint-Jean-de-Montierneuf. Fils de Jérôme Compain et de Suzanne Robert. Marié à 1) Marie-Catherine Badayac dite Laplante à Montréal (Qc), le 10-06-1706. Deux enfants. 2) Catherine Poupart, à Montréal (Qc), le 27-10-1715. Décédé à Montréal (Qc), le 24-06-1731. Soldat des troupes de la Marine, compagnie de Longueuil, en 1706. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3174,22 +3174,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>JAUNAY-CLAN (86130)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Varennes (Qc)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>COURTIGNY* (de) sieur de Chalandon, Pierre. Militaire. Baptisé le 15-08-1680, paroisse Saint-Denis. Fils de Louis de Courtigny et de Michèle Guignard. Marié à Elisabeth Bonodau, à Montréal (Qc), le 12-02-1710. Cadet des troupes de la Marine, compagnie de Lorimier. Décédé à Varennes (Qc), le 05-05-1742. Mentionné pour la première fois, à Montréal (Qc), en 1708. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Denis</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Varennes (Qc)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>JAUNAY-CLAN (86130)</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Saint-Jeande-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>COUTANCE dit Argencour ou Vaucour, Pierre. Militaire. Baptisé le 02-10-1661, paroisse Saint-Jeande-Montierneuf. Fils de François Coutance et de Françoise Thomas. Marié à Jeanne Cochard, à Québec, le 07-12-1699. Trois enfants. Décédé à Québec, le 26-03-1714. Soldat des troupes de la Marine, compagnie de Lacroix. (FO)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Saint-Jeande-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3238,14 +3238,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DAMIEN, Jacques. Fils de Pierre Damien et de Marie Viaude. Marié à 1) Marie-Geneviève Pleau, à Québec, le 24-04-1729. 2) Marie-Josèphe Germain dite Langlois, à Beauport (Qc), en 1735. Contrat de mariage le 30-01-1735 (greffe Noël Dupras). Cinq enfants. (FG)</t>
+          <t>COUHÉ (86700)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>COUHÉ (86700)</t>
+          <t>DAMIEN, Jacques. Fils de Pierre Damien et de Marie Viaude. Marié à 1) Marie-Geneviève Pleau, à Québec, le 24-04-1729. 2) Marie-Josèphe Germain dite Langlois, à Beauport (Qc), en 1735. Contrat de mariage le 30-01-1735 (greffe Noël Dupras). Cinq enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DANSACQ, Jean. Fils de Denis Dansacq et de Renée Léger. Marié à Marie Pothier, fille du Roy, à Québec, en 1669. (FG)</t>
+          <t>MAGNÉ (86160)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MAGNÉ (86160)</t>
+          <t>DANSACQ, Jean. Fils de Denis Dansacq et de Renée Léger. Marié à Marie Pothier, fille du Roy, à Québec, en 1669. (FG)</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DANSEREAU dit Biernay, Pierre. Né vers 1667. Fils de Sébastien Dansereau et de Catherine Noël. Marié à 1) Angélique Abéroux, à Varennes (Qc), le 19-06-1708. 2) Marie-Louise Lesiège, à Lanoraie (Qc), le 30-04-1743. Inhumé à verchères (Qc), le 25-02-1757. (AUCUNE REF)</t>
+          <t>SAINT-GEORGES-LÈS-BAILLARGEAUX (86130)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SAINT-GEORGES-LÈS-BAILLARGEAUX (86130)</t>
+          <t>DANSEREAU dit Biernay, Pierre. Né vers 1667. Fils de Sébastien Dansereau et de Catherine Noël. Marié à 1) Angélique Abéroux, à Varennes (Qc), le 19-06-1708. 2) Marie-Louise Lesiège, à Lanoraie (Qc), le 30-04-1743. Inhumé à verchères (Qc), le 25-02-1757.</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DAUPHIN, Étienne. Né vers 1626. Fils d’Étienne Dauphin et de Julienne Richard. Marié à Marie Morin, fille du Roy, à Québec, en 1665. Contrat de mariage le 29-10-1665 (greffe Paul Vachon). Quatre enfants. Inhumé à l’Hôtel-Dieu de Québec, le 31-08-1693. (FG)</t>
+          <t>BONNES (86300)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>BONNES (86300)</t>
+          <t>DAUPHIN, Étienne. Né vers 1626. Fils d’Étienne Dauphin et de Julienne Richard. Marié à Marie Morin, fille du Roy, à Québec, en 1665. Contrat de mariage le 29-10-1665 (greffe Paul Vachon). Quatre enfants. Inhumé à l’Hôtel-Dieu de Québec, le 31-08-1693. (FG)</t>
         </is>
       </c>
     </row>
@@ -3342,22 +3342,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>RANTON (86200)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Saint-Martin</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Rivière-des-Prairies</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>DAZÉ*, Paul. Baptisé le 19-10-1647, église Saint-Martin. Fils de Paul Dazé et d’Anne Queniot. Marié à Françoise Goubillot, à Montréal (Qc), le 15-04-1671. Inhumé à Rivière-des-Prairies (Qc), le 18-02-1715. Première mention en Nouvelle-France, en 1667. (FO)</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Saint-Martin</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Rivière-des-Prairies</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>RANTON (86200)</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DEBIEN, Étienne. Né vers 1648. Fils de Denis Debien et de Suzanne. Marié à Marie Campeau, à Montréal (Qc), en 1691. Contrat de mariage le 30-11-1690 (greffe Claude Maugue). Six enfants. Inhumé à Montréal (Qc), le 19-10-1708. (FG)</t>
+          <t>MOULISMES (86500)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MOULISMES (86500)</t>
+          <t>DEBIEN, Étienne. Né vers 1648. Fils de Denis Debien et de Suzanne. Marié à Marie Campeau, à Montréal (Qc), en 1691. Contrat de mariage le 30-11-1690 (greffe Claude Maugue). Six enfants. Inhumé à Montréal (Qc), le 19-10-1708. (FG)</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DEFAULLE*, Pierre-Louis. Militaire. Baptisé le 04-06-1775, paroisse Saint-Denis. Fils de Pierre Defaulle et de Françoise Ferrand. Marié à Marie Clail, à Montréal (Qc), le 11-06-1816. Soldat au régiment de Meuron. Mentionné pour la première fois, en 1813. (ILMPC)</t>
+          <t>JAUNAY-CLAN (86130)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3413,7 +3413,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>JAUNAY-CLAN (86130)</t>
+          <t>DEFAULLE*, Pierre-Louis. Militaire. Baptisé le 04-06-1775, paroisse Saint-Denis. Fils de Pierre Defaulle et de Françoise Ferrand. Marié à Marie Clail, à Montréal (Qc), le 11-06-1816. Soldat au régiment de Meuron. Mentionné pour la première fois, en 1813. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>COURRAUD, Pierre. Né vers 1630. Fils de Pierre Courraud et de Jeanne Papot. Marié à Françoise Duval, à Québec, le 16-11-1671. Quatre enfants. Inhumé à Beauport (Qc), le 05-05-1680. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>COURRAUD, Pierre. Né vers 1630. Fils de Pierre Courraud et de Jeanne Papot. Marié à Françoise Duval, à Québec, le 16-11-1671. Quatre enfants. Inhumé à Beauport (Qc), le 05-05-1680. (FG)</t>
         </is>
       </c>
     </row>
@@ -3458,14 +3458,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DELAUNE, Christophe. Fils de Christophe Delaune et de Marguerite Caissy. Marié à Marie Boudrot, à Archigny (Fr.). Deux enfants. Partis pour la Louisane, sur le navire « La Caroline » de Nantes, le 15-10-1785. (ILMPC)</t>
+          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ARCHIGNY (86210)</t>
+          <t>DELAUNE, Christophe. Fils de Christophe Delaune et de Marguerite Caissy. Marié à Marie Boudrot, à Archigny (Fr.). Deux enfants. Partis pour la Louisane, sur le navire « La Caroline » de Nantes, le 15-10-1785. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3482,22 +3482,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>USSEAU (86230)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>DEQUAIN* ou DEGUAIN, Anne. Fille du Roy. Baptisée le 23-05-1645, église Saint-Hilaire. Fille de Florimond Degain et d’Henriette Demellis. Mariée à François Lareau, à Québec, le 28-10-1669. Cinq enfants. Inhumée à Québec, le 06-02-1734. (FO)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>USSEAU (86230)</t>
         </is>
       </c>
     </row>
@@ -3514,14 +3514,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DESERY, Charles. Militaire. Né vers 1669. Fils de François Desery et d’Antoinette Lisabois. Marié à Françoise Lorrain, à Montréal (Qc), le 25-10-1705. Soldat des troupes de la Marine, compagnie de Chassaigne. (ILMPC)</t>
+          <t>BEAUMONT (86490)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>BEAUMONT (86490)</t>
+          <t>DESERY, Charles. Militaire. Né vers 1669. Fils de François Desery et d’Antoinette Lisabois. Marié à Françoise Lorrain, à Montréal (Qc), le 25-10-1705. Soldat des troupes de la Marine, compagnie de Chassaigne. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3538,22 +3538,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Poitiers</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>DEGONOR, Nicolas. Il se déclare de Poitiers et passe par le collège des jésuites. Il est mentionné en Nouvelle-France en 1735. Religieux jésuite, curé de la mission iroquoise, supérieur des jésuites de Montréal (Qc). Décédé à Québec, en 1759. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Poitiers</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3570,22 +3570,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>ROUILLÉ (86480)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Église Saint Hilaire</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Trois-Rivières</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>DESPEIGNES* dit Poitevin, Gabriel. Militaire. Baptisé le 13-11-1663, église Saint Hilaire. Fils de Pierre Despeignes et de Suzanne Thibault. Il arrive en Nouvelle France en 1714, il est sergent des troupes de la Marine. Décédé à Trois-Rivières le 25-05-1719. (FO)</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Église Saint Hilaire</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Trois-Rivières</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>ROUILLÉ (86480)</t>
         </is>
       </c>
     </row>
@@ -3602,22 +3602,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>CHAUNAY (86510)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Valeur non spécifiée</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Valeur non spécifiée</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>DESRANLEAU dit Châteauneuf, Jean. Né vers 1669. Fils de François Desranleau et de Jeanne Durinost. Marié à Marie-Madeleine Trottier, à Batiscan (Qc), en 1698. Contrat de mariage le 20-08-1698 (greffe Daniel Normandin). Trois enfants. (FG)</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Valeur non spécifiée</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Valeur non spécifiée</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>CHAUNAY (86510)</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DESROCHERS ou ROCHER, dit Lafrenière, Pierre. Né vers 1663. Fils de Pierre Desrochers et de Françoise Boucher. Marié à Marie-Suzanne Rabouin, à Batiscan (Qc), le 01-05-1696. Décédé à Baie du Febvre (Qc), le 07-11-1743. Première mention, en Nouvelle-France, en 1694. (FO)</t>
+          <t>SAINT-MACOUX (86400)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SAINT-MACOUX (86400)</t>
+          <t>DESROCHERS ou ROCHER, dit Lafrenière, Pierre. Né vers 1663. Fils de Pierre Desrochers et de Françoise Boucher. Marié à Marie-Suzanne Rabouin, à Batiscan (Qc), le 01-05-1696. Décédé à Baie du Febvre (Qc), le 07-11-1743. Première mention, en Nouvelle-France, en 1694. (FO)</t>
         </is>
       </c>
     </row>
@@ -3662,14 +3662,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DESNOUX dit Léveillé, René. Fils de Jacques Desnoux et de Marie Prévost. Marié à Madeleine Godin, à L’Ange-Gardien (Qc). Contrat de mariage le 08-11-1698 (greffe Étienne Jacob). (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>DESNOUX dit Léveillé, René. Fils de Jacques Desnoux et de Marie Prévost. Marié à Madeleine Godin, à L’Ange-Gardien (Qc). Contrat de mariage le 08-11-1698 (greffe Étienne Jacob). (FG)</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DOUCET, Marguerite-Bénony. Baptisée en 1775, église de Cenan. Fille de Michel doucet et de Marie-Blanche Cousin. Parti sur « La Caroline » de Nantes (Fr.), vers la Louisiane, en 1785. (ILMPC)</t>
+          <t>LA PUYE (86260)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3697,7 +3697,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>LA PUYE (86260)</t>
+          <t>DOUCET, Marguerite-Bénony. Baptisée en 1775, église de Cenan. Fille de Michel doucet et de Marie-Blanche Cousin. Parti sur « La Caroline » de Nantes (Fr.), vers la Louisiane, en 1785. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3714,14 +3714,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DUBERGER dit Sanchagrin, Jean-Baptiste. Fils de Jean-Baptiste Duverger et de Marie-Louise Gauthier. Marié à Louise Courtois, à Détroit (Michigan), le 27-07-1761. Deux enfants. (FG)</t>
+          <t>VIVONNE (86370)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VIVONNE (86370)</t>
+          <t>DUBERGER dit Sanchagrin, Jean-Baptiste. Fils de Jean-Baptiste Duverger et de Marie-Louise Gauthier. Marié à Louise Courtois, à Détroit (Michigan), le 27-07-1761. Deux enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -3738,22 +3738,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Saint-François, Îled’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>DESTOUCHE, Marie-Agnès. Fille du Roy. Née vers 1648. Fille de Pierre Destouches et de Marie Gulet. Mariée à 1) Charles Dompierre dit Saint-Martin, à Sainte-Famille, Îled’Orléans (Qc), le 27-10-1669. 2) François Garinet, à Sainte-François, Île-d’Orléans (Qc), le 07-02-1690. Inhumée à Saint-François, Îled’Orléans (Qc), le 22-02-1728. (FG)</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Saint-François, Îled’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3770,22 +3770,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>CISSÉ (86170)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-aux-Liens</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Bastican</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>DUBOIS* dit Brisebois, René. Laboureur. Baptisé le 27-03-1639, paroisse Saint-Pierre-aux-Liens. Fils de Louis Dubois et de Jeanne Naudin. Marié à Anne-Julienne Dumont, à Château-Richer (Qc), le 25-11-1665. Dix enfants. Décédé à Bastican (Qc), le 20-03-1699. Il se déclare être domicilié à Cugand, en Vendée. Première mention à Beauport (Qc), en 1658. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Saint-Pierre-aux-Liens</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Bastican</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>CISSÉ (86170)</t>
         </is>
       </c>
     </row>
@@ -3802,22 +3802,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>FLEURÉ (86340)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Saint-Martin-de-Fleuré</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>DUCHESNEAU dit Sansregret, René. Militaire. Né vers 1660, paroisse Saint-Martin-de-Fleuré. Fils de Pierre Chesneau et de Charlotte Roy. Marié à Jeanne Guérin, à Charlesbourg (Qc), le 14-02-1695. Décédé à Charlesbourg (Qc), le 09-05-1740. Soldat des troupes de la Marine, compagnie La Grois. Première mention, en Nouvelle-France, en 1690. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Saint-Martin-de-Fleuré</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>FLEURÉ (86340)</t>
         </is>
       </c>
     </row>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DUGAS, Vincent. Né vers 1653. Fils de Vincent Dugas et de Perrine Babin. Marié à Françoise Roy, à Lachine (Qc), en 1683. Contrat de mariage le 12-09-1683 (greffe Claude Maugue). (FG)</t>
+          <t>CHOUPPES (86110)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CHOUPPES (86110)</t>
+          <t>DUGAS, Vincent. Né vers 1653. Fils de Vincent Dugas et de Perrine Babin. Marié à Françoise Roy, à Lachine (Qc), en 1683. Contrat de mariage le 12-09-1683 (greffe Claude Maugue). (FG)</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sainte-Radegonde</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>DUBOIS, François. Artisan, maître maçon. Né vers 1662, paroisse Sainte-Radegonde. Fils de François Dubois et de Marguerite Trillaud. Marié à Marie Guilbaut, à Charlesbourg (Qc), le 16-08-1688. Décédé à Charlesbourg (Qc), 03-01-1734. Engagé de Nicolas Dupont. (FO)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Sainte-Radegonde</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DUMONT dit Poitevin, Gabriel. Sergent. Né vers 1707. Fils de Jacques Dumont et de Catherine Pechaun. Marié à Marie-Catherine Custo, à Montréal (Qc), le 25-11-1743. Décédé en 1770. (ILMPC)</t>
+          <t>MIREBEAU (86110)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MIREBEAU (86110)</t>
+          <t>DUMONT dit Poitevin, Gabriel. Sergent. Né vers 1707. Fils de Jacques Dumont et de Catherine Pechaun. Marié à Marie-Catherine Custo, à Montréal (Qc), le 25-11-1743. Décédé en 1770. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DUPONT dit Vadeboncoeur, Jacques. Né vers 1704. Fils de Jacques Dupont et de Marie-Jeanne Faladouze. Marié à 1) Marie-Anne Trottier, à Montréal (Qc), en 1735. Contrat de mariage le 21-11-1735 (greffe Jean-Baptiste Adhémar). Un enfant. 2) Catherine Quenneville, à Montréal (Qc), en 1745. Contrat de mariage le 20-06-1745 (greffe Jean-Baptiste Adhémar). 3) Marie-Suzanne Gagné, à La Prairie (Qc), en 1750. Contrat de mariage le 23-05-1750 (greffe Gervais Hodiesne). (FG)</t>
+          <t>BRION (86160)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BRION (86160)</t>
+          <t>DUPONT dit Vadeboncoeur, Jacques. Né vers 1704. Fils de Jacques Dupont et de Marie-Jeanne Faladouze. Marié à 1) Marie-Anne Trottier, à Montréal (Qc), en 1735. Contrat de mariage le 21-11-1735 (greffe Jean-Baptiste Adhémar). Un enfant. 2) Catherine Quenneville, à Montréal (Qc), en 1745. Contrat de mariage le 20-06-1745 (greffe Jean-Baptiste Adhémar). 3) Marie-Suzanne Gagné, à La Prairie (Qc), en 1750. Contrat de mariage le 23-05-1750 (greffe Gervais Hodiesne). (FG)</t>
         </is>
       </c>
     </row>
@@ -3942,14 +3942,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DUHAUT dit Jasmin, Louis-Laurent. Né vers 1736. Fils de Louis-Laurent Duhaut et d’Anoinette Joachim. Marié à Geneviève Cerat, à Sainte-Anne-de-Bellevue (Qc), le 24-08-1761. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>DUHAUT dit Jasmin, Louis-Laurent. Né vers 1736. Fils de Louis-Laurent Duhaut et d’Anoinette Joachim. Marié à Geneviève Cerat, à Sainte-Anne-de-Bellevue (Qc), le 24-08-1761. (FG)</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>MONTS-SUR-GUESNE (86167)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>DUPUY*, Gabriel. Militaire. Baptisé le 13-01-1730, église Saint-Vincent. Fils de Maurice Dupuy et d’AnneÉlisabeth Bleze. Marié à Marie-Charles Vaudry, à Lachenaie (Qc), le 06-02-1769. Décédé avant le 10-02-1783. Soldat au régiment de Guyenne, compagnie de Patrice, arrivé en Nouvelle-France, en 1755. (FO)</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Saint-Vincent</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>MONTS-SUR-GUESNE (86167)</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>CIVRAY (86400)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Saint-Nicolas</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>L’Islet</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>DURAND*, Jean-Nicolas. Baptisé le 10-08-1653, église Saint-Nicolas. Fils de Barthélemy Durand et d’Anne Vallée. Marié à Marguerite-Catherine Huot dite Saint-Laurent, à Rivière-Ouelle (Qc), le 07-01-1685. Cinq enfants. Décédé à L’Islet (Qc), le 28-09-1740. Engagé par contrat, à La Rochelle, le 04-06-1671. Première mention en Nouvelle-France, en 1671. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Saint-Nicolas</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>L’Islet</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>CIVRAY (86400)</t>
         </is>
       </c>
     </row>
@@ -4030,22 +4030,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Saint-Hilairele-Grand</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Beauport (Qc)</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>DUPRAT*, Jean-Robert. Greffier et notaire seigneurial. Baptisé le 12-10-1642, paroisse de Saint-Hilairele-Grand. Fils de Jacques Duprat et Françoise Lamoureux. Marié à Marguerite Vachon, à Beauport (Qc), le 06-01-1675. Décédé à Beauport (Qc), le 29-08-1726. Première mention, en Nouvelle-France, en 1674. (FO)</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Saint-Hilairele-Grand</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Beauport (Qc)</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4062,22 +4062,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>DUREAU* dit Poitevin, Pierre. Militaire. Baptisé le 27-07-1675, paroisse Saint-Paul. Fils de Georges Dureau et de Renée de La Chaussée. Marié à Marguerite Gélinas, à Trois-Rivières (Qc), le 01-09-1707. Décédé à Trois-Rivières (Qc), 04-11-1750. Sergent des troupes de la Marine, compagnie Saint-Martin. (FO)</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Trois-Rivières (Qc)</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>LOUDUN (86200)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-du-Martray</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>FARDEAU* ou FALARDEAU, Antoine. Militaire. Baptisé le 15-03-1689, paroisse Saint-Pierre-du-Martray. Fils d’Antoine Fardeau et de Françoise Georges. Marié à Marie-Charlotte Chaillé, à Québec, le 29-10-1729. Décédé à Québec, le 15-03-1731. Soldat des troupes de la Marine. Première mention, en Nouvelle-France, en 1728. (FO)</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Saint-Pierre-du-Martray</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>LOUDUN (86200)</t>
         </is>
       </c>
     </row>
@@ -4126,14 +4126,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ÉLIE dit Nouvelle, Jean ou Pierre. Né vers 1706. Fils d’Étienne Élie et de Marguerite Laporte. Marié à 1) Anne-Marie Lalande, à Grand-Prés (Nouvelle-Écosse), le 10-10-1729. 2) Françoise Bonnevie, à Beaubassin (Nouveau-Brunswick), le 16-01-1741. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>ÉLIE dit Nouvelle, Jean ou Pierre. Né vers 1706. Fils d’Étienne Élie et de Marguerite Laporte. Marié à 1) Anne-Marie Lalande, à Grand-Prés (Nouvelle-Écosse), le 10-10-1729. 2) Françoise Bonnevie, à Beaubassin (Nouveau-Brunswick), le 16-01-1741. (FG)</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FILIATRAULT, René. Né vers 1623. Fils de Vincent Filiatrault et de Nicolle Robinelle. Marié à 1) Marie Sédillot, à Montréal (Qc), le 11-06-1657. 2) Jeanne Hérault, à Montréal (Qc), le 22-10-1658. Inhumé à Montréal (Qc), le 27-06-1678. (FG)</t>
+          <t>ANGLIERS (86330)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ANGLIERS (86330)</t>
+          <t>FILIATRAULT, René. Né vers 1623. Fils de Vincent Filiatrault et de Nicolle Robinelle. Marié à 1) Marie Sédillot, à Montréal (Qc), le 11-06-1657. 2) Jeanne Hérault, à Montréal (Qc), le 22-10-1658. Inhumé à Montréal (Qc), le 27-06-1678. (FG)</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>FAUVEAU, Jeanne. Fille du Roy. Née vers 1646. Fille de Pierre Fauveau et de Jeanne Douillet. Mariée à 1) Jacques Leprévost, à Québec, le 25-11-1669. 2) Jean Petit, au Québec, en 1708. (FG)</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4210,22 +4210,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire-de-la-Celle</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>FORGET, Françoise. Née vers 1642, paroisse Saint-Hilaire-de-la-Celle. Fille de Jacques Forget et de Renée Guillocheau. Mariée à Maurice Pasquier, à Poitiers (Fr.), le 29-07-1659. Décédée à l’Hôtel-Dieu de Québec, le 27-01-1703. Partie en Nouvelle-France, avec son mari, en 1666. (FO)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire-de-la-Celle</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4242,22 +4242,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>DISSAY (86130)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Non spécifié (avant 1703)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>GALIPEAU dit Poitevin, Gilles. Baptisé le 06-09-1637, paroisse Saint-Pierre et Saint-Paul. Fils d’Antoine Galipeau et de Perrine Regnault. Marié à Jacqueline Langlois, fille du Roy, à Montréal (Qc), le 30-09-1678. Décédé, avant 1703. Première mention, en Nouvelle-France, en 1667. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Non spécifié (avant 1703)</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>DISSAY (86130)</t>
         </is>
       </c>
     </row>
@@ -4274,22 +4274,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>DISSAY (86130)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Pointeaux-Trembles (Qc)</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>GALIPEAU, Antoine. Né vers 1646, paroisse Saint-Pierre et Saint-Paul. Fils d’Antoine Galipeau et de Perrine Regnault. Marié à Marie Cambin, à Pointe-aux-trembles (Qc), le 19-07-1688. Cinq enfants. Décédé à Pointeaux-Trembles (Qc), le 22-07-1722. Première mention en Nouvelle-France, en 1682. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Pointeaux-Trembles (Qc)</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>DISSAY (86130)</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4306,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>BUXEUIL (86160)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>non spécifié</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>GANNES DE FALAISE* (de), François. Militaire. Baptisé le 23-07-1675. Fils de Louis de Gannes et de Françoise de Bloy. Marié à Marguerite Nafrechou, à Montréal (Qc), le 30-11-1713. Décédé à Montréal (Qc), le 26-09-1746. Première mention, en 1715, gendarme d’une compagnie du roi. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>non spécifié</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>BUXEUIL (86160)</t>
         </is>
       </c>
     </row>
@@ -4338,22 +4338,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>BUXEUIL (86160)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>La Rochelle (Fr.)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>GANNES DE FALAISE* (de), Louis. Militaire. Baptisé le 19-10-1658. Fils de Louis de Gannes et de Françoise de Bloy. Marié à 1) Barbe Denys de la Trinité, à Québec, en 1691. Un enfant. 2) Louise Legardeur de Tilly, à Montréal (Qc), le 12-07-1695. 3) Marguerite Le Neuf de la Vallière, à Rivière Saint-Jean (Nouvelle-Écosse), le 05-08-1700. Douze enfants. Décédé à La Rochelle (Fr.), le 25-02-1714. Première mention, en Nouvelle-France, en 1687, officier de garnison en Canada. Garde-marine à Rochefort (Fr.), en 1683, promu lieutenant au Canada, en 1687, puis capitaine en Acadie, en 1696 et major en 1704. Il reçoit la croix de Saint-Louis, en 1713, cette même année il est nommé major de la nouvelle colonie de l’Île Royale en Acadie, mais il meurt avant d’aller prendre ses fonctions. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>La Rochelle (Fr.)</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>BUXEUIL (86160)</t>
         </is>
       </c>
     </row>
@@ -4370,22 +4370,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>LA GRIMAUDIÈRE (86330)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Notre-Dame-d’Or</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>GARNEAU, Louis. Né vers 1635, paroisse de Notre-Dame-d’Or. Fils de Pierre Garneau et de Jeanne Barault. Marié à Marie Mazoue, à l’Ange-Gardien (Qc), le 23-07-1663. Quatre enfants. Décédé le 27-11-1712. Engagé chez le notaire Cherbonnier, à La Rochelle, arrivé à Québec, sur le navire « Le Taureau », le 15-06-1656. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Notre-Dame-d’Or</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>LA GRIMAUDIÈRE (86330)</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GASCHET, René. Chirurgien. Né vers 1665. Fils de Pierre Gaschet et d’Hélène Bourgine. Marié à Françoise Philippeau, à Québec, le 22-08-1694. Décédé à Saint-Vallier (Qc), le 09-03-1744. Engagé à Timothée Roussel, arrivé en Nouvelle-France, en 1693. (FO)</t>
+          <t>NEUVILLE-DE-POITOU (86177)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>NEUVILLE-DE-POITOU (86177)</t>
+          <t>GASCHET, René. Chirurgien. Né vers 1665. Fils de Pierre Gaschet et d’Hélène Bourgine. Marié à Françoise Philippeau, à Québec, le 22-08-1694. Décédé à Saint-Vallier (Qc), le 09-03-1744. Engagé à Timothée Roussel, arrivé en Nouvelle-France, en 1693. (FO)</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>L’ISLE-JOURDAIN (86150)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Saint-Gervais-et-Saint-Protais</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>GAUJOU* ou GEAUJOU dit de La Croisetière, Antoine. Chirurgien. Baptisé le 02-01-1733, paroisse Saint-Gervais-et-Saint-Protais. Fils de Gabriel Gaujou et de Françoise Chevalier. Marié à Cécile Pouliot, à Saint-Laurent, Île-d’Orléans (Qc), le 04-06-1764. Décédé à Saint-Laurent, Île-d’Orléans (Qc), le 19-01-1766. Première mention, en Nouvelle-France, en 1754. (FO)</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Saint-Gervais-et-Saint-Protais</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>L’ISLE-JOURDAIN (86150)</t>
         </is>
       </c>
     </row>
@@ -4462,22 +4462,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>FORGET*, Jean. Domestique du sieur d’Auteuil. Baptisé le 08-03-1640, paroisse Saint-Jean-Baptiste. Fils de Mandé Forget et de Jeanne Dézéry. Marié à Jeanne Rossignol, à Québec, le 04-02-1674. Décédé avant le 28-12-1676. Première mention, en Nouvelle-France, en 1666. (FO)</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4494,22 +4494,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>COUSSAY (86110)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sainte-Famille, Île-d’Orleans (Qc)</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>GAUTHIER dit Larose, René. Marié à Renée Labastille, à Sainte-Famille, Île-d’Orleans (Qc), le 11-04-1669. Deux enfants. (FG)</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Sainte-Famille, Île-d’Orleans (Qc)</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>COUSSAY (86110)</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GIBAULT dit Poitevin, Gabriel. Né vers 1640. Fils de Pierre Gibault et de Renée Orillière. Marié à Suzanne Durand, fille du Roy, à Québec, le 30-10-1667. Cinq enfants. Décédé à Montréal (Qc), le 13-10-1700. Première mention, en Nouvelle-France, en 1663. (ILMPC)</t>
+          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>LUSIGNAN (86600)</t>
+          <t>GIBAULT dit Poitevin, Gabriel. Né vers 1640. Fils de Pierre Gibault et de Renée Orillière. Marié à Suzanne Durand, fille du Roy, à Québec, le 30-10-1667. Cinq enfants. Décédé à Montréal (Qc), le 13-10-1700. Première mention, en Nouvelle-France, en 1663. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GILBERT, Étienne. Né vers 1653. Fils d’Henri Gilbert et de Renée Maye. Marié à Marguerite Thibault, a Neuville (Qc), le 01-13-1683. Six enfants. Inhumé à Saint-Augustin (Qc), le 09-10-1714. (FG)</t>
+          <t>AULNAY (86330)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>AULNAY (86330)</t>
+          <t>GILBERT, Étienne. Né vers 1653. Fils d’Henri Gilbert et de Renée Maye. Marié à Marguerite Thibault, a Neuville (Qc), le 01-13-1683. Six enfants. Inhumé à Saint-Augustin (Qc), le 09-10-1714. (FG)</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GILBERT, Louis. Né vers 1638. Fils de Vincent Gilbert et de Vincente Delaunay. Marié à Thérèse Galien, à Champlain (Qc), le 07-01-1687. Décédé après le 19-06-1699. Première mention, en Nouvelle-France, en 1687. (FO)</t>
+          <t>ORCHES (86230)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ORCHES (86230)</t>
+          <t>GILBERT, Louis. Né vers 1638. Fils de Vincent Gilbert et de Vincente Delaunay. Marié à Thérèse Galien, à Champlain (Qc), le 07-01-1687. Décédé après le 19-06-1699. Première mention, en Nouvelle-France, en 1687. (FO)</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GILLEBOURDAY, Marguerite. Fille de Louis Guillebourday et de Marie Maguin. Mariée à Jean Baillargeon, à Québec, le 20-11-1650. Inhumée à Québec, le 21-10-1662. (FG)</t>
+          <t>MARÇAY (86370)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MARÇAY (86370)</t>
+          <t>GILLEBOURDAY, Marguerite. Fille de Louis Guillebourday et de Marie Maguin. Mariée à Jean Baillargeon, à Québec, le 20-11-1650. Inhumée à Québec, le 21-10-1662. (FG)</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GAUTHIER, Jacques. Né vers 1669. Fils de François Gauthier et d’Andrée. Marié à Agathe Fagnan ou Dufay, à Québec, le 25-02-1699. Neuf enfants. Inhumé à Cap-Saint-Ignace (Qc), le 12-08-1741. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>GAUTHIER, Jacques. Né vers 1669. Fils de François Gauthier et d’Andrée. Marié à Agathe Fagnan ou Dufay, à Québec, le 25-02-1699. Neuf enfants. Inhumé à Cap-Saint-Ignace (Qc), le 12-08-1741. (FG)</t>
         </is>
       </c>
     </row>
@@ -4666,22 +4666,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>VOUNEUIL-SOUS-BIARD (86580)</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>GIRAUD* dit Brindamour, Étienne. Militaire. Baptisé le 03-08-1726, église Saint-Pierre et Saint-Paul. Fils de Jacques Giraud et de Louise Cailleau. Marié à Marie Berthiaume, à Montréal (Qc), le 24-11-1760. Décédé à Hôtel-Dieu de Québec, le 04-07-1802. Soldat au régiment de La Reine, compagnie de Montbrais, arrivé en Nouvelle-France, en 1755. (FO)</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>VOUNEUIL-SOUS-BIARD (86580)</t>
         </is>
       </c>
     </row>
@@ -4698,14 +4698,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>GIRON, Jean. Né vers 1732. Fils de René Giron et de Marie Varin. Marié à Louise-Charlotte, à Montréal (Qc), le 01-06-1757. (FG)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>GIRON, Jean. Né vers 1732. Fils de René Giron et de Marie Varin. Marié à Louise-Charlotte, à Montréal (Qc), le 01-06-1757. (FG)</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GIROUARD, Dominique. Fils de Pierre Girouard et de Marguerite Gaudet. Marié à Agnès Broussard, à Archigny (Fr.), le 14-02-1775. Cinq enfants. Décédé à Chantenay (Qc), en 1778. (ILMPC)</t>
+          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ARCHIGNY (86210)</t>
+          <t>GIROUARD, Dominique. Fils de Pierre Girouard et de Marguerite Gaudet. Marié à Agnès Broussard, à Archigny (Fr.), le 14-02-1775. Cinq enfants. Décédé à Chantenay (Qc), en 1778. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GIRARDIN, Léonard. Né vers 1645. Fils de Joseph Girardin et de Jeanne Boulanger. Marié à Charlotte Jolivet, à Quebec, le 12-10-1671. Quatre enfants. Décédé à Lachine (Qc), avant 1788. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>GIRARDIN, Léonard. Né vers 1645. Fils de Joseph Girardin et de Jeanne Boulanger. Marié à Charlotte Jolivet, à Quebec, le 12-10-1671. Quatre enfants. Décédé à Lachine (Qc), avant 1788. (FG)</t>
         </is>
       </c>
     </row>
@@ -4778,22 +4778,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Notre-Dame-la-Petite</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Varennes (Qc)</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>GODU* dit Sanschagrin, Yves-Pierre. Militaire. Baptisé le 25-09-1664, paroisse Notre-Dame-la-Petite. Fils de Pierre Godu et de Jeanne Percil. Marié à Jeanne Choquet, à Varennes (Qc), le 02-09-1698. Deux enfants. Décédé à Varennes (Qc), le 20-08-1731. Soldat des troupes de la Marine, arrivé en Nouvelle-France, en 1690. (FO)</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Notre-Dame-la-Petite</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Varennes (Qc)</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4810,22 +4810,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Saint-Didier</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Sainte-Geneviève-de-Pierrefonds (Qc)</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>GONEAU* dit Lacouture, Jean. Baptisé le 17-04-1711, paroisse Saint-Didier. Fils de René Goneau et de Marie-Anne Meunier. Marié à Marie-Andrée Hurtubise, à Montréal (Qc), le 16-06-1734. Décédé à Sainte-Geneviève-de-Pierrefonds (Qc), le 12-01-1779. (FO)</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Saint-Didier</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Sainte-Geneviève-de-Pierrefonds (Qc)</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4842,22 +4842,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>GONNAR* (de) ou GOUNOR, Nicolas. Jésuite. Baptisé le 19-11-1691. Première mention au pays en 1718. Décédé à Québec, le 16-12-1759. (FO)</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>VIVONNE (86370)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>GOUBAULT* dit Poitevin, Pierre. Militaire, procureur du roi. Baptisé 30-01-1678, église Saint-Georges. Fils de Jean Goubault et de Marie Jonat. Marié à Barbe Bissonnette dite Lafaverie, à Trois-Rivières (Qc), le 21-08-1727. Décédé à Trois-Rivières (Qc), le 07-03-1737. Soldat des troupes de la Marine, arrivé en 1707. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Saint-Georges</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Trois-Rivières (Qc)</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>VIVONNE (86370)</t>
         </is>
       </c>
     </row>
@@ -4906,22 +4906,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>LOUDUN (86200)</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Saint-Étienne de Rossay</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Champlain (Qc)</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>GOUIN*, Laurent. Baptisé le 26-02-1636, paroisse Saint-Étienne de Rossay. Fils de Vincent Gouin et de Charlotte Gaultier. Marié à Marie-Thérèse Gallien, à Champlain (Qc), dans la chapelle du fort, le 22-10-1665. Inhumé à Champlain (Qc), le 13-11-1686. Engagé à la Rochelle (Fr.), par François Perron, il s’embarque pour la Nouvelle-France, sur le navire « Le Taureau », en 1657. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Saint-Étienne de Rossay</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Champlain (Qc)</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>LOUDUN (86200)</t>
         </is>
       </c>
     </row>
@@ -4938,22 +4938,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>LOUDUN (86200)</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>GOUIN, Mathurin. Né vers 1636. Fils de Vincent Gouin et de Charlotte Gaultier. Marié à Marie-Madeleine Vien, à Trois-Rivières (Qc), le 20-11-1663. Décédé entre 1705 et 1720. Engagé à la Rochelle (Fr.), il s’embarque pour la Nouvelle-France et arrive à Batiscan (Qc), en 1657. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>LOUDUN (86200)</t>
         </is>
       </c>
     </row>
@@ -4970,22 +4970,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Neuville, QC</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>GORGEAUX, Pierre. Né vers 1661. Fils de Pierre Gorgeaux et de Madeleine Fournier. Marié à Marguerite Campagna, à Neuville (Qc), le 13-11-1689. (FG)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Neuville, QC</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GRIMAUD, Jacques. Fils de Denis Grimaud et de Renée Tart. Marié à Jacquette Ledoux, fille du Roy, à Québec, en 1664. Contrat de mariage le 15-10-1664 (greffe Pierre Duquet). Un enfant. Décédé avant le 26-11-1668. (FG)</t>
+          <t>CHAMPIGNY-LE-SEC (86170)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CHAMPIGNY-LE-SEC (86170)</t>
+          <t>GRIMAUD, Jacques. Fils de Denis Grimaud et de Renée Tart. Marié à Jacquette Ledoux, fille du Roy, à Québec, en 1664. Contrat de mariage le 15-10-1664 (greffe Pierre Duquet). Un enfant. Décédé avant le 26-11-1668. (FG)</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>BEAUMONT (86490)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>GROLLIER* dit Poitevin, Clément. Militaire. Baptisé le 01-04-1692. Fils de François Grolier et de Marie Petit. Marié à Marie-Louise Couvrette, à Saint-Laurent, Montréal (Qc), le 13-04-1722. Décédé à Montréal (Qc), le 04-02-1726. Soldat des troupes de la Marine, compagnie de St-Pierre. Première mention en Nouvelle-France, en 1720. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>BEAUMONT (86490)</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GRUSSEAU, Marie. Fille du Roy. Née vers 1637. Fille de Jean Grusseau et de Marguerite Birore. Mariée à Jean Chenier, au Québec, en 1667. (FG)</t>
+          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>LUSIGNAN (86600)</t>
+          <t>GRUSSEAU, Marie. Fille du Roy. Née vers 1637. Fille de Jean Grusseau et de Marguerite Birore. Mariée à Jean Chenier, au Québec, en 1667. (FG)</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GUÉRINEAU*, Pierre-Jean. Marchand pelletier. Baptisé le 13-02-1728, paroisse Saint-Didier. Fils de René Guérineau et de Catherine Philippe. Marié à 1) Marie-Josèphe Lamothe, à Pointe-aux-Trembles (Qc), le 15-05-1752. 2) Pélagie Morin, à La Nouvelle-Orléans (Louisiane), le 12-05-1761. Décédé après le 10-01-1768. Première mention, en Nouvelle-France, en 1752. (FO-FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5101,7 +5101,7 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>GUÉRINEAU*, Pierre-Jean. Marchand pelletier. Baptisé le 13-02-1728, paroisse Saint-Didier. Fils de René Guérineau et de Catherine Philippe. Marié à 1) Marie-Josèphe Lamothe, à Pointe-aux-Trembles (Qc), le 15-05-1752. 2) Pélagie Morin, à La Nouvelle-Orléans (Louisiane), le 12-05-1761. Décédé après le 10-01-1768. Première mention, en Nouvelle-France, en 1752. (FO-FG)</t>
         </is>
       </c>
     </row>
@@ -5118,22 +5118,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>CHÂTEAU-LARCHER (86370)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>GUILLET, Marie. Fille du Roy. Née vers 1641. Fille de Jean Guillet et de Françoise Guyon. Mariée à Pierre Ledoux dit Latreille, à Québec, en 1668. Contrat de mariage le 07-10-1668 (greffe Romain Becquet). Trois enfants. Inhumée à Québec, le 02-01-1701. (FG)</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>CHÂTEAU-LARCHER (86370)</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>LOUDUN (86200)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-du-Martray</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Saint-François-de-Sales</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>GUINDON* ou GUÉDON, Pierre. Baptisé le 24-09-1662, paroisse Saint-Pierre-du-Martray. Fils de François Guédon et Marie Molay. Marié à Catherine Bresa dite Lafleur, à Montréal (Qc), le 21-11-1706. Décédé à Saint-François-de-Sales (Qc), le 26-09-1733. (FO)</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Saint-Pierre-du-Martray</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Saint-François-de-Sales</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>LOUDUN (86200)</t>
         </is>
       </c>
     </row>
@@ -5182,14 +5182,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GUYON dit Deslauriers, Philippe. Fils de Philippe Guyon et de Françoise Bernard. Marié à Jeanne Charpentier, au Québec, en 1676. (FG)</t>
+          <t>COUSSAY (86110)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>COUSSAY (86110)</t>
+          <t>GUYON dit Deslauriers, Philippe. Fils de Philippe Guyon et de Françoise Bernard. Marié à Jeanne Charpentier, au Québec, en 1676. (FG)</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GRESLON dit Laviolette, Jacques. Fils de Jacques Greslon et de Catherine Fauveau. Marié à Jeanne Vignault, à Québec, le 31-07-1657. Sept enfants. Décédé, à L’Ange-Gardien (Qc), avant le 16-10-1679. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>GRESLON dit Laviolette, Jacques. Fils de Jacques Greslon et de Catherine Fauveau. Marié à Jeanne Vignault, à Québec, le 31-07-1657. Sept enfants. Décédé, à L’Ange-Gardien (Qc), avant le 16-10-1679. (FO)</t>
         </is>
       </c>
     </row>
@@ -5234,14 +5234,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GUÉRIN dit Berry, Louis. Fils de Mathurin Guérin et de Léonarde Guyonnet. Marié à 1) Marie-Anne Paquet, à Québec, en 1712. Contrat de mariage le 30-07-1712 (greffe Florent de Lacetière). Un enfant. 2) Madeleine Marcou, à Beauport (Qc), en 1721. Contrat de mariage le 13-01-1721 (greffe Jean-Étienne Dubreuil). (FG)</t>
+          <t>BRIGUEIL-LE-CHANTRE (86290)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>BRIGUEIL-LE-CHANTRE (86290)</t>
+          <t>GUÉRIN dit Berry, Louis. Fils de Mathurin Guérin et de Léonarde Guyonnet. Marié à 1) Marie-Anne Paquet, à Québec, en 1712. Contrat de mariage le 30-07-1712 (greffe Florent de Lacetière). Un enfant. 2) Madeleine Marcou, à Beauport (Qc), en 1721. Contrat de mariage le 13-01-1721 (greffe Jean-Étienne Dubreuil). (FG)</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GUÉRIN dit Lafontaine, Claude. Né vers 1668. Fils de Michel Guérin et de Jeanne Véron. Marié à Jeanne Cusson, à Montréal (Qc), le 19-11-1696. Quatre enfants. (FG)</t>
+          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>LUSIGNAN (86600)</t>
+          <t>GUÉRIN dit Lafontaine, Claude. Né vers 1668. Fils de Michel Guérin et de Jeanne Véron. Marié à Jeanne Cusson, à Montréal (Qc), le 19-11-1696. Quatre enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GUÉRIN, Clément. Né vers 1641. Marié à Perrine Coirier à Chaix (Fr.), église St-Étienne, le 30-06-1665. Il arrive en Nouvelle-France avec son épouse, en 1668. Décédé à Charlesbourg (Qc), le 07-06-1711. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>GUÉRIN, Clément. Né vers 1641. Marié à Perrine Coirier à Chaix (Fr.), église St-Étienne, le 30-06-1665. Il arrive en Nouvelle-France avec son épouse, en 1668. Décédé à Charlesbourg (Qc), le 07-06-1711. (FO)</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Bordeaux, France</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>GUIGNAS, Michel. Jésuite, novice à Bordeaux, il enseigne à Pau, après 1710, il étudie la philosophie et la théologie à Poitiers (Fr.). En 1716, il quitte la France pour la mission Saint-François-Xavier, puis part 5 ans vers l’Ouest. En 1722, il est de retour à Québec pour remplacer le père Lauzon, en tant que professeur d’hydrographie au collège. De 1737 à 1740, il est nommé en mission dans le Saguenay après être passé au poste de Michillimakinac. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Bordeaux, France</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5346,22 +5346,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>HERAULT*, Jeanne. Baptisée le 04-05-1627, paroisse Saint-Jean-Baptiste. Fille de François Hérault et de Marie Jugueline. Mariée à René Filliatrault, à Montréal (Qc), le 22-10-1658. Décédée à Montréal (Qc), 09-01-1677. Première mention, en Nouvelle-France, en 1658. (FO)</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HOUDARD ou OUDARD, Vincent. Faux saunier. Né vers 1703. Fils de Jacques Houdard et d’Esther Gilbert. Marié à 1) Jeanne Annebeau, à Orches (Fr.), le 05-07-1724. 2) Jeanne Sylvestre, à Québec, le 02-05-1733. Décédé à Saint-Joseph-de-Beauce (Qc), le 20-06-1764. Première mention, en Nouvelle-France, en 1731. (FO)</t>
+          <t>ORCHES (86230)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ORCHES (86230)</t>
+          <t>HOUDARD ou OUDARD, Vincent. Faux saunier. Né vers 1703. Fils de Jacques Houdard et d’Esther Gilbert. Marié à 1) Jeanne Annebeau, à Orches (Fr.), le 05-07-1724. 2) Jeanne Sylvestre, à Québec, le 02-05-1733. Décédé à Saint-Joseph-de-Beauce (Qc), le 20-06-1764. Première mention, en Nouvelle-France, en 1731. (FO)</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HERPIN dit Poitevin, Henri. Fils de Pierre Herpin et de Catherine Osbére. Marié à Marie Coulon, au Québec, en 1689. Contrat de mariage le 14-09-1689 (greffe Pierre Ménard dit Saint-Onge). Sept enfants. Inhumé à Saint-Ours (Qc), le 19-05-1728. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>HERPIN dit Poitevin, Henri. Fils de Pierre Herpin et de Catherine Osbére. Marié à Marie Coulon, au Québec, en 1689. Contrat de mariage le 14-09-1689 (greffe Pierre Ménard dit Saint-Onge). Sept enfants. Inhumé à Saint-Ours (Qc), le 19-05-1728. (FG)</t>
         </is>
       </c>
     </row>
@@ -5434,22 +5434,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>LES TROIS-MOUTIERS (86120)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Saint-Hyacinthe (Qc)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>JANSON dit Cimetière, Martin. Militaire. Baptisé le 10-10-1711, église Notre-Dame. Fils de Pierre Janson et de Louise Vervan. Marié à 1) Agnès Pépin, à Verchères (Qc), le 09-01-1736. Cinq enfants. 2) Marie-Anne Pinault, à Verchères (Qc), le 21-02-1757. Un enfant. Décédé à Saint-Hyacinthe (Qc), le 11-04-1799. Soldat des troupes de la Marine. (FO)</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Saint-Hyacinthe (Qc)</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>LES TROIS-MOUTIERS (86120)</t>
         </is>
       </c>
     </row>
@@ -5466,22 +5466,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>JAHAN* dit La Chaussé, François. Baptisé le 17-04-1661, paroisse Saint-Jean-de-Montierneuf. Fils de Gaspard Jahan et Martine Roguelet. Marié à Marie Madeleine Prunier, à Repentigny (Qc), le 05-11-1685. Décédé avant le 27-07-1703. Première mention, en Nouvelle-France, en 1685. (FO)</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>JANVIER, Jean. Né vers 1650. Fils de Jean Janvier et de Renée Dupeux. Marié à Dorothée Dubois, à Québec, en 1680. Contrat de mariage le 26-12-1679 (greffe Gilles Rajotte). (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>JANVIER, Jean. Né vers 1650. Fils de Jean Janvier et de Renée Dupeux. Marié à Dorothée Dubois, à Québec, en 1680. Contrat de mariage le 26-12-1679 (greffe Gilles Rajotte). (FG)</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>JODOIN ou JAUDOUIN, Claude. Maître charpentier. Né vers 1640. Fils de Barnabé Jodouin et de Michelle Grémillon. Marié à Anne Thomas, à Montréal (Qc), le 22-03-1666. Cinq enfants. Décédé à Montréal (Qc), le 16-10-1686. Première mention, en Nouvelle-France, en 1665. (FO)</t>
+          <t>LIGUGÉ (86133)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>LIGUGÉ (86133)</t>
+          <t>JODOIN ou JAUDOUIN, Claude. Maître charpentier. Né vers 1640. Fils de Barnabé Jodouin et de Michelle Grémillon. Marié à Anne Thomas, à Montréal (Qc), le 22-03-1666. Cinq enfants. Décédé à Montréal (Qc), le 16-10-1686. Première mention, en Nouvelle-France, en 1665. (FO)</t>
         </is>
       </c>
     </row>
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>JOUSSELOT dit L’Africain, Jacques. Né vers 1699. Fils de Jacques Jousselot et de Marie Heine. Marié à Marie-Louise Blanchon dite Saint-Germain, à Montréal (Qc), le 18-11-1732. Contrat de mariage le 16-11-1732 (greffe Nicolas Auguste Guillet de Chaumont). (FG)</t>
+          <t>SAINT-GAUDENT (86400)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>SAINT-GAUDENT (86400)</t>
+          <t>JOUSSELOT dit L’Africain, Jacques. Né vers 1699. Fils de Jacques Jousselot et de Marie Heine. Marié à Marie-Louise Blanchon dite Saint-Germain, à Montréal (Qc), le 18-11-1732. Contrat de mariage le 16-11-1732 (greffe Nicolas Auguste Guillet de Chaumont). (FG)</t>
         </is>
       </c>
     </row>
@@ -5574,22 +5574,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>MOULISMES (86500)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>LACETIÈRE (de), Florent. Fils de Jean de Lacetière et d’Anne Debies. Marié à Jeanne Pluchon, au Québec, en 1687. (FG)</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>MOULISMES (86500)</t>
         </is>
       </c>
     </row>
@@ -5606,22 +5606,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>ARCHIGNY (86210)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Verchères (Qc)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>LACORNE DE CHAPT*, Joseph-Marie. Religieux. Baptisé le 02-10-1714, à Verchères (Qc). Fils de Jean-Louis de Lacorne de Chapt et de Marie Pécaudy de Contrecoeur. Décédé, en 1779. Commendataire de l’abbaye de l’Étoile, en 1758. Chanoine, délégué en France du chapitre de Québec, diplomate à Londres et à Paris auprès de Choiseul. Il donne l’hospitalité aux Acadiens, exilés en 1773, qui feront de l’abbaye de l’Etoile, leur église paroissiale. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Verchères (Qc)</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
     </row>
@@ -5638,22 +5638,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>La Mothe-Saint-Héray (Fr)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>JARD, SIEUR DE BOISPINEAU, Charles. Né en 1700. Baptisé à la Mothe-Saint-Héray (Fr.). Décédé à Charlesbourg (Qc), en 1760. On le dit protestant. Il est religieux jésuite. Mentionné en Nouvelle-France, en 1721. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>La Mothe-Saint-Héray (Fr)</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5670,22 +5670,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Saint-jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Valeur introuvable</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>LAFAYE*, Pierre-Joseph. Tailleur de pierres. Baptisé le 10-01-1668, paroisse Saint-jean-de-Montierneuf. Fils de Jacques Lafaye et de Judith Guillon. Marié à Marie Massard, à Montréal (Qc), le 22-06-1698. Première mention, en Nouvelle France, en 1688. (FO)</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Saint-jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Valeur introuvable</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5702,22 +5702,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Valeur manquante</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>LAFAYE*, René-Antoine. Baptisé le 31-12-1664, paroisse Saint-Jean-de-Montierneuf. Fils de Jacques Lafaye et de Judith Guillon. Marié à 1) Françoise Courraud, à Lachine (Qc), 13-09-1688. 2) Marie-Madeleine Ozou, Au Québec, en 1690. Contrat de mariage le 19-01-1690 (greffe Antoine Adhémar). Décédé avant le 15-07-1696. Engagé du Séminaire de Montréal (Qc), le 30-03-1683. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Valeur manquante</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5734,22 +5734,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>LAFOY*, Antoine. Perruquier. Baptisé le 28-02-1713. Fils de Pierre Lafoix et de Marie Charault. Marié à MarieÉlisabeth Morand, à Québec, le 07-02-1735. Décédé à Québec, le 14-09-1748. Contrat de mariage le 01-02-1735 (greffe Jacques Nicolas Pinguet de Vaucour). Trois enfants. Soldat des troupes de la Marine, compagnie de La Ronde. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
         </is>
       </c>
     </row>
@@ -5766,22 +5766,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>LAFITAU, Jean-François. Né en 1681. Prêtre, jésuite, missionnaire, découvreur du Ginseng en Amérique. Auteur de « Moeurs des sauvages amériquains ». Il rentre chez les jésuites, en 1696, à Bordeaux (Fr.). Puis il étudie à Pau (Fr.), enseigne à Limoges (Fr.), à Saintes (Fr.). De 1706 à 1709 il complète ses études par une année de philosophie et de théologie à Poitiers (Fr.), qu’il termine à Paris (Fr.). En 1711, il demande à partir vers les missions de la Nouvelle-France. Il débarque juste avant la signature du traité d’Utrecht. On l’envoie au Sault-Saint-Louis (Qc), en face de Montréal (Qc). Il y exerce pendant six années. Il passe cinq années chez les Indiens. En 1711, il découvre le « Ginseng » en terre américaine. Il est le premier à se servir d’une planche de botanique. Grand observateur, il interprète et analyse la vie sociale et matérielle des Iroquois. En 1717, de retour en France, il fait une présentation personnelle de ses découvertes à la cour. Il demande le déplacement du village de Sault-Saint-Louis (Qc), sur son emplacement actuel, plus avantageux. Pour des raisons administratives, il reste en France. Il est nommé procureur des missions de la Nouvelle-France, à Paris (Fr.). Retour au Canada de 1727 à 1729, comme supérieur de la mission de Sault-Saint-Louis (Qc). Ses mémoires connurent de grands succès et de nombreuses publications en 1724, 1751 (en Hollande), puis en allemand plus tardivement. Ces travaux intéressent de nos jours de nombreux ethnologues qui analysent ses techniques de travail. Décédé en 1746. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -5798,22 +5798,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>MONCONTOUR (86330)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Saint-Nicolas</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
           <t>LAHAIE* (de), Fiacre. Boulanger. Baptisé le 27-09-1694, église Saint-Nicolas. Fils de Fiacre de Lahaie et de Jeanne Ragot. Marié à Marie-Madeleine Manseau, à Montréal (Qc), le 01-08-1729. Décédé à l’Hôtel-Dieu de Québec, le 29-11-1749. Première mention, en Nouvelle-France, en 1698. (FO)</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Saint-Nicolas</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>MONCONTOUR (86330)</t>
         </is>
       </c>
     </row>
@@ -5830,22 +5830,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>CHÂTELLERAULT (86100)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>LANDRY, Marie-Anne. Baptisée en 1775, église Saint-Jacques. Fille de Jean-Baptiste Landry et d’Elisabeth Dugast. Ils partent, vers la Louisiane, sur le navire « La Bergère » de Paimboeuf (Fr.), le 12-05-1785. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
     </row>
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>LAPLANTE dit Champagne, Bonaventure-Thomas. Né vers 1696. Fils de Thomas Laplante et de Marie Latissonierre. Marié à Marie Barbeau, à Montréal (Qc), en 1721. Contrat de mariage le 20-04-1721 (greffe Michel Lepailleur de La Ferté). Quatre enfants. (FG)</t>
+          <t>CHAMPAGNÉ-SAINT-HILAIRE (86160)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>CHAMPAGNÉ-SAINT-HILAIRE (86160)</t>
+          <t>LAPLANTE dit Champagne, Bonaventure-Thomas. Né vers 1696. Fils de Thomas Laplante et de Marie Latissonierre. Marié à Marie Barbeau, à Montréal (Qc), en 1721. Contrat de mariage le 20-04-1721 (greffe Michel Lepailleur de La Ferté). Quatre enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>LES ORMES (86220)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Poisay le Jolly, communes des Ormes</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>LAURENT*, Charles. Navigateur. Baptisé le 28-06-1701, paroisse Saint-Martin, à Poisay le Jolly, commune des Ormes. Fils de Charles Laurent et de Marie Pirault. Marié à Louise-Catherine Berthelot, à Québec, le 14-04-1760. Décédé à Charlesbourg (Qc), le 08-04-1772. Mentionné pour la première fois, en Nouvelle-France, en 1743. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Poisay le Jolly, communes des Ormes</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>LES ORMES (86220)</t>
         </is>
       </c>
     </row>
@@ -5918,22 +5918,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>LES ORMES (86220)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Poisay le Jolly</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>LAURENT*, Louis. Baptisé le 08-07-1703, paroisse Saint-Martin, à Poisay le Jolly, commune des Ormes. Marié à Louise Luneau, à Québec, le 18-11-1737. Décédé à Québec, le 13-04-1758. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Poisay le Jolly</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>LES ORMES (86220)</t>
         </is>
       </c>
     </row>
@@ -5950,22 +5950,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>LEIGNES-SUR-FONTAINE (86300)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>LAUZON*, Pierre. Baptisé le 13-09-1687. Fils de Pierre de Lauzon et de Marguerite Riot. Décédé à Québec, le 05-09-1742, après quelques jours de maladie. Il entre au noviciat des jésuites de la province d’Aquitaine, à Bordeaux, le 26 novembre 1703. (ILMPC-VOIR CHAPITRE I)</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>LEIGNES-SUR-FONTAINE (86300)</t>
         </is>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>LAVERGNE, Jean. Fils de Pierre Lavergne et de Françoise Simon. Marié à Françoise Flassin, à la Nouvelle-Orléans (Louisiane), le 03-09-1720. (FG)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>LAVERGNE, Jean. Fils de Pierre Lavergne et de Françoise Simon. Marié à Françoise Flassin, à la Nouvelle-Orléans (Louisiane), le 03-09-1720. (FG)</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>LE BLANC, Sylvestre. Baptisé en 1775, église de Cenan. Fils de Paul Le Blanc et d’Anne Boudreau. Parti sur « Le Beaumont » de Paimboeuf (Fr.), vers la Louisiane, en juin 1785. Décédé en 1777. (ILMPC)</t>
+          <t>LA PUYE (86260)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6021,7 +6021,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>LA PUYE (86260)</t>
+          <t>LE BLANC, Sylvestre. Baptisé en 1775, église de Cenan. Fils de Paul Le Blanc et d’Anne Boudreau. Parti sur « Le Beaumont » de Paimboeuf (Fr.), vers la Louisiane, en juin 1785. Décédé en 1777. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -6038,22 +6038,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>LA CHAUSSÉE (86330)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Acadie</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
           <t>LE GODELIER seigneur du bourg, Martin. Né en 1590. Marié à 1) Madeleine Sanglier, à La Chaussée (Fr.), en 1590. 2) Marie Mathieu, à La Chaussée (Fr.), en 1637. Décédé en Acadie, en 1642. Il finance l’expédition de Menou d’Aulnay en Acadie. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Acadie</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>LA CHAUSSÉE (86330)</t>
         </is>
       </c>
     </row>
@@ -6070,22 +6070,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>INGRANDES (86220)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>LÉGER* ou LIGER dit Lajeunesse, Pierre. Militaire. Baptisé le 13-09-1692, église Saint-Pierre et Saint-Paul. Fils de Pierre Léger et de Louise Perreau. Marié à Anne-Marguerite Fortier, à Québec, le 07-01-1711. Deux enfants. Décédé à Québec, le 03-03-1737. Soldat des troupes de la Marine, compagnie de Levilliers. (FO)</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>INGRANDES (86220)</t>
         </is>
       </c>
     </row>
@@ -6102,22 +6102,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>LE VIGEANT (86150)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>prieuré Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
           <t>LEBRUN* dit Lasonde, Jacques. Chirurgien. Baptisé le 15-05-1661, prieuré Saint-Georges. Fils de Jacques Brun et de Jeanne Couraud. Marié à Catherine Chapelain, à Saint-Pierre, Île-d’Orléans (Qc), le 12-01-1693. Décédé à l’Hôtel-Dieu de Québec, le 05-11-1713. Première mention, en Nouvelle-France, en 1690. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>prieuré Saint-Georges</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>LE VIGEANT (86150)</t>
         </is>
       </c>
     </row>
@@ -6134,22 +6134,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>TERNAY (86120)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>La Durantaye</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>LECLERC* dit Lebouteleux, Jean. Baptisé le 20-10-1646, paroisse Notre-Dame. Fils d’Antoine Leclerc et de Michelle Simon. Marié à Marie Couet, à Sainte Famille, Île-d’Orléans (Qc), le 11-11-1669. Trois enfants. Inhumé à La Durantaye (Qc), le 13-04-1703. En 1662, Jean est tisserand en toile et s’établit sur l’île d’Orléans (Qc). (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>La Durantaye</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>TERNAY (86120)</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>LEGENDRE, Marguerite. Fille de François Legendre et de Antoinette Ponsicaux. Marié à François Mouchard, à Louisbourg (NouvelleÉcosse), le 09-02-1750. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>LEGENDRE, Marguerite. Fille de François Legendre et de Antoinette Ponsicaux. Marié à François Mouchard, à Louisbourg (NouvelleÉcosse), le 09-02-1750. (FG)</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LEPROUST, Antoine-Claude. Militaire. Né vers 1712. Fils d’Antoine Leproust et de Marie-Anne Rioux. Marié à 1) Marie-Madeleine Lepellé dite Desmarais, à Trois-Rivières (Qc), le 02-06-1736. 2) Charlotte Godefroy de Vieux-Pont, à Trois-Rivières (Qc), le 08-05-1747. Décédé à Trois-Rivières (Qc), le 12-11-1792. Sergent des troupes de la Marine. (ILMPC-FO)</t>
+          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
+          <t>LEPROUST, Antoine-Claude. Militaire. Né vers 1712. Fils d’Antoine Leproust et de Marie-Anne Rioux. Marié à 1) Marie-Madeleine Lepellé dite Desmarais, à Trois-Rivières (Qc), le 02-06-1736. 2) Charlotte Godefroy de Vieux-Pont, à Trois-Rivières (Qc), le 08-05-1747. Décédé à Trois-Rivières (Qc), le 12-11-1792. Sergent des troupes de la Marine. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -6222,22 +6222,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
           <t>LEPROUST*, Jean. Notaire royal. Baptisé le 27-04-1720. Fils d’Antoine Leproust et de Marie-Anne Rioux. Marié 1) Marie-Anne Goubault, à Trois-Rivières (Qc), le 25-09-1747. 2) Charlotte Fafard dite Lonval, à Trois-Rivières (Qc), le 15-02-1757. Décédé en 1762. Engagé, en 1739, il part en Nouvelle-France et devient notaire Royal de la juridiction des Trois-Rivières. Première mention, en Nouvelle-France, en 1747. (ILMPCFG)</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>ANGLES-SUR-L’ANGLIN (86260)</t>
         </is>
       </c>
     </row>
@@ -6254,22 +6254,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
           <t>LAGNEAU, Étienne. Fils de François Lagneau et de Mathurine Boileau. Marié à Marguerite Lhéros, à Québec, le 20-05-1726. (FG)</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>ORCHES (86230)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Batiscan (Qc)</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>LEVREAU* sieur de Lamaisonneuve, Léon. Militaire. Baptisé le 29-10-1669, église Saint-Hilaire. Fils de Pierre Levreau et Anne Aigron. Marié à Marguerite Jarret de Verchères, à Batiscan (Qc), le 23-02-1718. Décédé à Batiscan (Qc), le 21-03-1740. Cadet des troupes de la Marine, arrivé, en Nouvelle-France, en 1687. (FO)</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Batiscan (Qc)</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>ORCHES (86230)</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>LETARD ou TARD, Françoise. Née vers 1625. Fille de Charles Tard et d’Ozanne. Mariée à Simon Bourbeau, à Poitiers (Fr.), le 01-12-1657. Décédée à Charlesbourg (Qc), le 10-12-1700. Partie en Nouvelle-France, avec son mari et sa fille Louise, en 1668. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>LETARD ou TARD, Françoise. Née vers 1625. Fille de Charles Tard et d’Ozanne. Mariée à Simon Bourbeau, à Poitiers (Fr.), le 01-12-1657. Décédée à Charlesbourg (Qc), le 10-12-1700. Partie en Nouvelle-France, avec son mari et sa fille Louise, en 1668. (FO)</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>LORIN, Pierre. Baptisé en 1628. Marié à 1) Françoise Hulin, à Angliers (Fr.), vers 1654. 2) Françoise Duverdier ou Saulnier, à Montréal (Qc), le 20-10-1659. Trois enfants. Décédé à Montréal (Qc), en 1685. Première mention, en Nouvelle-France, en 1655. (ILMPC-FG)</t>
+          <t>ANGLIERS (86330)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ANGLIERS (86330)</t>
+          <t>LORIN, Pierre. Baptisé en 1628. Marié à 1) Françoise Hulin, à Angliers (Fr.), vers 1654. 2) Françoise Duverdier ou Saulnier, à Montréal (Qc), le 20-10-1659. Trois enfants. Décédé à Montréal (Qc), en 1685. Première mention, en Nouvelle-France, en 1655. (ILMPC-FG)</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LIMOUSIN dit Beaufort, Hilaire. Militaire. Né vers 1640. Fils de Pierre Limousin et d’Isabelle Frandin. Marié à Antoinette Lefebvre, à Québec, le 09-11-1671. Décédé à Champlain (Qc), le 14-05-1708. Soldat au régiment Carignan-Salières, compagnie de Lafredière, arrivé à Québec, en 1665. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>LIMOUSIN dit Beaufort, Hilaire. Militaire. Né vers 1640. Fils de Pierre Limousin et d’Isabelle Frandin. Marié à Antoinette Lefebvre, à Québec, le 09-11-1671. Décédé à Champlain (Qc), le 14-05-1708. Soldat au régiment Carignan-Salières, compagnie de Lafredière, arrivé à Québec, en 1665. (FO)</t>
         </is>
       </c>
     </row>
@@ -6402,22 +6402,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>INGRANDES (86220)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
           <t>LEBLOND* dit Lafortune, Charles. Militaire. Baptisé le 01-12-1714, église Saint-Pierre et Saint-Paul. Fils de Pierre Leblond et de Marie Touré. Marié à Charlotte Gatien, le 16-06-1749. Décédé à Trois-Rivières (Qc), le 11-10-1773. Mentionné pour la première fois, en Nouvelle-France, en 1738, canonnier de la compagnie de Raymond, sergent des troupes de la Marine, en 1747. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Trois-Rivières (Qc)</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>INGRANDES (86220)</t>
         </is>
       </c>
     </row>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LORY, François. Fils de César Lory et de Richarde Graineraud. Marié à 1) Pierrette Parmant, au Québec, en 1670. Contrat de mariage le 01-10-1670 (greffe Romain Becquet). 2) Marie-Thérése Legros, à Lachine (Qc), le 29-01-1685. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>LORY, François. Fils de César Lory et de Richarde Graineraud. Marié à 1) Pierrette Parmant, au Québec, en 1670. Contrat de mariage le 01-10-1670 (greffe Romain Becquet). 2) Marie-Thérése Legros, à Lachine (Qc), le 29-01-1685. (FG)</t>
         </is>
       </c>
     </row>
@@ -6458,14 +6458,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MALHERBAUT dit Campillon, Jean. Fils de Pierre Malherbaut et de Michelle Roussel. Marié à Barbe Raveau, fille du Roy, à Québec, en 1673. Contrat de mariage le 16-09-1673 (greffe Pierre Duquet). (FG)</t>
+          <t>CHAMPIGNY-LE-SEC (86170)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>CHAMPIGNY-LE-SEC (86170)</t>
+          <t>MALHERBAUT dit Campillon, Jean. Fils de Pierre Malherbaut et de Michelle Roussel. Marié à Barbe Raveau, fille du Roy, à Québec, en 1673. Contrat de mariage le 16-09-1673 (greffe Pierre Duquet). (FG)</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MALERAY DE LA MOLLERIE, Jacques. Militaire. Né vers 1657. Fils d’Isaac Maleray de la Mollerie et de Marie Tessier. Marié à Françoise Picoté de Belestre, à Montréal (Qc), le 07-01-1687. Enseigne, lieutenant, puis gardemarine en 1694 et enfin commandant du fort Lachine (Qc), en 1690 et 1701. Avant de venir au Canada, lieutenant au régiment de Noailles, il tue en duel le sieur Guillot de la Forest, à Poitiers, en 1677. Jugé par contumace, il sera condamné à avoir la tête tranchée. En 1693, Louis XIV lui accorde le droit de revenir en France, pour demander des lettres de pardon, sa peine ne sera pas appliquée. En 1701 ou 1702, il s’embarque, avec sa femme et ses deux enfants, sur le navire « La Seine », afin de rentrer en France. Le navire est capturé par les Anglais. Il décède en mer, lors de cette attaque, le 26-07-1704. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MALERAY DE LA MOLLERIE, Jacques. Militaire. Né vers 1657. Fils d’Isaac Maleray de la Mollerie et de Marie Tessier. Marié à Françoise Picoté de Belestre, à Montréal (Qc), le 07-01-1687. Enseigne, lieutenant, puis gardemarine en 1694 et enfin commandant du fort Lachine (Qc), en 1690 et 1701. Avant de venir au Canada, lieutenant au régiment de Noailles, il tue en duel le sieur Guillot de la Forest, à Poitiers, en 1677. Jugé par contumace, il sera condamné à avoir la tête tranchée. En 1693, Louis XIV lui accorde le droit de revenir en France, pour demander des lettres de pardon, sa peine ne sera pas appliquée. En 1701 ou 1702, il s’embarque, avec sa femme et ses deux enfants, sur le navire « La Seine », afin de rentrer en France. Le navire est capturé par les Anglais. Il décède en mer, lors de cette attaque, le 26-07-1704. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -6510,22 +6510,22 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>SAINT-PIERRE-DE-MAILLÉ (86260)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Sainte-Geneviève-de-Batiscan (Qc)</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
           <t>MARCHELIDON*, René. Faux saunier. Baptisé le 04-01-1711, paroisse Saint-Pierre. Fils de Vincent Marchelidon et de Jeanne Lemarque ou Fromenteau. Marié à Marie-Josèphe Baribeau, à Sainte-Geneviève-de-Batiscan (Qc), le 29-02-1740. Inhumé à Sainte-Geneviève-de-Batiscan (Qc), le 26-11-1770. Parti en Nouvelle-France, en 1736. (FO)</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Sainte-Geneviève-de-Batiscan (Qc)</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>SAINT-PIERRE-DE-MAILLÉ (86260)</t>
         </is>
       </c>
     </row>
@@ -6542,14 +6542,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MALTESTE, Jean-Baptiste. Fils de François Malteste et de Françoise Rolland. Marié à Josèphe Gagnon, à Les Éboulements (Qc), le 13-11-1753. Contrat de mariage le 12-11-1753 (greffe Gilbert Boucault de Godefus). (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MALTESTE, Jean-Baptiste. Fils de François Malteste et de Françoise Rolland. Marié à Josèphe Gagnon, à Les Éboulements (Qc), le 13-11-1753. Contrat de mariage le 12-11-1753 (greffe Gilbert Boucault de Godefus). (FG)</t>
         </is>
       </c>
     </row>
@@ -6566,22 +6566,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire-de-la-Celle</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
           <t>MAROT dit Larose, Jean-Sébastien-René. Militaire. Baptisé le 08-03-1710, paroisse Saint-Hilaire-de-la-Celle. Fils de Sébastien Marot et de Marie-Antoinette Fleuriau. Marié à Marie-Catherine Marquet dite Périgord, à Montréal (Qc), le 01-08-1743. Décédé avant le 10-04-1752. Soldat des troupes de la Marine, compagnie de la Périère, arrivé en Nouvelle-France, en 1743. (FO)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire-de-la-Celle</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MARQUET dit Clocher, Louis. Militaire. Né vers 1668. Fils de Charles Marquet et de Geneviève Renault. Marié à Michelle Texier, à Charlesbourg (Qc), le 03-11-1698. Décédé à Charlesbourg (Qc), le 23-10-1761. Soldat des troupes de la Marine, compagnie de Vaudreuil, arrivé en Nouvelle-France, en 1696. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MARQUET dit Clocher, Louis. Militaire. Né vers 1668. Fils de Charles Marquet et de Geneviève Renault. Marié à Michelle Texier, à Charlesbourg (Qc), le 03-11-1698. Décédé à Charlesbourg (Qc), le 23-10-1761. Soldat des troupes de la Marine, compagnie de Vaudreuil, arrivé en Nouvelle-France, en 1696. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -6626,22 +6626,22 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Lavoux</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
           <t>MARQUET* dit Saint-Pierre, Jacques. Militaire. Baptisé le 22-06-1667, paroisse Saint-Paul à Lavoux lieu du mariage de ses parents. Fils de Charles Marquet et de Geneviève Renault. Marié à Louise Guérin, à Charlesbourg (Qc), le 03-02-1699. Décédé à Charlesbourg (Qc), le 29-06-1715. Soldat des troupes de la Marine, compagnie de Vaudreuil. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Lavoux</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -6658,14 +6658,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MARTIN, Pierre. Fils de René Martin et de Perinne Girodon. Marié à Catherine Tessier, à Montréal (Qc), en 1685. Contrat de mariage le 25-02-1685 (greffe Claude Maugue). (FG)</t>
+          <t>BONNES (86300)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>BONNES (86300)</t>
+          <t>MARTIN, Pierre. Fils de René Martin et de Perinne Girodon. Marié à Catherine Tessier, à Montréal (Qc), en 1685. Contrat de mariage le 25-02-1685 (greffe Claude Maugue). (FG)</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MASSARD*, Nicolas. Baptisé le 04-06-1634, église Sainte-Radegonde. Fils de Jean Massard et de Marguerite Pimpault. Marié à Anne Bellesoeur, à Québec, le 12-10-1665. Décédé, avant 1686. Engagé à La Rochelle (Fr.), il s’embarque, pour la Nouvelle-France, en 1658. (FO)</t>
+          <t>VOUILLÉ (86190)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6693,7 +6693,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>VOUILLÉ (86190)</t>
+          <t>MASSARD*, Nicolas. Baptisé le 04-06-1634, église Sainte-Radegonde. Fils de Jean Massard et de Marguerite Pimpault. Marié à Anne Bellesoeur, à Québec, le 12-10-1665. Décédé, avant 1686. Engagé à La Rochelle (Fr.), il s’embarque, pour la Nouvelle-France, en 1658. (FO)</t>
         </is>
       </c>
     </row>
@@ -6710,22 +6710,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>LATHUS-SAINT-RÉMY (86390)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Saint-Rémy</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-les-Becquets</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
           <t>MAZEREAU* ou MAZERAUD dit Labarre, François. Baptisé le 01-10-1724, église Saint-Rémy. Fils de Gaspard Mazeraud et de Marie-Françoise Rodier. Marié à Marie-Louise Roberge, à Saint-Laurent, Île-d’Orléans (Qc), le 24-06-1748. Décédé à Saint-Pierre-les-Becquets (Qc), le 27-08-1783. Matelot sur le navire « La Sultane », première mention, en Nouvelle France, en 1746. (FO)</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Saint-Rémy</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Saint-Pierre-les-Becquets</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>LATHUS-SAINT-RÉMY (86390)</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MECHIN ou MESCHIN, Hélène. Née vers 1658. Fille de Pierre Meschin et d’Isabelle Bobin. Mariée à Joseph Prieur, à Mirebeau (Fr.), le 10-04-1677. Décédée à Québec, le 17-07-1728. Mentionnée en Nouvelle-France, avec son mari, en 1687. (ILMPC)</t>
+          <t>MIREBEAU (86110)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>MIREBEAU (86110)</t>
+          <t>MECHIN ou MESCHIN, Hélène. Née vers 1658. Fille de Pierre Meschin et d’Isabelle Bobin. Mariée à Joseph Prieur, à Mirebeau (Fr.), le 10-04-1677. Décédée à Québec, le 17-07-1728. Mentionnée en Nouvelle-France, avec son mari, en 1687. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -6770,22 +6770,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Paroisse Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
           <t>MECHIN* ou MESCHIN, Jean. Né en 1669. Baptisé le 27-03-1672, paroisse Notre-Dame. Fils de Pierre Meschin et d’Isabelle Bobin. Décédé à l’Hôtel-Dieu de Québec, le 24-02-1735. Première mention, en Nouvelle-France, en 1687. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Paroisse Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -6802,22 +6802,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>AULNAY (86330)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Charnisay</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Port-Royal (Nouvelle-Écosse)</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
           <t>MENOU D’AULNAY DE CHARNIZAY, Charles. Gouverneur de l’Acadie. Né vers 1606, au château de Charnisay. Fils de René de Menou et de Nicole de Jousserand. Marié à Jeanne Motin de Reux, à Port-Royal (Nouvelle-Écosse), en 1638. Huit enfants. Décédé à Port-Royal (Nouvelle-Écosse), en 1650. (ILMPC VOIR LIVRE N°6)</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Charnisay</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Port-Royal (Nouvelle-Écosse)</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>AULNAY (86330)</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MERCADIER* ou MARCADIER dit Lahaie, Mathurin. Baptisé le 22-06-1645, église Saint-Pierre. Fils de Georges Marcadier et de Charlotte Maurice. Marié à Catherine Fourrier, à Montréal (Qc), le 14-10-1670. Décédé, avant le 11-05-1672. Première mention, en Nouvelle-France, en 1669. (FO)</t>
+          <t>BUXEUIL (86160)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6845,7 +6845,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>BUXEUIL (86160)</t>
+          <t>MERCADIER* ou MARCADIER dit Lahaie, Mathurin. Baptisé le 22-06-1645, église Saint-Pierre. Fils de Georges Marcadier et de Charlotte Maurice. Marié à Catherine Fourrier, à Montréal (Qc), le 14-10-1670. Décédé, avant le 11-05-1672. Première mention, en Nouvelle-France, en 1669. (FO)</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MARROLOT, Pierre. Fils de Jacques Marrolot et de Marie Peynet. Marié à Josèphe Miville, à Fort-Saint-Jean (Qc), le 29-01-1759. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MARROLOT, Pierre. Fils de Jacques Marrolot et de Marie Peynet. Marié à Josèphe Miville, à Fort-Saint-Jean (Qc), le 29-01-1759. (FG)</t>
         </is>
       </c>
     </row>
@@ -6890,22 +6890,22 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>LUSIGNAN (86600)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Pranzay commune de Lusignan</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Contrecoeur (Qc)</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
           <t>MIEL* ou AMIEL dit Lusignan, Jean. Baptisé le 08-01-1664, à Pranzay commune de Lusignan. Fils de Jean Amiel et de Louise Esmonet. Marié à Thérèse Roger dite Latouche, à Boucherville (Qc), le 27-04-1699. Inhumé à Contrecoeur (Qc), le 11-01-1749. Soldat des troupes de la Marine, compagnie de Lavaltrie, mentionné, en Nouvelle-France, en 1692. (FO)</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Pranzay commune de Lusignan</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Contrecoeur (Qc)</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>LUSIGNAN (86600)</t>
         </is>
       </c>
     </row>
@@ -6922,22 +6922,22 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
           <t>MILLET*, Pierre. Baptisé le 01-09-1653, paroisse Notre-Dame. Fils de Vincent Millet et de Claude Penin. Marié à 1) Marie-Madeleine Pelletier, à Québec, le 13-11-1690. 2) Louise Gauthier, au Québec, en 1702. 3) Marie Salois, à Saint-Laurent, Îled’Orléans (Qc), le 20-11-1702. Décédé à Saint-Laurent, Île-d’Orléans (Qc), le 15-10-1715. Première mention, en Nouvelle-France, en 1687. (FO-FG)</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -6954,22 +6954,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
           <t>MINET dit Montigny, Jean. Maître teinturier. Né vers 1637. Fils de Jean Minet et de Marguerite Poyneau. Marié à Perrine Pagnoux, à Poitiers (Fr.), le 27-09-1664. Cinq enfants. Décédé à Québec, le 09-07-1706. Première mention en Nouvelle-France, avec sa famille, en 1670. (FO)</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Saint-Savin</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
           <t>MINET*, Louise. Baptisée le 06-11-1669, paroisse Saint-Savin. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Mariée à Guy Paris dit Pilette, à Québec, le 08-11-1694. Décédée à l’Hôtel-Dieu de Québec, le 02-11-1695. Partie en Nouvelle-France, avec ses parents, en 1670. (FO)</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Saint-Savin</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7018,22 +7018,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
           <t>MINET*, Marie. Baptisée le 29-10-1666, paroisse Saint-Jean-Baptiste. Jumelle de Renée. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Mariée à Sylvain Dupain, à Québec, le 10-07-1681. Décédée à l’Hôtel-Dieu de Québec, le 03-01-1693. Partie en Nouvelle-France, avec ses parents, en 1670. (FO)</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MINET*, Renée. Baptisée le 29-10-1666, paroisse Saint-Jean de Poitiers. Jumelle de Marie. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Elle part avec ses parents vers la Nouvelle-France, en 1670. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7061,7 +7061,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MINET*, Renée. Baptisée le 29-10-1666, paroisse Saint-Jean de Poitiers. Jumelle de Marie. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Elle part avec ses parents vers la Nouvelle-France, en 1670. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MERÉ, Jeanne. Née vers 1635. Fille de Michel Meré et de Catherine Archange. Mariée à 1) Éloi Jarry dit Lahaie, à Montréal (Qc), le 09-11-1654. Trois enfants. 2) Henri Perrin, à Montréal (Qc), le 18-07-1661. Cinq enfants. 3) René Moreau dit Portail ou Dubreuil, à Montréal (Qc), le 20-06-1672. Inhumée à Montréal (Qc), le 08-12-1711. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MERÉ, Jeanne. Née vers 1635. Fille de Michel Meré et de Catherine Archange. Mariée à 1) Éloi Jarry dit Lahaie, à Montréal (Qc), le 09-11-1654. Trois enfants. 2) Henri Perrin, à Montréal (Qc), le 18-07-1661. Cinq enfants. 3) René Moreau dit Portail ou Dubreuil, à Montréal (Qc), le 20-06-1672. Inhumée à Montréal (Qc), le 08-12-1711. (FG)</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MONDINA ou MONDINAUD dit Olivier, Jacques. Né vers 1704. Fils d’Antoine-Servant Mondinaud et d’Elisabeth Perrin. Marié à Marie-Catherine Durand, à Saint-Sulpice (Qc), le 05-02-1731. Décédé à Cap-Saint-Ignace (Qc), le 15-02-1764. Première mention, en Nouvelle-France, en 1731. (ILMPC)</t>
+          <t>LIZANT (86400)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>LIZANT (86400)</t>
+          <t>MONDINA ou MONDINAUD dit Olivier, Jacques. Né vers 1704. Fils d’Antoine-Servant Mondinaud et d’Elisabeth Perrin. Marié à Marie-Catherine Durand, à Saint-Sulpice (Qc), le 05-02-1731. Décédé à Cap-Saint-Ignace (Qc), le 15-02-1764. Première mention, en Nouvelle-France, en 1731. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -7134,22 +7134,22 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>SAINT-MAURICE-LA-CLOUÈRE (86160)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Saint-Maurice</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Contrecoeur (Qc)</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
           <t>MONTEIL* dit Sansrémission, René. Baptisé le 23-03-1676, église Saint-Maurice. Fils d’Etienne Monteil et d’Antoinette Lombard. Marié à 1) Marguerite-Marie Chicoine, à Contrecoeur (Qc), le 09-02-1707. 2) Marie Thérése Fontaine dite Bienvenu, à Contrecoeur (Qc), le 25-03-1719. Décédé à Contrecoeur (Qc), le 04-03-1724. Soldat des troupes de la Marine, première mention, en Nouvelle-France, en 1698. (FO)</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Saint-Maurice</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Contrecoeur (Qc)</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>SAINT-MAURICE-LA-CLOUÈRE (86160)</t>
         </is>
       </c>
     </row>
@@ -7166,14 +7166,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MONTREUIL dit Francoeur, Léonard. Fils de Léonard Montreuil et de Jeanne Canin. Marié à Marguerite Levigneux, fille du Roy, à Montréal (Qc), en 1668. Contrat de mariage le 29-02-1668 (greffe Bénigne Basset dit Deslauriers). (FG)</t>
+          <t>MAILLÉ (86190)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>MAILLÉ (86190)</t>
+          <t>MONTREUIL dit Francoeur, Léonard. Fils de Léonard Montreuil et de Jeanne Canin. Marié à Marguerite Levigneux, fille du Roy, à Montréal (Qc), en 1668. Contrat de mariage le 29-02-1668 (greffe Bénigne Basset dit Deslauriers). (FG)</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MOREL, Pierre. Fils de Samuel Morel et de Jeanne Denis. Marié à Jeanne Leblanc, au Québec, en 1675. Contrat de mariage le 26-12-1675 (greffe Paul Vachon). Six enfants. Inhumé à Beauport (Qc), le 05-12-1699. (FG)</t>
+          <t>ROUILLÉ (86480)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>ROUILLÉ (86480)</t>
+          <t>MOREL, Pierre. Fils de Samuel Morel et de Jeanne Denis. Marié à Jeanne Leblanc, au Québec, en 1675. Contrat de mariage le 26-12-1675 (greffe Paul Vachon). Six enfants. Inhumé à Beauport (Qc), le 05-12-1699. (FG)</t>
         </is>
       </c>
     </row>
@@ -7218,14 +7218,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MORILLON, Mathurin. Né vers 1680. Fils de Mathurin Morillon et de Jeanne Ferret. Marié à Marguerite Morin, à Rivière-Ouelle (Qc), en 1710. Contrat de mariage le 27-07-1710 (greffe Étienne Jeanneau). Quatre enfants. (FG)</t>
+          <t>CHARRAIS (86170)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>CHARRAIS (86170)</t>
+          <t>MORILLON, Mathurin. Né vers 1680. Fils de Mathurin Morillon et de Jeanne Ferret. Marié à Marguerite Morin, à Rivière-Ouelle (Qc), en 1710. Contrat de mariage le 27-07-1710 (greffe Étienne Jeanneau). Quatre enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MOULAISON, Rose. Baptisée en 1775, église de Cenan. Fille de Jacques Moulaison et de Marie-Blanche Doiron. Parti sur « Le Beaumont » de Paimboeuf (Fr.), vers la Louisiane, en juin 1785. (ILMPC)</t>
+          <t>LA PUYE (86260)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7253,7 +7253,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>LA PUYE (86260)</t>
+          <t>MOULAISON, Rose. Baptisée en 1775, église de Cenan. Fille de Jacques Moulaison et de Marie-Blanche Doiron. Parti sur « Le Beaumont » de Paimboeuf (Fr.), vers la Louisiane, en juin 1785. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -7270,22 +7270,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>HAIMS (86310)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Saint-Michel</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>MOUSSION* dit Lamouche, Robert. Tailleur d’habits. Baptisé le 24-02-1640, église Saint-Michel. Fils de Florent Moussion et de Jeanne Charpentier. Marié à Anne Tavernier, fille du Roy, à Québec, le 15-05-1666. Quatre enfants. Inhumé à Québec, le 24-11-1718. Première mention en Nouvelle-France, en 1664. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Saint-Michel</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>HAIMS (86310)</t>
         </is>
       </c>
     </row>
@@ -7302,22 +7302,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>NAINTRÉ (86174)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>MÉNAGE* ou MESNAGE, Pierre. Charpentier. Baptisé le 11-01-1641, église Saint-Vincent. Fils d’André Ménage et de Françoise Lunet. Marié à Anne Leblanc, à Québec, le 13-03-1673. Inhumé à Québec, le 17-04-1715. Première mention, en Nouvelle-France, en 1669. (FO)</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Saint-Vincent</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>NAINTRÉ (86174)</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MINET, Marie-Madeleine. Née vers 1679. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Mariée à Thomas Castillon, à Québec, le 25-10-1700. Inhumée à Québec, le 04-01-1709. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>MINET, Marie-Madeleine. Née vers 1679. Fille de Jean Minet dit Montigny et de Perrine Pagnoux. Mariée à Thomas Castillon, à Québec, le 25-10-1700. Inhumée à Québec, le 04-01-1709. (FG)</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NAUDIN ou NODIN, Pierre. Né vers 1657. Fils de René Nodin et de Jeanne Marchand. Mort noyé devant la basse ville de Québec, le 22-09-1674. Mentionné pour la première fois, en 1669. (FO)</t>
+          <t>CISSÉ (86170)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>CISSÉ (86170)</t>
+          <t>NAUDIN ou NODIN, Pierre. Né vers 1657. Fils de René Nodin et de Jeanne Marchand. Mort noyé devant la basse ville de Québec, le 22-09-1674. Mentionné pour la première fois, en 1669. (FO)</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NAUD, Luc-François. Né en 1703. Prêtre, jésuite missionnaire Supérieur de la mission du Sault-Saint-Louis (Qc). Etudes à Poitiers (Fr.), il rentre en tant que novice à Bordeaux (Fr.) en 1720. Professeur à Tulle (Fr.), il complète sa philosophie à Poitiers (Fr.) de 1725 à 1726, et sa théologie à Bordeaux (Fr.) de 1730 à 1734. Il part au Canada avec de Lauzon sur « le Rubis » en 1733. Après une traversée très difficile, il part vers la mission du Sault-Saint-Louis (Iroquois et Hurons). 1738 : il se rend à Québec, où il prononce ses voeux. 1742 : il dirige la mission jusqu’en 1744. De retour en France, il espérait se guérir de la goutte, mais il meurt en 1753 à Luçon (Fr.). (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>NAUD, Luc-François. Né en 1703. Prêtre, jésuite missionnaire Supérieur de la mission du Sault-Saint-Louis (Qc). Etudes à Poitiers (Fr.), il rentre en tant que novice à Bordeaux (Fr.) en 1720. Professeur à Tulle (Fr.), il complète sa philosophie à Poitiers (Fr.) de 1725 à 1726, et sa théologie à Bordeaux (Fr.) de 1730 à 1734. Il part au Canada avec de Lauzon sur « le Rubis » en 1733. Après une traversée très difficile, il part vers la mission du Sault-Saint-Louis (Iroquois et Hurons). 1738 : il se rend à Québec, où il prononce ses voeux. 1742 : il dirige la mission jusqu’en 1744. De retour en France, il espérait se guérir de la goutte, mais il meurt en 1753 à Luçon (Fr.). (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NETIER ou NESTIER dit Poitevin, Vincent. Né vers 1709. Fils de Antoine Nestier et de Vincende Naudin. Marié à Catherine Roy dite Desjardins, à Berthier en Haut (Qc), le 07-08-1752. Contrat de mariage le 26-07-1752 (greffe Cyr Monmerqué dit Dubreuil). Décédé avant le 20-06-1777. (FO)</t>
+          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
+          <t>NETIER ou NESTIER dit Poitevin, Vincent. Né vers 1709. Fils de Antoine Nestier et de Vincende Naudin. Marié à Catherine Roy dite Desjardins, à Berthier en Haut (Qc), le 07-08-1752. Contrat de mariage le 26-07-1752 (greffe Cyr Monmerqué dit Dubreuil). Décédé avant le 20-06-1777. (FO)</t>
         </is>
       </c>
     </row>
@@ -7446,14 +7446,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NOËL, François. Fils de Pierre Noël et de Élisabeth Augustin. Marié à Nicole Lagrand, à Québec, en 1669. Contrat de mariage le 13-10-1669 (greffe Romain Becquet). Sept enfants. (FG)</t>
+          <t>CHIRÉ-EN-MONTREUIL (86190)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>CHIRÉ-EN-MONTREUIL (86190)</t>
+          <t>NOËL, François. Fils de Pierre Noël et de Élisabeth Augustin. Marié à Nicole Lagrand, à Québec, en 1669. Contrat de mariage le 13-10-1669 (greffe Romain Becquet). Sept enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -7470,22 +7470,22 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Pointe-Claire (Qc)</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>NEPVEU* ou NEVEU, Jean. Baptisé le 27-06-1660, église Saint-Germain. Fils de Gilles Neveu et de Claude Mannel. Marié à Catherine Godin, à Lachine (Qc), le 16-02-1688. Décédé à Pointe-Claire (Qc), le 06-04-1719. Première mention en Nouvelle-France, en 1678. (FO)</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Saint-Germain</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Pointe-Claire (Qc)</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7502,22 +7502,22 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Saint-Michel</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
           <t>ORTAIL* dit Dubreuil, René. Militaire. Baptisée le 17-10-1650, paroisse Saint-Michel. Fils de René Moreau du Portai et de Barbe Veillard. Marié à Jeanne Merrin à Notre-Dame de Montréal (Qc), le 26-06-1672. Mentionné en 1672, il est soldat du gouverneur Nicolas Perrot. Décédé avant 1682. (FO)</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Saint-Michel</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7534,22 +7534,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>PAGNOUX, Perrine. Née vers 1640. Fille de Louis Pagnoux et de Catherine Faugeret. Mariée à Jean Minet à Poitiers (Fr.), le 27-09-1664. Elle part avec son mari et ses deux filles, vers la Nouvelle-France, en 1670. Décédée à Québec, le 17-08-1720. (FO)</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>PALIN ou PALAIN dit Dabonville, Mathurin. Maître de barque. Né vers1660. Fils de Pierre Palain et Florence Marthialle ou Massia. Marié à Louise Renaud, à Québec, le 23-07-1691. Décédé à Québec, le 25-01-1756. Arrivée, en Nouvelle-France, en 1689. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PALIN ou PALAIN dit Dabonville, Mathurin. Maître de barque. Né vers1660. Fils de Pierre Palain et Florence Marthialle ou Massia. Marié à Louise Renaud, à Québec, le 23-07-1691. Décédé à Québec, le 25-01-1756. Arrivée, en Nouvelle-France, en 1689. (FO)</t>
         </is>
       </c>
     </row>
@@ -7594,22 +7594,22 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Charlesbourg</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
           <t>PAQUET* ou PASQUIER, Émery. Artisan sergetier. Baptisé le 18-03-1614, paroisse Saint-Jean-Baptiste. Fils de Annet Pasquier et Marguerite Genet. Marié à 1) Vincente Beaumont, le 25-10-1637. 2) Renée Guillocheau, à Poitiers (Fr.), en 1659. Décédé à Charlesbourg (Qc), avant 1680. Arrivé en Nouvelle-France, avec sa seconde épouse et ses enfants, en 1667. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Charlesbourg</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PASQUIER, François. Né en 1647, paroisse Saint-Paul. Arrivée en Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7637,7 +7637,7 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PASQUIER, François. Né en 1647, paroisse Saint-Paul. Arrivée en Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -7654,22 +7654,22 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire-de-la-Celle</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
           <t>PAQUET* ou PASQUIER, Jeanne. Baptisée le 28-03-1666, Saint-Hilairede-la-Celle. Fille de Maurice Pasquier et Françoise Forget. Mariée à Jean Paradis, à Québec, le 05-02-1679. Décédée à Charlesbourg (Qc), le 14-03-1711. Arrivée en Nouvelle-France, avec sa famille, en 1667. (FO)</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire-de-la-Celle</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7686,22 +7686,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
+          <t>LEUGNY (86220)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>paroisse Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
           <t>PARENT*, Mathurin. Baptisé le 22-11-1655, paroisse Saint-Hilaire. Fils de Thomas Parent et de Marie Marnay. Marié avec Jeanne Boucher, à Montréal (Qc), le 12-01-1688. Décédé à Montréal (Qc), le 19-01-1732. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>paroisse Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>LEUGNY (86220)</t>
         </is>
       </c>
     </row>
@@ -7718,22 +7718,22 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>DISSAY (86130)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
           <t>PASQUIER, Étienne. Jardinier. Baptisé le 20-01-1624, paroisse Saint-Pierre et Saint-Paul. Fils d’Étienne Pasquier et de Jeanne Poussarde. Marié à 1) Françoise Barbery, au Québec, en 1668. 2) Henriette Rousseau, à Québec, le 06-11-1668. Décédé avant 1690. Première mention en Nouvelle-France, vers 1667. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>DISSAY (86130)</t>
         </is>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PAQUET* ou PASQUIER, Marguerite. Fille du Roy. Baptisée le 07-04-1645, paroisse Saint-Paul. Fille d’Emery Pasquier et de Vincente Beaumont. Mariée à François Biville dit Picard, à Québec, le 26-11-1670. Décédée avant le 31-07-1698. Arrivée en Nouvelle-France, avec sa famille, en 1667. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7761,7 +7761,7 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PAQUET* ou PASQUIER, Marguerite. Fille du Roy. Baptisée le 07-04-1645, paroisse Saint-Paul. Fille d’Emery Pasquier et de Vincente Beaumont. Mariée à François Biville dit Picard, à Québec, le 26-11-1670. Décédée avant le 31-07-1698. Arrivée en Nouvelle-France, avec sa famille, en 1667. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PATRICE*, Vincent. Né le 20-11-1722. Nommé capitaine au régiment de Guyenne le 13-02-1748, il débarque en Nouvelle-France avec son régiment en 1755. Il est tué au combat, à la bataille de Carillon, et inhumé à Ticondéroga (New York), le 13-03-1758. (FO)</t>
+          <t>LOUDUN (86200)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>LOUDUN (86200)</t>
+          <t>PATRICE*, Vincent. Né le 20-11-1722. Nommé capitaine au régiment de Guyenne le 13-02-1748, il débarque en Nouvelle-France avec son régiment en 1755. Il est tué au combat, à la bataille de Carillon, et inhumé à Ticondéroga (New York), le 13-03-1758. (FO)</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PAULIN, Jean. Fils de Pierre Paulin et de Thomasse Clerguille. Marié à Anne-Jeanne Bard ou Bardé, fille du Roy, au Québec, le 05-10-1665. (FG)</t>
+          <t>AVANTON (86170)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>AVANTON (86170)</t>
+          <t>PAULIN, Jean. Fils de Pierre Paulin et de Thomasse Clerguille. Marié à Anne-Jeanne Bard ou Bardé, fille du Roy, au Québec, le 05-10-1665. (FG)</t>
         </is>
       </c>
     </row>
@@ -7834,22 +7834,22 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire-de-la-Celle</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
           <t>PAQUET* ou PASQUIER, Maurice. Baptisé le 20-12-1641, église Saint-Hilaire-de-la-Celle. Fils d’Emery Pasquier et Vincente Beaumont. Marié à Françoise Forget, à Poitiers (Fr.), le 29-07-1659. Inhumé à Québec, le 28-01-1715. Arrivé en Nouvelle-France, avec sa famille, en 1667. (FO)</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire-de-la-Celle</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7866,22 +7866,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Notre-Dame-la-Petite</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
           <t>PELLETIER* dit Sansoucy, Louis. Militaire. Baptisé le 17-09-1713, Notre-Dame-la-Petite. Fils de François Pelletier et de Michelle Coulée. Marié à Marie-Josèphe Cécire, à Lachine (Qc), le 29-10-1742. Décédé à Montréal (Qc), le 12-12-1749. Soldat des troupes de la Marine, compagnie de Saint-Ours, arrivé en Nouvelle-France, en 1742. (FO)</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Notre-Dame-la-Petite</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7898,22 +7898,22 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
           <t>PAQUET* ou PASQUIER, René. Baptisé le 07-08-1650, paroisse Saint-Paul. Fils d’Émery Pasquier et Vincente Beaumont. Marié à Hélène Lemieux, à Québec, le 16-10-1679. Décédé à Québec, le 09-05-1699. Arrivée en Nouvelle-France, avec sa famille, en 1667. (FO)</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7930,22 +7930,22 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
           <t>PENISSEAUT*, Louis-André-Joachim. Négociant. Baptisé le 21-03-1724, paroisse Saint-Paul. Fils de Charles Pennisseaut et de Catherine Bry. Marié à Marie-Marguerite Lemoine dite Monier, le 02-03-1753. Décédé en France après le 12-09-1771. Première mention, en Nouvelle-France, en 1747. (ILMPC-VOIR CHAP. I)</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -7962,22 +7962,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
+          <t>MONTHOIRON (86210)</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Paris, Hôtel de Cluny</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
           <t>PERUSSE DES CARS*, Louis-Nicolas. Né le 08-06-1724, à Paris, Hôtel de Cluny. Dernier de dix enfants. Il débute sa carrière militaire très tôt dans le régiment de Toulouse-Cavalerie. Il devient aide-major en Italie et Chevalier de Malte en minorité. Il est colonel du régiment de Normadie-Infanterie en 1753. Blessé lors de la guerre de Sept Ans, il abandonne la carrière militaire. Il se marie en 1750 avec Jeanne-Victoire de la Hette d’Artaguiette. Il obtient une belle dot. Il va alors acheter de nombreuses propriétés et notamment le château de Monthoiron en 1753. Il tente après la guerre de Sept Ans, une expérience d’installation, sur ses terres, de familles allemandes. Le gouvernement royal le sollicite pour l’installation des Acadiens dans la région. Il présente un projet en 1773 : établir 2000 acadiens formant 200 familles sur un terrain de 17 ha 40, avec une maison, une étable, deux boeufs, deux vaches, une grange et une serre. C’est en septembre 1773 qu’arrivent les 497 Acadiens de Saint-Malo, du Havre et de Cherbourg, à Châtellerault. Ils participeront à la fin de la construction des maisons. En 1774, de nouveaux acadiens arrivent par la voie navigable de la Vienne, au départ de Nantes : 1472 individus s’installent au total dans la colonie. Le projet initial n’est pas respecté car seulement 58 maisons ont été construites. Mais les Acadiens ne défrichent que très peu et veulent pour la majorité repartir. En 1775, Pérusse des Cars sent l’échec de son établissement. Finalement vers 1785, 1360 personnes vont quitter le châtellerauldais pour la Louisiane. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Paris, Hôtel de Cluny</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>MONTHOIRON (86210)</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PENISSEAU*, Marie-Benoitte-Marguerite-Ursule. Baptisée le 29-03-1762, église Saint-Porchaire. Elle est dite « âgée d’environ seize ans de la tribu des Panis en Canada ». Elle réside au monastère des ursulines. Son parrain est le sieur Pénisseau. (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8005,7 +8005,7 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PENISSEAU*, Marie-Benoitte-Marguerite-Ursule. Baptisée le 29-03-1762, église Saint-Porchaire. Elle est dite « âgée d’environ seize ans de la tribu des Panis en Canada ». Elle réside au monastère des ursulines. Son parrain est le sieur Pénisseau. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -8022,22 +8022,22 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
+          <t>PLEUMARTIN (86450)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Saint-Sénéry</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Sainte-Foy (Qc)</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
           <t>PETITCLERC*, Pierre. Baptisé le 08-02-1638, paroisse de Saint-Sénéry. Fils de Jean Petitclerc et de Marie Poizay. Marié à Françoise Paris, à Québec, le 11-09-1673. Décédé à Sainte-Foy (Qc), le 31-05-1711. Première mention, en Nouvelle-France, en 1672. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Saint-Sénéry</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Sainte-Foy (Qc)</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>PLEUMARTIN (86450)</t>
         </is>
       </c>
     </row>
@@ -8054,14 +8054,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>PICARD, Jean. Fils de Pierre Picard et de Marie Gagnon. Marié à Jacqueline Néron, à Montréal (Qc), en 1706. Contrat de mariage le 09-05-1706 (greffe Pierre Raimbault). (FG)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>PICARD, Jean. Fils de Pierre Picard et de Marie Gagnon. Marié à Jacqueline Néron, à Montréal (Qc), en 1706. Contrat de mariage le 09-05-1706 (greffe Pierre Raimbault). (FG)</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>PINTURAUX, François. Fils de Benoist Pintoraux et d’Anne Metayer. Marié à Marie-Anne Beauregard, à La Nouvelle-Orléans (Louisiane), le 24-05-1728. (FG)</t>
+          <t>SAINT-MACOUX (86400)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>SAINT-MACOUX (86400)</t>
+          <t>PINTURAUX, François. Fils de Benoist Pintoraux et d’Anne Metayer. Marié à Marie-Anne Beauregard, à La Nouvelle-Orléans (Louisiane), le 24-05-1728. (FG)</t>
         </is>
       </c>
     </row>
@@ -8106,14 +8106,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PLINGUET dit Poitou, Vincent. Né vers 1722. Fils de Vincent Plinguet et de Louise Boyer. Marié à 1) Marie-Anne Viniau, à Montréal (Qc), le 18-01-1751. 2) Marie-Madeleine Sainte-Foy, à Montréal (Qc) le 16-05-1774. (FG)</t>
+          <t>LES ORMES (86220)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>LES ORMES (86220)</t>
+          <t>PLINGUET dit Poitou, Vincent. Né vers 1722. Fils de Vincent Plinguet et de Louise Boyer. Marié à 1) Marie-Anne Viniau, à Montréal (Qc), le 18-01-1751. 2) Marie-Madeleine Sainte-Foy, à Montréal (Qc) le 16-05-1774. (FG)</t>
         </is>
       </c>
     </row>
@@ -8130,22 +8130,22 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
+          <t>VOUNEUIL-SUR-VIENNE (86210)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>SaintÉtienne</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Rivière-Ouelle (Qc)</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
           <t>PLOURDE* ou PELOURDE, René. Baptisé le 15-07-1667, paroisse SaintÉtienne. Fils de François Plourde et de Jeanne Gremillon. Marié à Jeanne-Marguerite Bérubé, à Rivière-Ouelle (Qc), le 26-08-1697. Décédé à Rivière-Ouelle (Qc), avant le 26-02-1709. Mentionné, pour la première fois en Nouvelle-France, en 1695. (FO)</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>SaintÉtienne</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Rivière-Ouelle (Qc)</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>VOUNEUIL-SUR-VIENNE (86210)</t>
         </is>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>POIRIER dit Desloges, Joseph. Né vers 1685. Fils de Jacques Poirier et de Françoise Brunet. Marié à 1) Marie Gauthier, à Montréal (Qc), le 16-09-1709. Huit enfants. 2) Marie-Marguerite Lalande dite Latreille, à Pointe-Claire (Qc), le 12-01-1729. Cinq enfants. Inhumé à Sainte-Anne-de-Bellevue (Qc), le 24-02-1754. (FG)</t>
+          <t>LATHUS-SAINT-RÉMY (86390)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>LATHUS-SAINT-RÉMY (86390)</t>
+          <t>POIRIER dit Desloges, Joseph. Né vers 1685. Fils de Jacques Poirier et de Françoise Brunet. Marié à 1) Marie Gauthier, à Montréal (Qc), le 16-09-1709. Huit enfants. 2) Marie-Marguerite Lalande dite Latreille, à Pointe-Claire (Qc), le 12-01-1729. Cinq enfants. Inhumé à Sainte-Anne-de-Bellevue (Qc), le 24-02-1754. (FG)</t>
         </is>
       </c>
     </row>
@@ -8190,14 +8190,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>POITEVIN dit Lafleur, François. Né vers 1706. Fils de Jean Poitevin et de Marie Forbe. Marié à 1) Marie Neuville dite Guérin, à Rivière-des-Prairies (Qc), le 07-01-1733. Quatre enfants. 2) Marie-Josèphe Franche dite Laframboise, à Pointe-Claire (Qc), en 1748. Contrat de mariage le 11-06-1748 (greffe Jean Baptiste Adhémar). (FG)</t>
+          <t>BRION (86160)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>BRION (86160)</t>
+          <t>POITEVIN dit Lafleur, François. Né vers 1706. Fils de Jean Poitevin et de Marie Forbe. Marié à 1) Marie Neuville dite Guérin, à Rivière-des-Prairies (Qc), le 07-01-1733. Quatre enfants. 2) Marie-Josèphe Franche dite Laframboise, à Pointe-Claire (Qc), en 1748. Contrat de mariage le 11-06-1748 (greffe Jean Baptiste Adhémar). (FG)</t>
         </is>
       </c>
     </row>
@@ -8214,22 +8214,22 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Sainte-Radegonde</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Saint-Antoine-sur-Richelieu (Qc)</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
           <t>PERRIN* dit Saint-Pierre, Jean-Pierre. Militaire. Baptisé le 05-12-1739, église Sainte-Radegonde. Fils de Jean Perrin et de Marie Charbonnier. Marié à Marguerite Lebeau, à Saint-Antoine-sur-Richelieu (Qc), le 29-10-1764. Décédé à Saint-Antoine-sur-Richelieu (Qc), le 13-03-1821. Soldat des troupes de la Marine, arrivé en Nouvelle-France, avant 1759. (FO)</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Sainte-Radegonde</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Saint-Antoine-sur-Richelieu (Qc)</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -8246,22 +8246,22 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
+          <t>THURÉ (86540)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
           <t>POUPEAU*, Vincent. Baptisé le 01-12-1657, église Saint-Pierre. Fils de François Poupeau et de Jacquette Meneau. Marié à Madeleine Brésa dite Lafleur, à Boucherville (Qc), le 27-04-1690. Décédé avant 1697. Première mention, en Nouvelle France, en 1686. (FO)</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>THURÉ (86540)</t>
         </is>
       </c>
     </row>
@@ -8278,22 +8278,22 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
+          <t>MIREBEAU (86110)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
           <t>PRIEUR* dit Cusson, Joseph. Huissier. Baptisé le 29-05-1660, église Notre-Dame. Fils de Pierre Prieur et de Marie Charrault. Marié à Hélène Mechin, à Mirebeau (Fr.), le 10-04-1677. Décédé à Québec, le 14-08-1706. Première mention, en Nouvelle-France, en 1687. (FO)</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>MIREBEAU (86110)</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PESANT, PAYSAN ou POISANT dit Sansquartier, Antoine. Né vers 1680. Fils d’Antoine Poisant et de Marie-Jeanne Marchand. Marié à Marie Élisabeth Tessier dite Lavigne, à Saint-Laurent, Montréal (Qc), le 03-11-1722. Six enfants. Décédé à Sault-au-Récollet (Qc), le 16-05-1761. Première mention, en Nouvelle-France, en 1720. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PESANT, PAYSAN ou POISANT dit Sansquartier, Antoine. Né vers 1680. Fils d’Antoine Poisant et de Marie-Jeanne Marchand. Marié à Marie Élisabeth Tessier dite Lavigne, à Saint-Laurent, Montréal (Qc), le 03-11-1722. Six enfants. Décédé à Sault-au-Récollet (Qc), le 16-05-1761. Première mention, en Nouvelle-France, en 1720. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -8338,14 +8338,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>PRINCHARD dit Potvin, Jean. Né vers 1730. Fils de Daniel Princhard et d’Anne Coué. Marié à Agathe-Blanche Trahan, à Louisbourg (NouvelleÉcosse), le 13-05-1754. (FG)</t>
+          <t>COUHÉ (86700)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>COUHÉ (86700)</t>
+          <t>PRINCHARD dit Potvin, Jean. Né vers 1730. Fils de Daniel Princhard et d’Anne Coué. Marié à Agathe-Blanche Trahan, à Louisbourg (NouvelleÉcosse), le 13-05-1754. (FG)</t>
         </is>
       </c>
     </row>
@@ -8362,22 +8362,22 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
           <t>PRIEUR* dit Lafleur, Jean. Baptisé le 11-12-1664, paroisse Saint-Jean-Baptiste. Fils d’Antoine Prieur et de Perrine Bonneau. Marié à 1) Louise Forestier, à Poitiers (Fr.), avant 1701. 2) Marie-Charlotte Glory dite Labière, à Montréal (Qc), le 05-03-1704. Décédé à Montréal (Qc), le 08-09-1714. Première mention, en Nouvelle-France, en 1696. (FO)</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Saint-Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Montréal</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -8394,22 +8394,22 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Sainte-Radegonde</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
           <t>POUDRET, Antoine. Boulanger. Né vers 1659, paroisse de Sainte-Radegonde. Fils d’Antoine Poudret et de jeanne Bonnin. Marié à Catherine Gendron, à Boucherville (Qc), le 19-06-1686. Inhumé à Montréal (Qc), le 28-06-1737. Première mention, en Nouvelle-France, en 1683. (ILMPC-FG)</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Sainte-Radegonde</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Montréal</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -8426,22 +8426,22 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
           <t>PROTEAU* ou PROTEAULT, Marie-Anne. Baptisée le 26-12-1666, paroisse Saint-Jean-Baptiste. Fille d’Étienne Proteault et de Marguerite Seguin. Mariée à Jean Degme dit Daigle et Lallemand, à Charlesbourg (Qc), le 05-11-1685. Décédée à Québec, le 17-12-1742. Partie pour la Nouvelle-France, avec ses parents, en 1675. (FO)</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -8458,22 +8458,22 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
+          <t>DISSAY (86130)</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
           <t>PROVOST*, Louis. Militaire. Baptisé le 06-12-1671, paroisse Saint-Pierre et Saint-Paul. Fils de Louis Provost et de Jeanne Viau. Marié à Marie Senellé, à Montréal (Qc), le 02-05-1719. Soldat des troupes de la Marine. Première mention en 1693 dans les registres de l’Hôtel-Dieu de Québec. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>DISSAY (86130)</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PÉLADEAU dit Saint-Jean, Jean. Marié à Jeanne Leroy, à Chambly (Qc), en 1670. Trois enfants. Décédé après le 25-11-1719. (FG)</t>
+          <t>AULNAY (86330)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>AULNAY (86330)</t>
+          <t>PÉLADEAU dit Saint-Jean, Jean. Marié à Jeanne Leroy, à Chambly (Qc), en 1670. Trois enfants. Décédé après le 25-11-1719. (FG)</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PROTEAU, Jeanne. Née en 1668, paroisse Saint-Jean. Partie en Nouvelle-France, avec sa famille. (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8529,7 +8529,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>PROTEAU, Jeanne. Née en 1668, paroisse Saint-Jean. Partie en Nouvelle-France, avec sa famille. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -8546,22 +8546,22 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
+          <t>LINAZAY (86400)</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
           <t>RAFFOU* dit Prétaboire, Pierre. Militaire. Baptisé le 08-10-1724, paroisse Saint-Hilaire. Fils de François Raffou et d’Anne Chanlue. Marié à Marie-Louise Bezeau, à Québec, le 13-01-1755. Décédé à Québec, le 10-04-1784. Soldat des troupes de la Marine, compagnie des canonniers et bombardiers. Première mention, en Nouvelle France, en 1752. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>LINAZAY (86400)</t>
         </is>
       </c>
     </row>
@@ -8578,22 +8578,22 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Neuville (Qc)</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
           <t>PROU* ou PROULX, Jean. Marchand. Baptisé le 13-11-1633, paroisse Saint-Jean-Baptiste. Fils de Nicolas Prou et de Catherine Morgué. Marié à 1) Garnaud Louise, à Poitiers (Fr.), le 15-09-1658. 2) Jeanne Chabot, à Poitiers (Fr.), le 20-06-1661. 3) Catherine Pinel, à Neuville (Qc), le 02-11-1676. Inhumé à Neuville (Qc), le 09-12-1703. Arrivé, en Nouvelle-France, en 1670. (FO)</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Neuville (Qc)</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -8610,22 +8610,22 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
+          <t>LA TRIMOUILLE (86290)</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Valeur inconnue</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
           <t>RAVENEL* (de), Pierre Chevalier. Baptisé le 17-05-1704, église Saint-Pierre. Fils de Jacques Alexandre Ravenel et de Marie-Catherine Baron. Marié à Marie-Angélique Rainville, à Québec, le 03-08-1744. Décédé après le 14-04-1760. Soldat des troupes de la Marine, compagnie de Méloizes. Mentionné, en Nouvelle-France, en 1741. (FO)</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Valeur inconnue</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>LA TRIMOUILLE (86290)</t>
         </is>
       </c>
     </row>
@@ -8642,22 +8642,22 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>ROIFFÉ (86120)</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Roiffé</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>La Hève (Nouvelle-Écosse)</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
           <t>RAZILLY de, Isaac. Gouverneur d’Acadie. Militaire. Né le 05-07-1587, au château d’Oiseaumelle, commune de Roiffé. Fils de François de Razilly et de Catherine de Villiers. Capitaine, colonisateur et gouverneur de l’Acadie. A 18 ans, il est nommé Chevalier de l’ordre de Saint-Jeande-Jérusalem. Il participe à diverses actions en France, notamment lors de l’attaque de La Rochelle (Fr.), en 1625, où il est gravement blessé à l’oeil. Richelieu lui demande conseil au sujet du commerce maritime et fonde la Compagnie de la Nouvelle-France ou des Cent Associés. Richelieu lui offre la lieutenance générale de la Nouvelle-France. Razilly refuse et va commander un navire sous les ordres de Champlain. Razilly doit prendre possession de Port-Royal (Nouvelle-Écosse) et doit faire de l’Acadie une colonie française. On affrète trois navires avec des marins et des journaliers ainsi que douze à quinze familles de colons. Le départ se fait d’Auray, en Bretagne (Fr.), en 1632. Il choisit le port de la Hève (Nouvelle-Écosse), pour s’installer. Il veut développer, après leur installation, le commerce et les affrètements de navires. Il construit un fort à Canseau (Nouvelle-Écosse) et reprend le poste de Pentagoet (Nouvelle-Écosse). Il meurt soudainement à La Hève (Nouvelle-Écosse), en 1636. Il laisse de nombreux projets non achevés pour le développement de l’Acadie. Son frère reprend ses affaires. C’est sous sa direction que de nombreux acadiens sont venus s’installer, il a aidé au véritable développement du peuplement de cette colonie. (ILMPC-VOIR LIVRE N°6)</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Roiffé</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>La Hève (Nouvelle-Écosse)</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>ROIFFÉ (86120)</t>
         </is>
       </c>
     </row>
@@ -8674,14 +8674,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>REMENEUIL, Louis. Fils de Mathurin Remeneuil et de Jeanne Bonivet. Marié à Marie-Catherine Durbois, à Québec, le 16-08-1736. (FG)</t>
+          <t>MARTAIZÉ (86330)</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>MARTAIZÉ (86330)</t>
+          <t>REMENEUIL, Louis. Fils de Mathurin Remeneuil et de Jeanne Bonivet. Marié à Marie-Catherine Durbois, à Québec, le 16-08-1736. (FG)</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>REQUIEM*, Jean. Baptisé le 06-08-1789, église d’Antoigné. Fils de Jean Réquiem et de Marguerite Brion. Marié à Thérèse Fortier, à Québec, le 10-08-1819. (ILMPC)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8709,7 +8709,7 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>REQUIEM*, Jean. Baptisé le 06-08-1789, église d’Antoigné. Fils de Jean Réquiem et de Marguerite Brion. Marié à Thérèse Fortier, à Québec, le 10-08-1819. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>RICHARD, Jean. Fils d’Austille Richard et de Marie Pilard. Marié à Marie Renaud dite Locas, à L’Ange-Gardien (Qc), le 18-10-1700. Un enfant. (FG)</t>
+          <t>AULNAY (86330)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>AULNAY (86330)</t>
+          <t>RICHARD, Jean. Fils d’Austille Richard et de Marie Pilard. Marié à Marie Renaud dite Locas, à L’Ange-Gardien (Qc), le 18-10-1700. Un enfant. (FG)</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ROBICHAUD, Etienne. Né vers 1640. Fils de Louis Robichaud et de Marie Amérindienne. Marié à Françoise Baudreau au Bodrot, à Port-Royal (Nouvelle-Écosse), en 1663. Dix enfants. Décédé à Port-Royal (Nouvelle-Écosse), en 1686 (FG)</t>
+          <t>LA CHAUSSÉE (86330)</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>LA CHAUSSÉE (86330)</t>
+          <t>ROBICHAUD, Etienne. Né vers 1640. Fils de Louis Robichaud et de Marie Amérindienne. Marié à Françoise Baudreau au Bodrot, à Port-Royal (Nouvelle-Écosse), en 1663. Dix enfants. Décédé à Port-Royal (Nouvelle-Écosse), en 1686 (FG)</t>
         </is>
       </c>
     </row>
@@ -8782,14 +8782,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ROBIN dit Saint-Jacques, Jacques. Né vers 1684. Fils de Louis Robin et de Marie Bastien. Marié à 1) Marie Têtu dite Flament, à pointe-aux-Trembles (Qc), le 15-07-1724. 2) Marie Beauchamp, à Lachenaie (Qc), le 20-04-1729. (FG)</t>
+          <t>LOUDUN (86200)</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>LOUDUN (86200)</t>
+          <t>ROBIN dit Saint-Jacques, Jacques. Né vers 1684. Fils de Louis Robin et de Marie Bastien. Marié à 1) Marie Têtu dite Flament, à pointe-aux-Trembles (Qc), le 15-07-1724. 2) Marie Beauchamp, à Lachenaie (Qc), le 20-04-1729. (FG)</t>
         </is>
       </c>
     </row>
@@ -8806,22 +8806,22 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
+          <t>GOUEX (86360)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
           <t>ROUILLET* dit Laviolette, Michel. Baptisé le 03-05-1645. Fils de Jacques Brouillet et de Renée Vassière. Marié à Marie Dubois, à Montréal (Qc), le 03-11-1670. Inhumé à Montréal (Qc), le 18-05-1712. Soldat au régiment Carignan-Salières, compagnie Petit. Première mention, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>GOUEX (86360)</t>
         </is>
       </c>
     </row>
@@ -8838,22 +8838,22 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
+          <t>BOURNAND (86120)</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Laprairie (Qc)</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
           <t>ROUSSEAU* dit Labonté, Antoine. Militaire. Baptisé le 07-04-1643. Fils de Jean Rousseau et de Blaise Moricet. Marié à Marie Roinay, à La Prairie (Qc), vers 1675. Cinq enfants. Inhumé à Laprairie (Qc), le 08-07-1697. Première mention, en Nouvelle-France, en 1665, soldat au régiment de Carignan-Salières. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Laprairie (Qc)</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>BOURNAND (86120)</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>RABEAU* ou RABIAU dit Sanschagrin, Jean-Marc-Antoine. Militaire. Baptisé le 18-12-1712, paroisse de Sainte-Radegonde. Marié à Marie-Josèphe Courberon dite Paris, à Québec, le 10-03-1734. Décédé avant le 19-11-1759. Tambour des troupes de la Marine, compagnie de Rigaud, première mention, en Nouvelle-France, en 1733. (FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8881,7 +8881,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>RABEAU* ou RABIAU dit Sanschagrin, Jean-Marc-Antoine. Militaire. Baptisé le 18-12-1712, paroisse de Sainte-Radegonde. Marié à Marie-Josèphe Courberon dite Paris, à Québec, le 10-03-1734. Décédé avant le 19-11-1759. Tambour des troupes de la Marine, compagnie de Rigaud, première mention, en Nouvelle-France, en 1733. (FO)</t>
         </is>
       </c>
     </row>
@@ -8898,22 +8898,22 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
+          <t>CHÂTELLERAULT (86100)</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Saint-Jacques</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
           <t>ROUSSET* dit Châteaufort, Claude-Vincent. Militaire. Baptisé le 03-08-1691, église Saint-Jacques. Fils de Vincent Rousset et de Marie-Thérèse Hesnin. Marié à Marie-Thérèse Vergeat dite Prénoveau, à Québec, le 07-01-1732. Décédé à l’Hôtel-Dieu de Québec, le 13-02-1748. Canonnier des troupes de la Marine. (FO)</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Saint-Jacques</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
     </row>
@@ -8930,14 +8930,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ROUSSEL dit Saint-Pierre, Pierre. Marié à 1) Marie-Françoise Mirault, à Québec, le 28-10-1728. 2) Catherine Morand, au Québec, avant 1746. Cinq enfants. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>ROUSSEL dit Saint-Pierre, Pierre. Marié à 1) Marie-Françoise Mirault, à Québec, le 28-10-1728. 2) Catherine Morand, au Québec, avant 1746. Cinq enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -8954,14 +8954,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>RANGIER, Madeleine. Mariée à René Chartier, en 1645. Partie pour la Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>RANGIER, Madeleine. Mariée à René Chartier, en 1645. Partie pour la Nouvelle-France, avec sa famille, en 1667. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -8978,22 +8978,22 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
+          <t>CHÂTELLERAULT (86100)</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Saint-Jacques</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>La Pérade (Qc)</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
           <t>ROY* dit Châtellerault, Michel. Notaire seigneurial. Baptisé le 09-01-1644, église Saint-Jacques. Fils de Michel Roy et de Louise Chevalier. Marié à Françoise Aubé, fille du Roy, à Québec, le 08-10-1668. Cinq enfants. Inhumé à La Pérade (Qc), le 13-01-1709. Soldat au régiment de Carignan-Salières, compagnie de Lanoraie, en 1665. Il cumule ainsi plusieurs fonctions, notaire, procureur, huissier, et commandant de milice. Il signe ensuite dans la Compagnie du Nord. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Saint-Jacques</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>La Pérade (Qc)</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ROY, François. Né vers 1715. Fils d’Emery Roy et de Marie-Anne Delouvière. Marié à Madeleine Duprat, à Montréal (Qc), le 05-01-1743. Contrat de mariage le 21-12-1742 (greffe Louis-Claude Danré de Blanzy). (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>ROY, François. Né vers 1715. Fils d’Emery Roy et de Marie-Anne Delouvière. Marié à Madeleine Duprat, à Montréal (Qc), le 05-01-1743. Contrat de mariage le 21-12-1742 (greffe Louis-Claude Danré de Blanzy). (FG)</t>
         </is>
       </c>
     </row>
@@ -9038,22 +9038,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Saint-Jean-de-Montierneuf</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
           <t>ROY* dit Chouigny, Joseph. Militaire. Baptisé le 15-06-1664, paroisse de Saint-Jean-de-Montierneuf. Fils de François Roy et de Sainte Martin. Marié à Marguerite Martin, à Québec, le 16-08-1694. Décédé, avant le 14-02-1712. Soldat des troupes de la Marine, arrivé en Nouvelle-France, en 1692. (FO)</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Saint-Jean-de-Montierneuf</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9070,22 +9070,22 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
           <t>RUFFIGNY* ou RUFFIGNÉ dit Sanschagrin, Jean. Militaire. Baptisé le 17-03-1715, paroisse Saint-Michel. Fils d’André Ruffigné et de Marie Bregeon. Marié à Marie-Françoise Dubé, à Montréal (Qc), le 25-11-1743. Décédé, avant le 25-10-1748. Soldat des troupes de la Marine, compagnie de Lavaltrie, arrivé en Nouvelle-France, en 1742. (FO)</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>SINTON, Pierre. Fils d’Adrien Sinton et de Françoise Restay. Marié à Nicole Deveure, à la Nouvelle-Orléans (Louisiane), le 01-07-1720. (FG)</t>
+          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>CHÂTELLERAULT (86100)</t>
+          <t>SINTON, Pierre. Fils d’Adrien Sinton et de Françoise Restay. Marié à Nicole Deveure, à la Nouvelle-Orléans (Louisiane), le 01-07-1720. (FG)</t>
         </is>
       </c>
     </row>
@@ -9130,22 +9130,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
+          <t>VOUZAILLES (86170)</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Montréal</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
           <t>SUREAU* dit Blondin, Hilaire. Laboureur. Baptisé le 02-02-1657, paroisse Saint-Hilaire. Fils de Jacques Sureau et d’Honorée Pouzet. Marié à Louise Paradis, à Québec, en 1691. Huit enfants. Inhumé à l’Hôtel-Dieu de Montréal (Qc), le 06-05-1708. Engagé à La Rochelle (Fr.), le 30-04-1683, pour les pères du séminaire de Montréal (Qc). On le retrouve à la Malbaie, Pointe-au-Pic (Qc), en 1688. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Montréal</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>VOUZAILLES (86170)</t>
         </is>
       </c>
     </row>
@@ -9162,14 +9162,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SAUVAGE dit Chevalier, Pierre-Charles. Fils de Pierre Sauvage et de Marie Brien. Marié à Marie-Anne Badeau, à Québec, le 15-10-1724. Contrat de mariage le 04-10-1724 (greffe Jean-Étienne Dubreuil). (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>SAUVAGE dit Chevalier, Pierre-Charles. Fils de Pierre Sauvage et de Marie Brien. Marié à Marie-Anne Badeau, à Québec, le 15-10-1724. Contrat de mariage le 04-10-1724 (greffe Jean-Étienne Dubreuil). (FG)</t>
         </is>
       </c>
     </row>
@@ -9186,22 +9186,22 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
           <t>SALOMON, Louis. Né vers 1681. Fils de François Salomon et de Marie Maire. Marié à Louisbourg (NouvelleÉcosse), le 05-02-1727. Un enfant. (FG)</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9218,22 +9218,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
+          <t>SAINT-GEORGES-LÈS-BAILLARGEAUX (86130)</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
           <t>TARDIF ou TARDY, Louis. Né vers 1645. Fils de Jean Tardy et de Michelle Villain. Marié à Marie Allence, à Trois-Rivières (Qc), le 13-11-1669. Décédé après le 24-04-1673. Première mention, en Nouvelle France, en 1669. (FO).</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>SAINT-GEORGES-LÈS-BAILLARGEAUX (86130)</t>
         </is>
       </c>
     </row>
@@ -9250,22 +9250,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
+          <t>ARCHIGNY (86210)</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
           <t>TEMPLE, Marguerite. Fille d’André Temple et de Marie Devaux. Mariée à Joseph-Gabriel Braud, à Archigny (Fr.), le 30-09-1777. Deux enfants. Partie pour la Louisiane, avec sa famille, sur le navire « L’Amitié » de Nantes, le 12-08-1785. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>ARCHIGNY (86210)</t>
         </is>
       </c>
     </row>
@@ -9282,22 +9282,22 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
+          <t>CHÂTELLERAULT (86100)</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Saint-Eustache (Qc)</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
           <t>TENAULT* ou THENAULT, Charles. Tanneur. Baptisé le 26-12-1736, église Notre-Dame. Fils de Jean Tenault et de Jeanne Hérault. Marié à Marie-Anne Larrivée, à Montréal (Qc), le 15-11-1773. Décédé à Saint-Eustache (Qc), le 01-08-1813. (FO)</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Saint-Eustache (Qc)</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>CHÂTELLERAULT (86100)</t>
         </is>
       </c>
     </row>
@@ -9314,22 +9314,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
           <t>SÉGUIN*, Marguerite. Baptisée le 24-09-1644, paroisse Saint-Jean-Baptiste. Fille de François Séguin et de Simonne Verret. Mariée à 1) Étienne Proteau, à Montreuil (Fr.), vers 1663. 2) André Leroux, à Charlesbourg (Qc), le 15-11-1694. Décédée à Charlesbourg (Qc), le 18-02-1702. Arrivée en Nouvelle-France, avec son premier mari, en 1675. (FO)</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9346,22 +9346,22 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>DISSAY (86130)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Saint-Pierre et Saint-Paul</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
           <t>TESSERROT*, Antoine. Baptisé le 17-04-1659, église Saint-Pierre et Saint-Paul. Fils d’Antoine Tesserrot et de Jeanne Galipeau. Marié à 1) Madeleine Guillory, à Montréal (Qc), le 03-03-1699. 2) Marie-Anne Beauvais, à Montréal (Qc), le 19-05-1704. Décédé à Montréal (Qc), le 30-12-1732. Il s’engage à La Rochelle (Fr.), le 30-04-1683, pour le séminaire de Montréal (Qc). (FO)</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Saint-Pierre et Saint-Paul</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>DISSAY (86130)</t>
         </is>
       </c>
     </row>
@@ -9378,22 +9378,22 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
+          <t>LE VIGEANT (86150)</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>paroisse Saint-Georges</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Sainte-Rose (Qc)</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
           <t>TOURON* ou THOURON dit Lombard, Pierre. Faux saunier. Né le 12-12-1705, paroisse Saint-Georges. Fils de François Touron et de Catherine George. Marié à Jeanne Dubeau, à Charlesbourg (Qc), en 1737. Contrat de mariage le 03-12-1736 (greffe Noël Dupras). Deux enfants. Décédé à Sainte-Rose (Qc), le 08-06-1788. Première mention, en Nouvelle-France, en 1734. (FO)</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>paroisse Saint-Georges</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>Sainte-Rose (Qc)</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>LE VIGEANT (86150)</t>
         </is>
       </c>
     </row>
@@ -9410,14 +9410,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>TOUSSALIN, Pierre. Fils d’Antoine Toussalin et de Mathurine Mallaine. Marié à Geneviève Drapeau, à Saint-François-de-Sales (Qc), en 1719. Contrat de mariage le 20-09-1720 (greffe Michel Lepailleur de La Ferté). (FG)</t>
+          <t>SAINT-CYR (86130)</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>SAINT-CYR (86130)</t>
+          <t>TOUSSALIN, Pierre. Fils d’Antoine Toussalin et de Mathurine Mallaine. Marié à Geneviève Drapeau, à Saint-François-de-Sales (Qc), en 1719. Contrat de mariage le 20-09-1720 (greffe Michel Lepailleur de La Ferté). (FG)</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>VAILLANT dit Rasleau, Pierre. Né vers 1662. Marié à Jeanne Faucheux, à Batiscan (Qc), le 29-02-1688. Contrat de mariage le 29-02-1688 (greffe Louis de Merommont). Décédé à la Pérade (Qc), le 12-09-1735. (ILMPC)</t>
+          <t>MAUPRÉVOIR (86460)</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>MAUPRÉVOIR (86460)</t>
+          <t>VAILLANT dit Rasleau, Pierre. Né vers 1662. Marié à Jeanne Faucheux, à Batiscan (Qc), le 29-02-1688. Contrat de mariage le 29-02-1688 (greffe Louis de Merommont). Décédé à la Pérade (Qc), le 12-09-1735. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>SÈVRE (de), Jean. Né vers 1728. Fils de Jean de Sèvre et de Marie Duchesne. Marié à Marguerite Nogues, à Port-Lajoie (Nouveau-Brunswick), le 16-08-1755. Inhumé à Saint-Charles-de-Bellechasse (Qc), le 20-12-1758. (FG)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>SÈVRE (de), Jean. Né vers 1728. Fils de Jean de Sèvre et de Marie Duchesne. Marié à Marguerite Nogues, à Port-Lajoie (Nouveau-Brunswick), le 16-08-1755. Inhumé à Saint-Charles-de-Bellechasse (Qc), le 20-12-1758. (FG)</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>TESSEREAU* dit Bellefleur, Michel. Militaire. Baptisé le 26-11-1734, Paroisse Saint-Germain. Fils de Michel Tessereau et de Jeanne Delagarde. Marié à Marie-Angélique Beaudin, à Québec (Qc), le 31-01-1757. Fifre des troupes de la Marine, compagnie de Fonville, arrivé en Nouvelle-France, en 1753. (ILMPC-FO)</t>
+          <t>POITIERS (86000)</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9501,7 +9501,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>POITIERS (86000)</t>
+          <t>TESSEREAU* dit Bellefleur, Michel. Militaire. Baptisé le 26-11-1734, Paroisse Saint-Germain. Fils de Michel Tessereau et de Jeanne Delagarde. Marié à Marie-Angélique Beaudin, à Québec (Qc), le 31-01-1757. Fifre des troupes de la Marine, compagnie de Fonville, arrivé en Nouvelle-France, en 1753. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -9518,22 +9518,22 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
+          <t>BLANZAY (86400)</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
           <t>VEZIN, Louis. Né vers 1734. Fils de Louis Vezin et de Marie Lemères. Marié à Marie-Anne Senes, à Montréal (Qc), le 30-09-1754. (FG)</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>BLANZAY (86400)</t>
         </is>
       </c>
     </row>
@@ -9550,22 +9550,22 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Saint-Porchaire</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
           <t>VALLÉE* ou VALLET dit Sansoucy, Jean. Militaire. Baptisé le 17-12-1675, église Saint-Porchaire. Fils de Jean Vallet et d’Élisabeth ou Isabelle Proust. Marié à Marguerite Damien, à Montréal (Qc), le 16-07-1712. Quatre enfants. Décédé à Montréal (Qc), le 09-08-1718. Soldat des troupes de la Marine, compagnie de Livilliers, arrivé en Nouvelle-France, en 1712. (FO)</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Saint-Porchaire</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9582,22 +9582,22 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
           <t>VIGNAULT dit Laverdure, Paul. Né vers 1641. Fils de Jean Vignault et de Renée. Marié à Françoise Bourgeois, à Sainte-Famille, Île-d’Orléans (Qc), le 03-11-1669. Deux enfants. Décédé avant 1703. (FG)</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9614,22 +9614,22 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
+          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Saint-Genest</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
           <t>VOCELLE* dit Poitevin, François. Journalier. Baptisé le 18-11-1685, église Saint-Genest. Fils de Jean Vocelle et de Marguerite Guellerin. Marié à Marie-Françoise Desève, à Québec, le 08-10-1729. Décédé à Québec, le 29-07-1753. Première mention, en Nouvelle-France, en 1728. (FO)</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Saint-Genest</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>SAINT-GENEST-D’AMBIÈRE (86140)</t>
         </is>
       </c>
     </row>
@@ -9646,22 +9646,22 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
+          <t>LES ORMES (86220)</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>N'est pas spécifié</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>N'est pas spécifié</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
           <t>VOYER D’ARGENSON* DE PAULMY, Pierre-Marc. Né le 16-08-1696. Chevalier comte de Veuil d’Argenson, baron des Ormes Sain-Martin, avocat au roi au Châtelet (Fr.), puis conseiller au parlement de Paris, maître des requêtes en 1718, lieutenant général de police en 1720, intendant de Tours (Fr.), en 1721, conseiller d’Etat en 1724, secrétaire d’état au département de la guerre de 1743 à 1757. Il vient trouver refuge dans son château des Ormes après avoir été exilé de la Cour du Roi. Dans ses mémoires on retrouve trace de décisions prises au sujet de la Nouvelle-France. Décédé en 1764. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>N'est pas spécifié</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>N'est pas spécifié</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>LES ORMES (86220)</t>
         </is>
       </c>
     </row>
@@ -9678,22 +9678,22 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
+          <t>VELLÉCHES (86230)</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Saint-François-du-Lac (Qc)</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
           <t>VÉRONNEAU*, Louis. Militaire. Baptisé le 14-03-1674, église Notre-Dame. Fils de Louis Véronneau et de Marie Jehan. Marié à Marguerite Maugras, à Cap-de-la-Madeleine (Qc), le 17-08-1705. Décédé à Saint-François-du-Lac (Qc), le 07-06-1759. Sergent des troupes de la Marine, compagnie des Bergères, parti en Nouvelle-France, 1704. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Saint-François-du-Lac (Qc)</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>VELLÉCHES (86230)</t>
         </is>
       </c>
     </row>
@@ -9710,18 +9710,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
+          <t>POITIERS (86000)</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
           <t>DUVERGER dit Laplante, René. Fils de Nicolas Duverger et de Renée Bataille. Marié à 1) Anne Brunet, fille du Roy, au Québec, en 1665. 2) Madeleine Masse, au Québec, en 1667. Contrat de mariage le 16-06-1667 (greffe Gilles Rajotte). Décédé, le 25-05-1673. (FG)</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>POITIERS (86000)</t>
         </is>
       </c>
     </row>
@@ -9738,14 +9734,266 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ÉMÉRIAU ou HÉMÉRIAU dit Bélair, François. Fils de Jacques Émériau et de Françoise Babin. Marié à Isabelle Fresel, à Québec, en 1671. Contrat de mariage le 24-10-1671 (greffe Romain Becquet). Deux enfants. (FG)</t>
+          <t>VIVONNE (86370)</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>VIVONNE (86370)</t>
+          <t>ÉMÉRIAU ou HÉMÉRIAU dit Bélair, François. Fils de Jacques Émériau et de Françoise Babin. Marié à Isabelle Fresel, à Québec, en 1671. Contrat de mariage le 24-10-1671 (greffe Romain Becquet). Deux enfants. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>BONNET</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Mélin</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>BONNET, Mélin. Né vers 1640. Fils de Jean Bonnet et de Jeanne Antigny. Marié à Marie Buisson, au Québec, en 1671. Contrat de mariage le 24-05-1671 (greffe Pierre Duquet). Deux enfants. Inhumé à Charlesbourg (Qc), le 01-10-1703. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>DEVOYAUX dit Laframboise</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>SaintLaurent, Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>DEVOYAUX dit Laframboise. Né vers 1682. Fils de Léonard Devoyaux et d’Anne Letay. Marié à Marie-Jeanne Provost, à Montréal (Qc), le 24-05-1706. Huit enfants. Inhumé à SaintLaurent, Montréal (Qc), le 11-10-1758. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>FRÉGEAU dit Laplanche</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>SaintLaurent, Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>FRÉGEAU dit Laplanche, Daniel. Né vers 1677. Fils de Daniel Frégeau et de Marie Mergot. Marié à Anne Pausé, à Montmagny (Qc), le 11-05-1699. Huit enfants. Inhumé à SaintFrançois-de-la-Rivière-du-Sud (Qc), le 11-05-1750. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>GARCEAU dit Tranchemontagne</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Jean</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>GARCEAU dit Tranchemontagne, Jean. Né vers 1680. Fils de Pierre Garceau et de Jacquette Soulard. Marié à Marie Levron, à Port-Royal (Nouvelle-Écosse), le 20-11-1703. Trois enfants. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>GIRAUDEAU</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Luce</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>GIRAUDEAU, Luce. Fille de Pierre Giraudeau et de Catherine Masson. Mariée à François Grimand, Louisbourg (Nouvelle-Écosse), le 09- 11-1730. Un enfant. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>LACHAUME dit Loumeray</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Louis</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LACHAUME dit Loumeray, Louis. Né vers 1680. Fils de Louis Loumeray et de Catherine Tessier. Marié à Marie Madeleine Triel dite Laperrière, à PortRoyal (Nouvelle-Écosse), le 27-11- 1702. Trois enfants. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>MARTIN</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Laurent</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>MARTIN, Laurent. Fils de Jacques Martin et de Marie Bruneteau. Marié à Marie-Anne Dupuyau, à Québec, le 02-05-1757. Deux enfants. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ORGERÈILLE</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>ORGERÈILLE, Charlotte. Fille de Paul Orgerèille et d’Antoinette Baysette. Mariée à Jean Delfoust, à Louisbourg (Nouvelle-Écosse), le 31- 10-1723. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>RAGUENEAU</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Pointe-aux-Trembles (Qc)</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>RAGUENEAU, Nicolas. Né vers 1647. Fils de François Ragueneau et de Jeanne Geofroi. Marié à Jacquline Lagrange, à Pointe-aux-Trembles (Qc), le 27-11-1681. Inhumé à Pointe-aux-Trembles (Qc), le 06-01-1688. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>SOULARD</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>SOULARD, Jacques. Fils de Jacques Soulard et de Catherine Messant. Marié à Marie-Anne de Saint-Pierre, à Rivière-Ouelle (Qc), le 09-11-1699. Trois enfants. (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>VILLEMONT (de)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Françoise</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>VILLEMONT (de), Françoise. Fille de Henri-Martin de Mirebois de Villemont et d’Antoinette Fourier. Mariée à François-Louis-Jean Caue, en Louisiane, en 1739. Contrat de mariage le 25-04-1739 (greffe Nicolas Henry). (FG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>VILLEMONT (de)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Jeanne-Antoinette</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>VILLEMONT (de), Jeanne-Antoinette. Fille de Henri-Martin de Mirebois de Villemont et d’Antoinette Fourier. Mariée à 1) François-Antoine Rivard dit Lavigne, à La Nouvelle-Orléans (Louisiane), le 20-02-1730. 2) jean-François Huchet, en Louisiane, en 1736. Contrat de mariage le 04-10-1736 (greffe Nicolas Henry). (FG)</t>
         </is>
       </c>
     </row>
